--- a/news.xlsx
+++ b/news.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="solid eletrolyte" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="electrolysis and clean hydrogen" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flow battery" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="solid oxide fuel cell" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="perovskite PV" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micro LED" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wearable device" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="curved shape display" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VR display" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AR display" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MR display" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,47 +468,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://interestingengineering.com/innovation/china-low-cost-solid-state-battery-innovation</t>
+          <t>https://www.tomsguide.com/tvs/samsung-and-lg-are-rethinking-their-microled-tv-strategy-heres-why</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China: Low-cost solid-state battery developed at 10% of current cost</t>
+          <t>Samsung and LG are rethinking their MicroLED TV strategy — here's why</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chinese researchers develops a cost-effective solid-state battery using a 
-new electrolyte, reducing costs to under 10% of traditional models.</t>
+          <t>MicroLED TVs were first conceived as OLED killers, with specs that blend 
+together the pros of both LCD TVs and even the best OLED TVs.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Interesting Engineering</t>
+          <t>Tom's Guide</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.scmp.com/news/china/science/article/3269565/china-scientists-low-cost-solid-state-battery-could-be-ev-industry-breakthrough</t>
+          <t>https://www.digitimes.com/news/a20240710PD209/samsung-microled-tv-production-price.html</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>China scientists’ low-cost solid-state battery could be EV industry 
-game-changer</t>
+          <t>Together with over 30 partners, SDC aims to reduce prices of Micro LED TVs 
+to one-tenth within two to three years</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New approach by USTC research team breaks cost barrier to next-generation 
-rechargeable lithium batteries, according to paper.</t>
+          <t>Micro LED TVs are considered an important next-gen technology, but their 
+high prices have prevented them from becoming more widespread.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,314 +518,318 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>South China Morning Post</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.technologynetworks.com/applied-sciences/news/researchers-develop-worlds-first-anode-free-sodium-solid-state-battery-388425</t>
+          <t>https://www.ledsmagazine.com/leds-ssl-design/article/55094237/cree-led-interview-cree-led-ceo-says-application-specific-innovation-is-key-to-long-term-strategy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Researchers Develop World’s First Anode-Free Sodium Solid-State Battery</t>
+          <t>INTERVIEW | Cree LED CEO says application-specific innovation is key to 
+long-term strategy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This research has brought inexpensive, fast-charging, high-capacity 
-batteries for electric vehicles and grid storage closer than ever.</t>
+          <t>Cree LED president JOE CLARK credits manufacturing outsourcing, 
+application-specific advances, and a collaborative R&amp;D facility with 
+bolstering the LED...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Technology Networks</t>
+          <t>LEDs Magazine</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://english.news.cn/20240704/501b9a22ef0343e3b7ed552a82df97d4/c.html</t>
+          <t>https://www.investors.com/news/sp-500-stocks-super-micro-ai-plays/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chinese researchers develop cost-effective solid electrolyte for advanced 
-batteries</t>
+          <t>Super Micro, These AI Plays Led The S&amp;P 500 Monday</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BEIJING, July 4 (Xinhua) -- Chinese researchers have recently developed a 
-cost-effective sulfide solid electrolyte with low density and excellent 
-anode...</t>
+          <t>Corning and Super Micro were the S&amp;P 500 index's top performers on Monday, 
+while Chipotle was the biggest loser.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Xinhua</t>
+          <t>Investor's Business Daily</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://lightsources.org/2024/07/09/bessy-ii-shows-how-solid-state-batteries-degrade/</t>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/oled-beating-micro-led-tv-tech-looks-uncertain-as-lg-and-samsung-wobble-but-hope-is-not-lost-yet/ar-BB1ptKa7?item=flightsprg-tipsubsc-v1a?season89c26d1ce19649ab8c6b1ea6904de419Thu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BESSY II shows how solid-state batteries degrade</t>
+          <t>OLED-beating micro-LED TV tech looks uncertain as LG and Samsung wobble, 
+but hope is not lost yet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Solid-state batteries have several advantages: they can store more energy 
-and are safer than batteries with liquid electrolytes. However, they do not 
-last...</t>
+          <t>Samsung is reportedly telling partners that micro-LED can't be competitive 
+until panel prices plummet.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lightsources.org</t>
+          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://cosmosmagazine.com/technology/energy/anode-free-sodium-battery/</t>
+          <t>https://www.nature.com/articles/s41566-024-01472-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fast-charging, cheap, solid-state sodium battery bursts onto the scene</t>
+          <t>Novel light manipulation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Researchers have made a solid-state, anode-free sodium battery, which 
-promises higher levels of safety and lower costs than traditional batteries.</t>
+          <t>Novel optical components that withstand high-power laser irradiation and 
+micro light-emitting diodes capable of full-colour emission were highlights 
+of the...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cosmos Magazine</t>
+          <t>Nature</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.einnews.com/pr_news/726447246/solid-electrolyte-market-projected-to-hit-56-6-million-by-2030-with-12-1-cagr-growth</t>
+          <t>https://www.openpr.com/news/3571594/micro-led-pl-inspection-system-market-size-share-trends</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Solid Electrolyte Market Projected to Hit $56.6 Million by 2030, with 12.1% 
-CAGR Growth</t>
+          <t>Micro LED PL Inspection System Market Size, Share, Trends,</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>solid-electrolyte-market-A13632 Increase in application of solid state 
-batteries in the healthcare, wearable,</t>
+          <t>Press release - Worldwide Market Reports - Micro LED PL Inspection System 
+Market Size, Share, Trends, Competitive Landscape, Regional Analysis 
+Forecasts By...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EIN News</t>
+          <t>openPR.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s43246-024-00556-7</t>
+          <t>https://www.prnewswire.com/news-releases/display-market-worth-173-7-billion-by-2029---exclusive-report-by-marketsandmarkets-302193179.html</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anion-cation interactions dictate safe and stable electrolytes for 
-sodium-ion batteries</t>
+          <t>Display Market worth $173.7 billion by 2029 - Exclusive Report by 
+MarketsandMarkets™</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sodium-ion battery safety can be improved by using non-flammable 
-electrolytes, but they are traditionally incompatible with carbon-based 
-anodes.</t>
+          <t>PRNewswire/ -- The display market is expected to reach USD 173.7 billion by 
+2029 from USD 135.2 billion in 2024, at a CAGR of 5.1 % during the 
+2024-2029...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>PR Newswire</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.techtimes.com/articles/306469/20240708/chinese-scientists-develop-cheap-solid-state-rechargeable-ev-battery.htm</t>
+          <t>https://www.businesswire.com/news/home/20240709004471/en/Popular-Planar-UltraRes-L-Series-All-in-One-LED-Platform-Introduces-Unique-122-inch-Model</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chinese Scientists Develop Cheap Solid-State Rechargeable EV Battery</t>
+          <t>Popular Planar UltraRes L Series All-in-One LED Platform Introduces Unique 
+122-inch Model</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chinese researchers achieved a breakthrough in solid-state battery 
-technology, creating a low-cost alternative that could significantly impact 
-the electric...</t>
+          <t>Today, Planar, a global leader in visualization technology, announced an 
+addition to the award-winning Planar® UltraRes™ L Series all-in-one LED 
+platf.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tech Times</t>
+          <t>Business Wire</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.theengineer.co.uk/content/news/team-develops-world-s-first-anode-free-sodium-solid-state-battery</t>
+          <t>https://www.digitimes.com/news/a20240710PD204/samsung-microled-price-production-cost.html</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Team develops world’s first anode-free sodium solid-state battery</t>
+          <t>Samsung's microLED TV price reduction strategy to drive cost cuts across 
+supply chain</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A team from the Laboratory for Energy Storage and Conversion in the US has 
-created the world's first anode-free sodium solid-state battery.</t>
+          <t>Samsung is initiating a price reduction strategy for microLED TVs, which 
+has inspired its sole microLED chip supplier, PlayNitride, to feel 
+optimistic about...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Engineer</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/10/worlds-first-anode-free-sodium-solid-state-battery/</t>
+          <t>https://www.sammobile.com/samsung/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>World’s first anode-free sodium solid-state battery</t>
+          <t>Samsung over the years</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Researchers at the University of Chicago San Diego have created a new 
-sodium battery architecture with stable cycling for several hundred 
-cycles,...</t>
+          <t>What started as a humble trading company in 1938 is now one of the biggest 
+conglomerates on the planet. Samsung is best known for its smartphones,...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>SamMobile</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.techexplorist.com/researchers-create-worlds-first-anode-free-sodium-solid-state-battery/85866/</t>
+          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Researchers create world’s first anode-free sodium solid-state battery</t>
+          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UChicago Prof. Shirley Meng's Laboratory for Energy Storage and Conversion 
-creates the world's first anode-free sodium solid-state battery – a 
-breakthrough...</t>
+          <t>Apple sent shock waves across the industry in March by canceling its 
+microLED project and ending collaboration with Ams OSRAM.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tech Explorist</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.cheddar.com/media/are-we-on-the-verge-of-a-car-battery-revolution/</t>
+          <t>https://www.openpr.com/news/3571185/microbial-identification-market-exploring-current-trends</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Are We on the Verge of a Car-Battery Revolution?</t>
+          <t>Microbial Identification Market | Exploring Current Trends and Growth 
+Status for | 2024-2031</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Solid-state technology could soon replace lithium-ion in EVs, ushering in a 
-new era of safety, fast charging, and 700-mile ranges.</t>
+          <t>Press release - Verified Market Research - Microbial Identification Market 
+| Exploring Current Trends and Growth Status for | 2024-2031 - published 
+on...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -834,30 +839,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cheddar</t>
+          <t>openPR.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://www.msn.com/en-us/news/technology/world-s-1st-anode-free-solid-state-battery-is-powerful-cheap-long-lasting/ar-BB1ppkXS?item=flights%3Aprg-tipsubsc-v1a&amp;ocid=windirect&amp;apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
+          <t>https://www.msn.com/en-gb/lifestyle/shopping/samsung-and-lg-are-rethinking-their-microled-tv-strategy-here-s-why/ar-BB1pHgHM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>World’s 1st anode-free solid-state battery is powerful, cheap, long-lasting</t>
+          <t>Samsung and LG are rethinking their MicroLED TV strategy — here's why</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The team's design uses a stable solid electrolyte and pressure to form 
-dense sodium metal. An aluminum current collector ensures efficient,...</t>
+          <t>MicroLEDs might not be the future revolution over OLED that TV makers, like 
+Samsung and LG, were desperately hoping for as they cut back spending in 
+these...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -869,77 +875,78 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41598-024-66498-9</t>
+          <t>https://www.newsbytesapp.com/news/auto/top-10-selling-cars-in-india-this-june/story</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A solid state electrolyte based enzymatic acetone sensor</t>
+          <t>This was India's bestselling car this June</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>This paper introduces a novel solid-state electrolyte-based enzymatic 
-sensor designed for the detection of acetone, along with an examination of 
-its...</t>
+          <t>The Tata Punch micro-SUV has topped the sales chart for June 2024, 
+outperforming competitors like the new Maruti Suzuki Swift, Hyundai 
+Creta,...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>NewsBytes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://techxplore.com/news/2024-07-rechargeable-batteries-sustainable-fully-recyclable.html</t>
+          <t>https://bmmagazine.co.uk/get-funded/edinburgh-based-fintech-platform-recast-raises-5-million-in-funding-round-led-by-morpheus-ventures/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Making rechargeable batteries more sustainable with fully recyclable 
-components</t>
+          <t>Edinburgh-based fintech platform Recast raises $5 million in funding round 
+led by Morpheus Ventures</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rechargeable solid-state lithium batteries are an emerging technology that 
-could someday power cell phones and laptops for days with a single charge.</t>
+          <t>Recast, the pioneering Edinburgh-based fintech-for-media platform, has 
+successfully closed a $5 million funding round. This round was led by 
+prominent...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tech Xplore</t>
+          <t>Business Matters</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.eurekalert.org/news-releases/1050456</t>
+          <t>https://www.retail4growth.com/news/immersive-led-experience-at-unilumins-new-experience-centre-6820</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hexagonal perovskite oxides: Electrolytes for next-generation protonic 
-ceramic fuel cells</t>
+          <t>Immersive LED experience at Unilumin’s new experience centre</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The material's high proton conductivity and chemical stability at 
-temperatures of 200–500 °C can pave the way for more durable fuel cells.</t>
+          <t>Unilumin has just opened its first state-of-the-art experience centre in 
+Noida, which showcases the latest LED COB and MIP technologies and products 
+with an...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -949,212 +956,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EurekAlert!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.alcircle.com/news/aluminium-powder-revolutionises-batteries-introducing-the-first-anode-free-solid-state-battery-111364</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Aluminium powder revolutionises batteries: Introducing the first anode-free 
-solid-state battery</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>In a groundbreaking development, a team of researchers has successfully 
-combined the most advanced battery technologies to create the world's 
-first...</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>alcircle</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://interestingengineering.com/energy/rock-based-battery-transform-ev</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Rock turned into battery, new electrolyte can transform EV industry</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Researchers have explored a new material based on rock silicates, which can 
-replace lithium in electric car batteries in the future. The material can 
-help...</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Interesting Engineering</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://hackaday.com/2024/07/07/new-battery-has-no-anode/</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>New Battery Has No Anode</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Conventional batteries have anodes and cathodes, but a new design from the 
-University of Chicago and the University of California San Diego lacks an 
-anode.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hackaday</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.openpr.com/news/3563368/battery-electrolyte-market-dosage-price-and-clinical-pipeline</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Battery Electrolyte Market Dosage, Price and Clinical Pipeline</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Market Overview: Global battery electrolyte market is estimated to be 
-valued at USD 11.79 Bn in 2024 and is expected to reach USD 26.22 Bn by 
-2031,...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>openPR.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>http://www.msn.com/en-us/news/technology/scientist-makes-superionic-battery-technology-breakthrough-that-could-transform-the-ev-industry-cheap-efficient-eco-friendly-and-scalable/ar-BB1pr38r?apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Scientist makes 'superionic' battery technology breakthrough that could 
-transform the EV industry: 'Cheap, efficient, eco-friendly, and scalable'</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Solid-state batteries could ensure around 621 miles of driving range on a 
-single 10-minute charge. Scientist makes 'superionic' battery technology...</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://indiaeducationdiary.in/postechs-professor-soojin-park-leads-development-of-commercially-viable-gel-electrolyte-for-lithium-batteries/</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>POSTECH’s Professor Soojin Park Leads Development of Commercially Viable 
-Gel Electrolyte for Lithium Batteries</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Professor Soojin Park, Seoha Nam, a PhD candidate, and Dr. Hye Bin Son from 
-the Department of Chemistry at Pohang University of Science and 
-Technology...</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>India Education Diary</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://wonderfulengineering.com/this-is-the-worlds-1st-anode-free-solid-state-battery/</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>This Is The World’s 1st Anode-Free Solid-State Battery</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A team of researchers has made a breakthrough by combining the most 
-advanced battery technologies to develop the world's first anode-free 
-sodium solid-state...</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Wonderful Engineering</t>
+          <t>Retail4growth</t>
         </is>
       </c>
     </row>
@@ -1164,667 +966,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>snippet</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/news/merchant-hydrogen-market-size-projected-081000503.html</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Merchant Hydrogen Market Size Projected to Reach USD 565.5 Billion by 2034, 
-With CAGR of 8.2%: Prophecy Market Insights</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Merchant Hydrogen Market” from 2024-2034 with covered segments By Type 
-(Gaseous Merchant Hydrogen and Liquid Merchant Hydrogen), By Method (Steam 
-Methane...</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1 week ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yahoo Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.chemanalyst.com/NewsAndDeals/NewsDetails/zurich-and-aon-launch-innovative-clean-hydrogen-insurance-to-drive-net-zero-goals-28759</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Zurich and Aon Launch Innovative Clean Hydrogen Insurance to Drive Net-Zero 
-Goals</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Zurich Insurance Group (Zurich) and Aon have introduced an innovative 
-insurance facility for clean energy, offering extensive coverage worldwide 
-for blue...</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ChemAnalyst</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.pv-magazine.com/2024/07/05/the-hydrogen-stream-erm-starts-trials-for-electrolysis-desalination-transport/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The Hydrogen Stream: ERM starts trials for electrolysis, desalination, 
-transport</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ERM says it has launched offshore trials to test its Dolphyn Hydrogen 
-process, while Southern California Gas (SoCalGas) and Evoloh have completed 
-a joint...</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pv magazine International</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.hartenergy.com/exclusives/global-electrolyzer-maker-thyssenkrupp-nucera-talks-hydrogen-209699</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Global Electrolyzer Maker Thyssenkrupp Nucera Talks Hydrogen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Thyssenkrupp Nucera CEO Werner Ponikwar recently shared insight on the 
-electrolytic hydrogen sector and the company's plans in the U.S. during an 
-exclusive...</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hart Energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://hydrogen-central.com/new-study-shows-wind-and-hydropower-lead-in-clean-hydrogen-while-solar-lags-behind-news-eco-business/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>New study shows wind and hydropower lead in clean hydrogen, while solar 
-lags behind | News | Eco-Business</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>New study shows wind and hydropower lead in clean hydrogen, while solar 
-lags behind | News | Eco-Business. To be considered “clean”,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hydrogen Central</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://cleantechnica.com/2024/07/08/new-ceramic-reactor-tackles-hydrogen-recycling-industrial-decarbonization/</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>New Ceramic Reactor Tackles Hydrogen Recycling &amp; Industrial Decarbonization</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ceramic cells are the key to a new, non-electric reactor-based system for 
-producing hydrogen from biogas, RNG, and industrial waste gases.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CleanTechnica</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/scientists-make-breakthrough-using-sunlight-and-waste-to-produce-clean-hydrogen-this-is-a-transformative-technology/ar-BB1p6Hg4?item=flightsprg-tipsubsc-v1a?season/</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Scientists make breakthrough using sunlight and waste to produce clean 
-hydrogen: 'This is a transformative technology'</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>"It's the highest anyone has demonstrated." Scientists make breakthrough 
-using sunlight and waste to produce clean hydrogen: 'This is a 
-transformative...</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1 week ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.statista.com/statistics/1374638/global-net-capacity-for-green-hydrogen-by-leading-company/</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Net capacity for green hydrogen in the pipeline worldwide in Q1 2024, by 
-leading company</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Green Hydrogen International has the largest proposed green hydrogen 
-capacity of any company in the world.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10 hours ago</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Statista</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.motor1.com/news/725500/toyota-mirai-50-percent-discount/</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>You Can Buy a New Toyota Mirai for Half the Price</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Toyota has a sweet deal for the Mirai that cuts 50 percent off the sticker 
-price. The hydrogen sedan can be financed for 72 months at zero percent 
-interest.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Motor1.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.hydrogeninsight.com/policy/spain-approves-nearly-800m-in-state-aid-for-green-hydrogen-after-almost-two-years-of-delay/2-1-1674990</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BREAKING | Spain approves nearly €800m in state aid for green hydrogen, 
-after almost two years of delay</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>More than 650MW of new electrolyser capacity will be given direct aid, with 
-the government anticipating €1.14bn of 'immediate investment' to be 
-deployed.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20 hours ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Hydrogen Insight</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.openpr.com/news/3565075/hydrogen-electrolyzer-industry-to-witness-massive-growth</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hydrogen Electrolyzer Industry to Witness Massive Growth</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Press release - DataM Intelligence - Hydrogen Electrolyzer Industry to 
-Witness Massive Growth (2024-2031) | Cummins Inc., Toshiba Corporation, 
-Cummins Inc.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>openPR.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.ecoticias.com/en/revo-zero-hydrogen-electric-hev/4030/</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>The impressive new engine: Riding the waves of the new hydrogen-electric 
-hybrid era</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Discover the REVO ZERO SUV, an electric hydrogen hybrid with a 
-groundbreaking pFC drivetrain, leading the charge in sustainable automotive 
-innovation.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ECOticias</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.manufacturingtodayindia.com/financing-the-shift-innovative-models-for-building-indias-hydrogen-pipeline-network/</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Financing the shift: Innovative models for building India’s hydrogen 
-pipeline network</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Green hydrogen, derived from renewable sources such as solar and wind 
-power, represents a significant opportunity to slash carbon emissions,...</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2 hours ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Manufacturing Today India</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.biv.com/news/technology/ottawa-gives-funding-boost-to-bcs-ekona-power-9197531</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ottawa gives funding boost to B.C.’s Ekona Power to make clean hydrogen</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ekona Power, the B.C. company developing turquoise hydrogen production 
-technology, is getting a $1 million boost from the federal government.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11 hours ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Business in Vancouver</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>http://www.msn.com/en-us/news/technology/preparation-strategies-and-applications-of-high-entropy-materials-catalysts-for-electrochemical-water-electrolysis/ar-BB1peayq?item=flightsprg-tipsubsc-v1a%3Fseason&amp;apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Preparation strategies and applications of high-entropy materials catalysts 
-for electrochemical water electrolysis</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The escalating consumption of fossil fuels has raised concerns over energy 
-crises and environmental pollution, prompting an urgent need for renewable 
-and...</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22 hours ago</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://hydrogen-central.com/ole-vesterbaek-resigns-as-cfo-of-green-hydrogen-systems/</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Ole Vesterbæk resigns as CFO of Green Hydrogen Systems</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ole Vesterbæk resigns as CFO of Green Hydrogen Systems. Today, Green 
-Hydrogen Systems has received the resignation from OleVesterbæk,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Hydrogen Central</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/novel-two-step-electrolysis-of-water-proposed-for-hydrogen-production/ar-BB1pC0j2?item=themed_featuredapps_enabled?loadin</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Novel two-step electrolysis of water proposed for hydrogen production</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A research team led by Prof. Chen Changlun from the Hefei Institutes of 
-Physical Science of the Chinese Academy of Sciences, together with 
-collaborators,...</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/money/savingandinvesting/we-are-betting-the-bank-on-hydrogen-but-are-we-ready-for-it/ar-BB1osLNP?item=themed_featuredapps_enabled?loadin=defaultbrowser</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>We are betting the bank on hydrogen. But are we ready for it?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Green hydrogen holds many promises: it can serve as a "battery" for energy 
-storage, it can be used in the chemical industry, and its only emission 
-will be...</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9 hours ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-ae/news/other/jinkosolar-powers-up-world-s-largest-green-hydrogen-project-with-1gw-solar-panel-deal/ar-BB1pEQTd</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>JinkoSolar Powers Up World’s Largest Green Hydrogen Project with 1GW Solar 
-Panel Deal</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Arabian Post -Chinese solar company JinkoSolar has secured a significant 
-contract to supply solar panels for the world's most ambitious green 
-hydrogen...</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>21 hours ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.indianchemicalnews.com/hydrogen/lite/nextgen-2024-to-highlight-challenges-in-implementing-big-ticket-projects-for-hydrogen-22390</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NextGen 2024 to highlight challenges in implementing big ticket projects 
-for hydrogen</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Dr. Kaliaperumal Selvaraj, Senior Principal Scientist, CSIR National 
-Chemical Laboratory; Amrit Singh Deo, Senior Managing Director, FTI 
-Consulting;...</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Indian Chemical News</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.sharecast.com/news/aim-bulletin/itm-power-inks-500mw-capacity-reservation-deal--17046436.html</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ITM Power inks 500MW capacity reservation deal</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ITM Power announced a significant capacity reservation agreement with a 
-major global industrial customer on Monday, securing 500MW of future 
-production...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Sharecast.com</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1868,20 +1009,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.azom.com/news.aspx?newsID=63297</t>
+          <t>https://www.ncoa.org/adviser/medical-alert-systems/best-medical-alert-systems-fall-detection/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Developing Improved Redox Flow Battery Materials with Enhanced Stability 
-and Affordability</t>
+          <t>8 Best Fall Detection Devices of 2024: Our Experts Tested and Reviewed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A team of researchers at the Korea Institute of Energy Research's Energy 
-Storage Research Department has successfully improved the performance and 
-cycle...</t>
+          <t>Our comprehensive guide to the most reliable medical alert systems with 
+fall detection. Expert insights and analysis to ensure your loved one's 
+safety.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1891,231 +1031,226 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AZoM</t>
+          <t>National Council on Aging</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://interestingengineering.com/science/vanadium-free-redox-battery</t>
+          <t>https://www.texasstandard.org/stories/competition-wearable-tech-watches-earbuds-rings-samsung-apple-meta/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low-cost material doubles energy density of redox flow battery without 
-vanadium</t>
+          <t>Competition heats up in wearable tech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Korean researchers have improved solubility of viologens that can replace 
-vanadium in redox batteries and doubled its energy density.</t>
+          <t>From smartwatches offering health data to a wristband that tracks your hand 
+movements, Samsung, Meta and others have big plans.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Interesting Engineering</t>
+          <t>Texas Standard</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.augustachronicle.com/story/business/2024/07/04/proposed-augusta-factory-poised-to-manufacture-gigantic-batteries-stryten-vanadium-redox-flow/74284114007/</t>
+          <t>https://www.pymnts.com/news/wearables/2024/samsung-enters-smart-ring-market-expanding-wearable-tech-portfolio/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This energy company wants Augusta factory to manufacture batteries the size 
-of houses</t>
+          <t>Samsung Enters Smart Ring Market, Expanding Wearable Tech Portfolio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A Georgia-based energy-storage manufacturer hopes its proposed Augusta 
-plant will speed the production of some of the world's largest batteries.</t>
+          <t>Samsung debuted its Galaxy Ring, marking its entry into the smart ring 
+category and bolstering its presence in health monitoring.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Augusta Chronicle</t>
+          <t>PYMNTS.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.wicz.com/story/50993616/Ion-Exchange-Membrane-of-All-Vanadium-Redox-Flow-Battery-Market</t>
+          <t>https://finance.yahoo.com/news/fortune-500-consumer-electronics-corporation-124500108.html</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ion Exchange Membrane of All-Vanadium Redox Flow Battery Market</t>
+          <t>Fortune 500 Consumer Electronics Corporation Has Purchased an Evaluation 
+License for Wearable Devices' MDK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The “Ion Exchange Membrane of All-Vanadium Redox Flow Battery Market” 
-Research Report serves as a comprehensive guide, providing crucial insights 
-into...</t>
+          <t>The companies will explore together with the Fortune 500 company's AI 
+division different use cases of Mudra neural AI controller YOKNEAM ILLIT, 
+ISRAEL,...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WICZ</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.miragenews.com/kier-creates-viologen-redox-flow-battery-to-1268724/</t>
+          <t>https://www.zdnet.com/article/best-smart-ring/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KIER Creates Viologen Redox Flow Battery to Supplant Vanadium</t>
+          <t>The best smart rings of 2024: Expert tested and reviewed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A technology has been developed to replace the active material in 
-large-capacity ESS 'redox flow batteries' with a more affordable 
-substance.*Redox.</t>
+          <t>Samsung just released its brand new Galaxy Ring, but should you buy it? 
+Look at our tested picks for the best smart rings before making a decision.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mirage News</t>
+          <t>ZDNET</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.futuretravelexperience.com/2024/07/schiphol-testing-super-battery-in-major-step-towards-energy-storage-and-further-electrification-of-ground-equipment/</t>
+          <t>https://www.nature.com/articles/s41371-024-00932-3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Schiphol testing ‘super battery’ in major step towards energy storage and 
-further electrification of ground equipment</t>
+          <t>Wearable cuffless blood pressure tracking: when will they be good enough?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Schiphol is taking a major step towards energy storage and the further 
-electrification of ground equipment by trialling an Iron Flow Battery.</t>
+          <t>Wearable health monitoring is a multibillion-dollar industry. But the holy 
+grail is probably getting it right for blood pressure monitoring without a 
+cuff,...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>24 hours ago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Future Travel Experience</t>
+          <t>Nature</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.prnewswire.com/news-releases/battery-energy-storage-system-market-worth-25-6-billion-by-2029---exclusive-report-by-marketsandmarkets-302190574.html</t>
+          <t>https://www.biospace.com/article/releases/u-s-wearable-medical-devices-market-size-to-hit-usd-112-67-bn-by-2033/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Battery Energy Storage System Market worth $25.6 billion by 2029 - 
-Exclusive Report by MarketsandMarkets™</t>
+          <t>U.S. Wearable Medical Devices Market Size to Hit USD 112.67 Bn by 2033</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRNewswire/ -- The global battery energy storage market size is estimated 
-to be USD 7.8 billion in 2024 and is projected to reach USD 25.6 billion by 
-2029,...</t>
+          <t>U.S. Wearable Medical Devices Market Size to Hit USD 112.67 Bn by 2033 - 
+read this article along with other careers information, tips and advice 
+on...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PR Newswire</t>
+          <t>BioSpace</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.microgridknowledge.com/energy-storage/article/55094025/testing-long-duration-energy-storage-in-microgrids-for-military-and-native-lands-applications</t>
+          <t>https://www.expressnews.com/living/article/samsung-brings-tech-s-latest-fashion-to-wearable-19564776.php</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Testing Long-Duration Energy Storage in Microgrids for Military and Native 
-Lands Applications</t>
+          <t>Samsung brings tech's latest fashion to wearable technology with AI twists 
+in new watch and ring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>While the U.S. Department of Energy and California Energy Commission are 
-testing long-duration energy storage technologies, battery providers are 
-working to...</t>
+          <t>SAN FRANCISCO (AP) — Samsung is dressing up its wearable devices in 
+technology's latest fashion — artificial intelligence.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Microgrid Knowledge</t>
+          <t>San Antonio Express-News</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.abc27.com/business/press-releases/ein-presswire/725403206/salgenx-revolutionizes-battery-technology-with-self-assembly-and-self-healing-cathode-materials</t>
+          <t>https://sleepreviewmag.com/sleep-health/demographics/career/wearable-devices-monitor-sailor-sleep-naval-exercise/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Salgenx Revolutionizes Battery Technology with Self-Assembly and 
-Self-Healing Cathode Materials</t>
+          <t>Wearable Devices Monitor Sailor Sleep During Naval Exercise</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salgenx Revolutionizes Battery Technology with Self-Assembly and 
-Self-Healing Cathode Materials for Grid-scale Saltwater Flow Battery.</t>
+          <t>A study conducted by the Naval Health Research Center will monitor sleep 
+and fatigue among sailors aboard the USS Curtis Wilbur.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2125,261 +1260,260 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ABC27</t>
+          <t>Sleep Review</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/energy/china-struggling-make-use-boom-energy-storage-calls-even-more-2024-07-05/</t>
+          <t>https://www.scmp.com/tech/big-tech/article/3270119/big-things-come-small-packages-can-samsungs-new-smart-ring-help-its-china-comeback</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>China, struggling to make use of a boom in energy storage, calls for even 
-more</t>
+          <t>Can Samsung’s new smart ring help it regain the China market?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rows of what look like thin, white shipping containers are lined up on a 
-barren dirt field in China's Shandong province.</t>
+          <t>The Galaxy Ring, featuring on-device artificial intelligence, marks 
+Samsung's latest bid to challenge Apple's lead in the global market for 
+smart wearable...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>South China Morning Post</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.energy-storage.news/nextera-energy-resources-reaches-final-permitting-stage-for-3gw-bess-in-fresno-county-california/</t>
+          <t>https://www.wired.com/gallery/posture-correctors/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NextEra Energy Resources reaches final permitting stage for 3GW BESS in 
-Fresno County, California</t>
+          <t>The Best Posture Correctors to Put a Stop to Your Slouch</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NextEra Energy Resources is proposing to construct a 3GW standalone BESS 
-across 260 acres of private land in Fresno County, California.</t>
+          <t>You're hunched over your desk and phone for hours. We rounded up gadgets, a 
+DIY trick, and even some yoga advice to help you straighten up.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Energy-Storage.News</t>
+          <t>WIRED</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://pv-magazine-usa.com/2024/07/03/lithium-ion-battery-fire-safety-starts-with-the-manufacturer/</t>
+          <t>https://www.cnet.com/tech/mobile/best-smartwatch/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lithium-ion battery fire safety starts with the manufacturer</t>
+          <t>Best Smartwatch for 2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fluence America's president says stakeholder and first responder engagement 
-is necessary to keep failures from becoming newsworthy events.</t>
+          <t>We've tested some of the best smartwatches for every wrist, phone and 
+budget.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>pv magazine USA</t>
+          <t>CNET</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.wicz.com/story/50993887/all-iron-redox-flow-battery-market-global-demand-opportunities-trends-analysis-and-forecast-to-2032</t>
+          <t>https://finance.yahoo.com/news/wearable-ai-market-expected-grow-150600779.html</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>All-Iron Redox Flow Battery Market Global Demand, Opportunities, Trends, 
-Analysis and Forecast to 2032</t>
+          <t>Wearable AI Market is expected to Grow at an 8.3% CAGR and Reach USD 146.2 
+billion by 2034| Report by Transparency Market Research, Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>All-Iron Redox Flow Battery Market” Size, Share &amp; Trends Analysis Report 
-2024 – By Applications (Utility Facilities, Commercial &amp; Industrial 
-(C&amp;I),...</t>
+          <t>AI-powered wearables offer customized fitness plans and real-time coaching, 
+adapting to individual goals and progress.Wilmington, Delaware, United 
+States,...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WICZ</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.wicz.com/story/51001864/vanadium-redox-battery-vrb-market-2024-regional-analysis-by-recent-developments-revenue-market-drivers-and-forecast-to-2030</t>
+          <t>https://www.businessinsider.com/guides/tech/how-to-preorder-the-samsung-galaxy-ring-2024-7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vanadium Redox Battery (VRB) Market 2024 Regional Analysis by Recent 
-Developments, Revenue, Market Drivers and Forecast to 2030</t>
+          <t>How to Preorder the Samsung Galaxy Ring, a New Wearable Health-Tracker</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The manufactures in Vanadium Redox Battery (VRB) Market report are as 
-follows: Dalian Rongke Power, Sumitomo Electric, VRB ENERGY, Largo Clean 
-Energy,...</t>
+          <t>Samsung's new Galaxy Ring is finally available for preorder. Designed as a 
+competitor to the Oura Ring, the new device is a health-tracking wearable 
+that...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WICZ</t>
+          <t>Business Insider</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/05/zinc-batteries-redflow-teams-with-stanwell-on-400-mwh-project-e-zinc-secures-31m-commercialization-funding/</t>
+          <t>https://news.umich.edu/an-invisible-mask-wearable-air-curtain-treated-to-kill-viruses-blocks-99-8-of-aerosols/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zinc batteries: Redflow teams with Stanwell on 400 MWh project, e-Zinc 
-secures $31m commercialization funding</t>
+          <t>An invisible mask? Wearable air curtain, treated to kill viruses, blocks 
+99.8% of aerosols</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Australian zinc bromide flow battery specialist Redflow has struck a 
-partnership with Queensland state-owned generation company Stanwell to work 
-together on...</t>
+          <t>Headworn tech from U-M startup could protect agricultural and industrial 
+workers from airborne pathogens. An error occurred.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>University of Michigan News</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/global-22-billion-battery-management-135100789.html</t>
+          <t>https://www.citizentribune.com/news/business/samsung-brings-techs-latest-fashion-to-wearable-technology-with-ai-twists-in-new-watch-and/article_e9e63447-eb75-57f9-8ce8-032c532e5d45.html</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Global $22 Billion Battery Management System Market Outlook 2024-2029: 
-Insights Into Industry Dynamics, the Value Chain, Pricing, Technologies, 
-Case Studies, Trade, and Key Players</t>
+          <t>Samsung brings tech's latest fashion to wearable technology with AI twists 
+in new watch and ring</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Global Battery Management System Market Global Battery Management System 
-Market Dublin, July 05, 2024 (GLOBE NEWSWIRE) -- The "Global Battery 
-Management...</t>
+          <t>Samsung is dressing up its wearable devices in technology's latest fashion 
+— artificial intelligence. The South Korean electronics giant on 
+Wednesday...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>Citizen Tribune</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.wicz.com/story/50992856/Vanadium-Redox-Battery-Electrolyte-Market</t>
+          <t>https://finance.yahoo.com/news/wearable-medical-devices-market-size-225000036.html</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vanadium Redox Battery Electrolyte Market Research 2024: Key Dyn</t>
+          <t>Wearable Medical Devices Market size is set to grow by USD 26.55 billion 
+from 2024-2028, Increasing prevalence of chronic diseases globally boost 
+the market, Technavio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The “Vanadium Redox Battery Electrolyte Market” Research Report serves as a 
-comprehensive guide, providing crucial insights into industry Top players 
-[LE...</t>
+          <t>The largest market for medical devices is the United States. The global 
+wearable medical devices market size is estimated to grow by USD 26.55 
+billion from...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WICZ</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://cosmosmagazine.com/technology/energy/anode-free-sodium-battery/</t>
+          <t>https://www.htworld.co.uk/news/wearable-tech-collaboration-aims-to-make-gaming-more-accessible/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fast-charging, cheap, solid-state sodium battery bursts onto the scene</t>
+          <t>Wearable tech collaboration aims to make gaming more accessible</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Researchers have made a solid-state, anode-free sodium battery, which 
-promises higher levels of safety and lower costs than traditional batteries.</t>
+          <t>The project focuses on using wearable sensing technology to enable people 
+with different motor abilities to perform everyday tasks and enjoy gaming 
+in...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2389,357 +1523,603 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cosmos Magazine</t>
+          <t>Health Tech World</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://pv-magazine-usa.com/2024/07/05/sunrise-brief-lithium-ion-battery-fire-safety-starts-with-the-manufacturer/</t>
+          <t>https://www.thestreet.com/retail/apple-watch-oura-ring-finally-get-giant-new-competitor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunrise brief: Tesla battery deployment up 157%; Megapack pricing down 44%</t>
+          <t>Apple Watch, Oura Ring finally get giant new competitor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Also on the rise: Lithium-ion battery fire safety starts with the 
-manufacturer. Michigan legislation bars homeowners associations from 
-banning solar.</t>
+          <t>The wearable fitness device space is growing at a rapid clip, and for good 
+reason.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>pv magazine USA</t>
+          <t>TheStreet</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://batteriesnews.com/make-more-in-america-initiative-to-fund-expansion-of-ess-long-duration-battery-energy-storage-manufacturing-capacity/</t>
+          <t>https://news.samsung.com/global/samsungs-expanded-wearables-portfolio-unlocks-intelligent-health-experiences-for-all</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Make More in America Initiative to Fund Expansion of ESS’ Long-Duration 
-Battery Energy Storage Manufacturing Capacity</t>
+          <t>Samsung’s Expanded Wearables Portfolio Unlocks Intelligent Health 
+Experiences for All</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Make More in America Initiative to Fund Expansion of ESS' Long-Duration 
-Battery Energy Storage Manufacturing Capacity. ESS Tech, Inc. (ESS) (NYSE: 
-GWH),...</t>
+          <t>Samsung Galaxy Ring, Galaxy Watch7 and Galaxy Watch Ultra enable new, 
+intelligent health experiences across the portfolio, making everyday 
+wellness more...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Batteries News</t>
+          <t>Samsung Global Newsroom</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.bestmag.co.uk/entek-to-receive-1-2-billion-doe-loan-for-new-lithium-ion-battery-separator-plant/</t>
+          <t>https://abcnews.go.com/GMA/Wellness/samsung-unveils-1st-smart-ring-biometric-health-monitoring/story?id=111849999</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Entek to receive $1.2 billion DOE loan for new lithium-ion battery 
-separator plant</t>
+          <t>Samsung unveils 1st smart ring with biometric health monitoring, how it 
+stacks up to the Oura Ring</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Battery separator company Entek is set to receive a $1.2 billion 
-conditional loan from the US Department of Energy Loan Programs Office 
-(LPO) for a new.</t>
+          <t>What to know about the new Samsung Galaxy Ring, Samsung's new wearable 
+technology device with 24/7 health monitoring capabilities.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>www.bestmag.co.uk</t>
+          <t>ABC News - Breaking News, Latest News and Videos</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.theengineer.co.uk/content/news/team-develops-world-s-first-anode-free-sodium-solid-state-battery</t>
+          <t>https://www.bbc.com/news/articles/c978902e0ljo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Team develops world’s first anode-free sodium solid-state battery</t>
+          <t>Samsung launches Galaxy smart ring to track sleep and periods</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LESC believes the research brings forward the reality of inexpensive, 
-fast-charging, high-capacity batteries for electric vehicles and grid 
-storage.</t>
+          <t>Samsung is hoping to lure fitness and health-tracking technology lovers 
+with its newest wearable device - the Galaxy Ring. It launched the device 
+at its...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The Engineer</t>
+          <t>BBC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://energynews.pro/en/china-steps-up-investment-in-energy-storage/</t>
+          <t>https://www.abc27.com/business/press-releases/ein-presswire/726224777/boundarycare-wearable-technology-solutions-covered-by-nc-innovations-waiver</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>China steps up investment in energy storage</t>
+          <t>BoundaryCare Wearable Technology Solutions Covered by NC Innovations Waiver</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>China is experiencing an explosion in energy storage projects, aimed at 
-easing the transition to renewable energies. A striking example is the 795 
-MW power...</t>
+          <t>The Innovations Waiver helps them live independent, more fulfilling lives 
+in their own communities as they benefit from valuable services and support 
+like...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>energynews.pro</t>
+          <t>ABC27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.valuethemarkets.com/analysis/investing-in-energy-storage</t>
+          <t>https://www.tomsguide.com/us/best-smartwatches,review-2156.html</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Investing in Energy Storage Systems</t>
+          <t>Best smartwatch 2024: Top picks for every budget</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Discover investment opportunities in the growing energy storage market, 
-driven by advances in battery technology and the global shift toward 
-renewable...</t>
+          <t>Here are the best smartwatches available for iPhone and Android users based 
+on our team's testing and reviews.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Value the Markets</t>
+          <t>Tom's Guide</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.androidcentral.com/accessories/audio/tribit-stormbox-flow-review</t>
+          <t>https://www.cnet.com/tech/mobile/samsungs-already-working-on-the-next-gen-galaxy-ring-ahead-of-unpacked/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tribit StormBox Flow review: The only budget Bluetooth speaker you'll need</t>
+          <t>Samsung Is Already Working on the Next-Gen Galaxy Ring Ahead of Unpacked</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tribit makes a lot of great budget Bluetooth speakers, and the Flow is a 
-standout showing that has IP67 ingress protection, all at just $60.</t>
+          <t>The tech giant appears to be experimenting with a more square-shaped ring 
+as a follow-up to its first version.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Android Central</t>
+          <t>CNET</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.ecoticias.com/en/chinese-battery-sodium-ion/4063/</t>
+          <t>https://techwireasia.com/2024/07/wearable-technology-warehouse-distribution-portable-computers-scanners/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Battery That China Is Hiding from the World: It Uses This Strange 
-Material and Could Destroy Our Industry</t>
+          <t>The wearable technologies designed specifically for warehouse and storage 
+use: rugged, reliable and upgradeable</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China's progress with renewable energies is undeniable, but the ethics with 
-which they are achieving it is not. The whole world is on tenterhooks with 
-the.</t>
+          <t>Today's wearable technology designed for warehouse operators and retail 
+staff combines the latest hardware scanners with up-to-date, upgradeable 
+software.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ECOticias</t>
+          <t>Tech Wire Asia</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.bestmag.co.uk/ilika-ships-first-batch-of-solid-state-batteries-for-oem-testing/</t>
+          <t>https://finance.yahoo.com/news/samsungs-galaxy-ring-smart-device-093000311.html</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ilika ships first batch of solid-state batteries for OEM testing</t>
+          <t>Can Samsung's new Galaxy Ring smart device help its China comeback?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Solid stated battery company Ilika has shipped a first batch of prototype 
-Goliath batteries for external testing by an OEM automotive maker.</t>
+          <t>Samsung Electronics, once the dominant smartphone player in China, is 
+drawing fresh interest from consumers on the mainland after the South 
+Korean tech...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>www.bestmag.co.uk</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.whatech.com/og/markets-research/energy/854062-battery-energy-storage-system-market-worth-25-6-billion-by-2029-at-a-cagr-of-26-9</t>
+          <t>https://www.samsungmobilepress.com/feature-stories/unlocking-new-possibilities-for-preventative-wellness-with-new-galaxy-watch-and-bioactive-sensor/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Battery Energy Storage System Market Worth $25.6 Billion By 2029, At A CAGR 
-Of 26.9%</t>
+          <t>Unlocking New Possibilities for Preventative Wellness With New Galaxy Watch 
+and BioActive Sensor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Battery Energy Storage System Market by Battery Type (Lithium-ion, Advanced 
-Lead Acid, Flow, Nickel-based), Energy Capacity (Below 100 MWh, Between 100 
-MWh...</t>
+          <t>Galaxy Unpacked,Galaxy Unpacked 2024,Galaxy AI,Wearable,Galaxy 
+Watch,Health,Sleep,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WhaTech</t>
+          <t>Samsung Mobile Press</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.openpr.com/news/3567342/energy-storage-battery-for-microgrid-market-looks-to-expand-its</t>
+          <t>https://www.cbsnews.com/news/doctors-recommending-apple-watches-manage-health-conditions/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Energy Storage Battery for Microgrid Market looks to expand its size in 
-Overseas Market</t>
+          <t>Why some doctors are recommending Apple Watches to manage health conditions</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A Latest intelligence report published by MR Forecast with title "Global 
-Energy Storage Battery for Microgrid Market Outlook to 2032.</t>
+          <t>Apple watches and other wearable devices may be more useful to your long 
+term health goals than you think. Some doctors are recommending them as a 
+medical...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>openPR.com</t>
+          <t>CBS News</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://mining.com.au/the-battery-metals-boom-isnt-over-yet/</t>
+          <t>https://okmagazine.com/p/what-is-future-wearable-technology/</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The battery metals boom isn’t over yet</t>
+          <t>What Is The Future Of Wearable Technology?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>We are living, it seems, in the age of battery metals mania. It wasn't long 
-ago that mobile phone sales had the capacity to send ripples through the 
-battery...</t>
+          <t>As advancements in all areas continue to accelerate at an ever-faster pace 
+thanks to breakthroughs in the likes of artificial intelligence and 
+processing...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mining.com.au</t>
+          <t>OK Magazine</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>snippet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://insights.samsung.com/2024/07/08/3-tips-to-create-a-collaborative-workspace-that-brings-employees-back-to-the-office/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 tips to create a collaborative workspace that brings employees back to 
+the office</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Building a more collaborative workspace can get employees excited about 
+their return to work and ease the transition. Here are three ways to do 
+just that.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Samsung Business Insights</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.musicradar.com/news/best-computer-monitors-for-music-production</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Best computer monitors for music production 2024: Increase your 
+productivity with these all-seeing displays</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Maximise your screen time with the second most important monitor in your 
+studio – budget to pro options included.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MusicRadar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.ign.com/articles/best-gaming-monitor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Best Gaming Monitors for 2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>To make the most of your gaming PC, you need a monitor that can keep up, 
+providing a crisp display with motion fidelity to play all of the best PC 
+games as...</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://gulfnews.com/best-buys/electronics/5-best-curved-monitors-in-uae-for-2024-1.1720549430282</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5 best curved monitors in UAE, for 2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Immerse yourself in gaming, productivity or content creation with curved 
+screens.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21 hours ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gulf News</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.nylon.com.sg/2024/07/review-of-the-oppo-reno12-pro-5g-with-ai-functions-and-a-whole-new-design/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Review of the OPPO Reno12 Pro 5G with AI functions and a whole new design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPPO recently launched their Reno12 series on June 29th, and it includes 
+the Pro version with incredible camera specs for a mid-range phone.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nylon singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://uk.pcmag.com/monitors/9527/the-best-computer-monitors</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The Best Monitors for 2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Make the most of your work, games, or movies with the right monitor. Here's 
+how to shop for a new display, plus the best productivity and gaming 
+panels...</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PCMag UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://techvorm.com/lava-blaze-x-with-dimesity-6300-soc-6-67-inch-120hz-curved-amoled-display-launched-price-starts-at-inr-14999</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVA Blaze X with Dimesity 6300 SoC, 6.67 inch 120Hz Curved AMOLED Display, 
+Launched; Price Starts at INR 14999</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lava International HAS announceD expansion of its Blaze series with the 
+launch of Lava Blaze X. It has a premium moonstone matte back design with 
+Elegant.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TechVorm</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2792,294 +2172,868 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.openpr.com/news/3563197/solid-oxide-fuel-cell-market-global-industry-analysis</t>
+          <t>https://www.pcgamer.com/best-vr-headset/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solid Oxide Fuel Cell Market: Global Industry Analysis</t>
+          <t>Best VR headset in 2024: my top picks for stunning virtual reality 
+experiences</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Solid Oxide Fuel Cell Market Overviews A Solid Oxide Fuel Cell (SOFC) is an 
-energy converter that uses electrochemical reactions to generate power.</t>
+          <t>The best VR headsets can make you forget, even if just for a moment, you're 
+wearing a big chunk of plastic and foam on your face. It will make you feel 
+like...</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>openPR.com</t>
+          <t>PC Gamer</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.eurekalert.org/news-releases/1050456</t>
+          <t>https://www.techradar.com/news/the-best-vr-headset</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hexagonal perovskite oxides: Electrolytes for next-generation protonic 
-ceramic fuel cells</t>
+          <t>The best VR headsets in 2024: top virtual reality headsets for immersive 
+gaming</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The material's high proton conductivity and chemical stability at 
-temperatures of 200–500 °C can pave the way for more durable fuel cells.</t>
+          <t>We've rounded up the best VR headsets that are worth your time and money 
+this year.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EurekAlert!</t>
+          <t>TechRadar</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/money/markets/what-s-going-on-with-fuelcell-energy-stock-today/ar-BB1oSfWN?item=flightsprg-tipsubsc-v1a?season=2024</t>
+          <t>https://www.tomsguide.com/computing/smart-glasses/apple-vision-pro-review</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What's Going On With FuelCell Energy Stock Today?</t>
+          <t>Apple Vision Pro review: A revolution in progress</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FuelCell Energy Inc (NASDAQ:FCEL) shares are moving lower on Tuesday. 
-Here's a look at what's going on. What To Know: FuelCell has announced that 
-the...</t>
+          <t>The Apple Vision Pro is pricey and far from perfect but it's amazingly 
+immersive and revolutionizes both mobile computing and entertainment.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>Tom's Guide</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.benzinga.com/news/24/07/39621852/whats-going-on-with-fuelcell-energy-stock</t>
+          <t>https://www.yolegroup.com/industry-news/jdi-develops-worlds-highest-resolution-2500-ppi-ultra-high-resolution-vr-display-on-glass-substrate/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What's Going On With FuelCell Energy Stock?</t>
+          <t>JDI develops world’s highest resolution (&gt;2500 ppi) ultra high-resolution 
+VR display on glass substrate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FuelCell Energy shares are trading higher Wednesday, though the stock 
-remains down by more than 30% over the past month. Here's a look at what's 
-going on:</t>
+          <t>JDI has developed the world's highest resolution ultra high-resolution 
+display on a low-cost glass substrate (2.15 inches, 2527 ppi) for use in 
+virtual...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>Yole Group</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.openpr.com/news/3573257/compact-fuel-cell-market-growth-potential-is-booming-now-bloom</t>
+          <t>https://www.ign.com/articles/best-vr-headset</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compact Fuel Cell Market Growth Potential is Booming Now: Bloom</t>
+          <t>Best VR Headset in 2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Press release - HTF Market Intelligence Consulting Pvt. Ltd. - Compact Fuel 
-Cell Market Growth Potential is Booming Now: Bloom Energy, FuelCell 
-Energy,...</t>
+          <t>We dive into the deep end of virtual reality to bring you the best VR 
+headsets, which we've all rigorously tested.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>openPR.com</t>
+          <t>IGN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.mynewsdesk.com/uk/mabanaft/pressreleases/german-technology-company-wolf-energetik-with-mabanaft-as-a-partner-has-successfully-commissioned-and-tested-a-reversible-fuel-cell-for-electricity-storage-3333341?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=Alert&amp;utm_content=pressrelease</t>
+          <t>https://finance.yahoo.com/news/next-generation-3d-display-market-210000999.html</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>German technology company Wolf Energetik, with Mabanaft as a partner, has 
-successfully commissioned and tested a reversible fuel cell for electricity 
-storage</t>
+          <t>Next Generation 3D Display Market size is set to grow by USD 1.05 billion 
+from 2024-2028, Increasing advent of VR in gaming boost the market, 
+Technavio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hamburg | 3 July 2024. The commissioning of the reversible solid oxide fuel 
-cell (RSOC) together with the research company Tec4Fuels GmbH was preceded 
-by an...</t>
+          <t>The global next generation 3D display market size is estimated to grow by 
+USD 1.05 million from 2024-2028, according to Technavio. The market is 
+estimated...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mynewsdesk</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/money/technology/bloom-energy-stock-a-game-changer-for-ai-data-centers/ar-BB1oRbtg?item=flightsprg-tipsubsc-v1a?loadin=defaultbrowser/</t>
+          <t>https://tvnewscheck.com/tech/article/local-tv-widens-embrace-of-virtual-sets-ar-vr/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bloom Energy Stock: A Game Changer for AI Data Centers</t>
+          <t>Local TV Stations Widen Their Embrace Of Virtual Sets, AR &amp; VR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The artificial intelligence (AI) revolution is sparking the growth of data 
-centers. Data centers require lots of power and stable backup power to 
-operate...</t>
+          <t>CBS-owned KPIX, Hearst's WCVB and a growing number of TelevisaUnivision 
+stations are among those leaning into virtual sets and expanding use of AR 
+and VR...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>TV News Check</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.openpr.com/news/3570581/electric-vehicles-fuel-cell-market-have-high-growth-but-may</t>
+          <t>https://www.analyticsinsight.net/gaming/top-vr-headsets-for-gaming-in-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electric Vehicles Fuel Cell Market Have High Growth But May Foresee Even 
-Higher Value</t>
+          <t>Top VR Headsets for Gaming in 2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Advance Market Analytics published a new research publication on "Electric 
-Vehicles Fuel Cell Market Insights, to 2030" with 232 pages and enriched 
-with...</t>
+          <t>As the gaming industry continues to explode, virtual reality gaming has 
+made a major advancement over the years. VR headsets offers engaging 
+gaming...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>24 hours ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>openPR.com</t>
+          <t>Analytics Insight</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.openpr.com/news/3571071/fuel-cell-market-forecast-to-grow-at-27-1-cagr-from-2024-to-2031</t>
+          <t>https://hardcoregamer.com/spin-rhythm-xd-twists-onto-playstation-4-and-5-while-adding-vr-mode-to-pc/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fuel Cell Market Forecast to Grow at 27.1% CAGR from 2024 to 2031 | 
-SkyQuest Technology</t>
+          <t>Spin Rhythm XD Twists Onto Playstation 4 and 5 While Adding VR Mode to PC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fuel Cell Market Size, Share, Growth Analysis, By Size(Small-Scale, Large 
-Scale), By Fuel Type(Hydrogen, Methanol, Ammonia, Other Fuel Type), By 
-Type(Proton...</t>
+          <t>There's a huge difference between arcade and home music gaming, in that 
+home needs to comply with either the controller or mouse/keyboard while the 
+arcade...</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>openPR.com</t>
+          <t>Hardcore Gamer</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://forextv.com/top-news/global-portable-fuel-cells-market-is-expected-to-grow-at-a-cagr-of-18-6-over-the-forecast-period-2024-2034-a-report-by-tnr-the-niche-research/</t>
+          <t>https://www.roadtovr.com/pimax-crystal-super-update-slimmer-design/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Global Portable Fuel Cells Market is Expected to Grow at a CAGR of 18.6% 
-over the Forecast Period (2024 – 2034): A Report by TNR, The Niche Research</t>
+          <t>Pimax Crystal Super Update Shows Development Progress &amp; New Slimmer Exterior</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Increasing Demand for Clean and Efficient Energy Sources in Off-Grid and 
-Portable Applications is a Key Growth Driver of the Portable Fuel Cells 
-Market.</t>
+          <t>Pimax announced that Crystal Super, its next high-resolution PC VR headset, 
+is actually going to be a bit slimmer than originally planned, showing off 
+a...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ForexTV</t>
+          <t>Road to VR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.techradar.com/computing/virtual-reality-augmented-reality/samsung-xr-vr-headset</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Samsung XR/VR headset – everything we know so far and what we want to see</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Samsung and Google have a new VR headset in the works.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TechRadar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>XR industry developments and near-eye display market outlook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
+growth potential of the near-eye display market.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TelecomLead</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.tomsguide.com/reviews/meta-quest-3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Meta Quest 3 review: The best VR headset you can buy</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The Meta Quest 3 delivers a more comfortable VR headset with improved 
+graphics and superior performance than the Meta Quest 2 alongside new mixed 
+reality...</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tom's Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.inkl.com/news/the-meta-quest-s-airplane-mode-is-nice-but-i-find-it-pointless</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Meta Quest's airplane mode is nice, but I find it pointless</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Airplane mode recently launched on the Meta Quest, but the feature has one 
+big problem: VR headsets are just too big for travel.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Inkl</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
+During 2024-2032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
+Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
+Type...</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WICZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Best VR Headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Work or play in another dimension by donning one of the top-rated 
+standalone or tethered virtual reality headsets we've tested.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PCMag UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://ca.movies.yahoo.com/movies/2019-09-12-htc-vive-cosmos-hands-on.html</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HTC Vive Cosmos hands-on: VR never looked so good</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>In 2016, HTC revealed the Vive VR headset to the world. In the years since, 
+HTC has released several versions, like the Vive Pro, Vive Pro Eye and 
+the...</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yahoo Movies Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://ca.movies.yahoo.com/movies/2017-09-27-eve-valkyrie-warzone-no-vr-required.html</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>'Eve: Valkyrie' drops the VR requirement</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>If what's been holding you back from playing Eve: Valkyrie has been the 
+lack of a VR headset, that (very valid) reason has disappeared.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yahoo Movies Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/i-saw-what-could-be-the-future-of-ai-glasses/ar-BB1nTYR6?item=themed_featuredapps_enabled?loadin</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>I Saw What Could Be the Future of AI Glasses</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>I'm in a lab at Stanford University to see a pair of pretty normal-looking 
+glasses. Thanks to a breakthrough scientists here made in display 
+technology,...</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/technology/gadgets/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle-11720608242303.html</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Best wearables to buy for yourself: Top 10 picks to choose from</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Check out the top wearables like smartwatches, headphones, neckband 
+earphones and more in our curated list. Choose from top brands and get the 
+one you have...</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Livemint</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://surgeradio.cl/ciencia-y-tecnologia/the-best-vr-headsets-for-2024/22045/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The best VR headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>If you've been tempted to buy a VR headset after seeing the Apple Vision 
+Pro in action, you're not alone. And the best news is, you don't have to 
+spend...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>surgeradio.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://hackaday.com/2024/07/08/keyboard-contains-entire-mini-pc-just-byod/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Keyboard Contains Entire Mini PC, Just BYOD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>When we talk about keyboards that do it all, we usually mean either big 
+ones with lots of keys and doodads like rotary encoders and displays, or 
+small ones...</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hackaday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
+built-in trackpad and battery; all you need is a display</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
+foldable keyboard. The company shared its live presentation, where the 
+presenter...</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://cyprus-mail.com/2024/07/08/global-shipments-of-ar-vr-headsets-plummet-in-early-2024/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Global shipments of AR/VR headsets plummet in early 2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Global shipments of augmented reality (AR) and virtual reality (VR) 
+headsets experienced a significant decline of 67.4 per cent year over year 
+in the first...</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cyprus Mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.manilatimes.net/2024/07/10/public-square/pr-newswire/new-omdia-research-highlights-near-eye-display-market-poised-for-growth-as-leading-brands-revive-sales-efforts/1956242</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New Omdia research highlights near-eye display market poised for growth as 
+leading brands revive sales efforts</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LONDON, July 10, 2024 /PRNewswire/ -- New research from Omdia indicates 
+that although the XR market which includes AR, VR, and MR, is currently 
+experiencing...</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>The Manila Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.abc.net.au/news/2024-07-10/south-australian-shipwreck-recreated-national-maritime-museum/104072212</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Long-lost South Australian shipwreck comes to life in National Maritime 
+Museum display</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>South Australia's oldest colonial shipwreck, which was rediscovered in 
+2018, has become the subject of a 3D virtual reality museum exhibit in a...</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Australian Broadcasting Corporation</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.gadgetguy.com.au/apple-vision-pro-australia-review-is-it-worth-the-hype-down-under/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro Australia review: Is it worth the hype down under?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The Apple Vision Pro has arrived down under. So does it make sense for 
+Australians, or should it have stayed in the US?</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GadgetGuy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.screenhub.com.au/opportunity/crew-attachment-program-two-attachment-opportunities-on-upcoming-vr-series-2646965/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Crew Attachment Program - Two attachment opportunities on upcoming VR series</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Applications close Monday, 22 July 2024 at 5:00pm AWST. Productions that 
+receive Screenwest production funding over $100,000 are required to budget 
+for and...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ScreenHub Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.theindianmoviechannel.com/uncategorised/ar-and-vr-display-industry-is-set-to-fly-high-growth-in-years-to-come/312336/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AR and VR Display Industry is set to Fly High Growth in Years to Come</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A new research study named 'AR and VR Display Market 2024 analysis by 
+Market Trends (Drivers, Constraints, Opportunities, Threats, Challenges and 
+Investment...</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TIMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://aussiedlerbote.de/en/the-apple-vision-pro-is-an-impressive-ego-trip/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The Apple Vision Pro is an impressive ego trip</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Niche product or the next big thing? Apple's Vision Pro is now also 
+available in Germany. In the test, the computer glasses, which cost just 
+under 4000...</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Aussiedlerbote</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,79 +3086,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://cleantechnica.com/2024/07/04/escaping-the-lab-into-the-sunlight-research-examines-durability-of-outdoor-perovskite-solar-cells/</t>
+          <t>https://ww2.aip.org/scilights/3d-printing-low-cost-augmented-reality-waveguides</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Escaping the Lab Into the Sunlight: Research Examines Durability of Outdoor 
-Perovskite Solar Cells</t>
+          <t>3D printing low-cost augmented reality waveguides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Research on Ultraviolet-Driven Degradation Receives Independent Testing 
-From the Perovskite PV Accelerator for Commercializing Technologies (PACT) 
-Center.</t>
+          <t>Using a modified 3D printing approach, optical waveguides can be mass 
+produced for AR display applications.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CleanTechnica</t>
+          <t>AIP.ORG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/05/new-encapsulant-for-perovskite-solar-cells-modules-withstands-multiple-accelerated-ageing-tests/</t>
+          <t>https://www.tomsguide.com/computing/smart-glasses/apple-vision-pro-review</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New encapsulant for perovskite solar cells, modules withstands multiple 
-accelerated ageing tests</t>
+          <t>Apple Vision Pro review: A revolution in progress</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Researchers in Italy have developed a low temperature a blanket-cover 
-encapsulation technique that reportedly improves the stability of 
-perovskite PV...</t>
+          <t>The Apple Vision Pro is pricey and far from perfect but it's amazingly 
+immersive and revolutionizes both mobile computing and entertainment.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>Tom's Guide</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://newatlas.com/energy/hybrid-perovskite-solar-cell-long-life-high-efficiency/</t>
+          <t>https://www.sdbj.com/technology/epitone-inc-making-car-ar-a-reality/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New hybrid perovskite solar cell boasts long life and high efficiency</t>
+          <t>Epitone Inc. Making Car AR a Reality</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Perovskite materials are poised to take on the reigning champion of solar, 
-silicon, but their stability is holding them back. Now, scientists in China 
-have...</t>
+          <t>CARLSBAD – As Artificial Intelligence continues to change the way we drive 
+cars – or how cars will be driving us – the windshields of our cars are 
+also...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3214,118 +3164,120 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>New Atlas</t>
+          <t>San Diego Business Journal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://interestingengineering.com/science/high-entropy-hybrid-perovskite-cells</t>
+          <t>https://www.laptopmag.com/reviews/viture-pro-xr-smart-glasses</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New inverted perovskite solar cell boosts 25% efficiency, 98% stability</t>
+          <t>VITURE Pro XR Glasses review: These AR smart glasses add a new dimension to 
+Windows and Mac computers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Researchers develop high-entropy hybrid perovskite solar cells with better 
-efficiency and stability, promising industrial scalability.</t>
+          <t>Smart glasses like the VITURE Pro XR give you instant access to a 135-inch 
+virtual display for laptops, phones, and tablets. But are they worth their 
+bold...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Interesting Engineering</t>
+          <t>Laptop Mag</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine-india.com/2024/07/10/solar-cell-based-on-high-entropy-hybrid-perovskite-achieves-25-7-efficiency/</t>
+          <t>https://tech.einnews.com/amp/pr_news/726742643/display-market-is-expected-to-grow-from-157-8-billion-2023-to-reach-207-79-billion-in-2031-skyquest-technology</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Solar cell based on high-entropy hybrid perovskite achieves 25.7% efficiency</t>
+          <t>Display Market is Expected to Grow from 157.8 Billion 2023 to reach 207.79 
+Billion in 2031 | SkyQuest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Researchers in China have built for the first time an inverted perovskite 
-solar cell relying on a high-entropy hybrid perovskite material.</t>
+          <t>WESTFORD, MASSACHUSETTS, UNITED STATES, July 11, 2024 /EINPresswire.com/ -- 
+Display Market size was valued at USD 152.46 billion in 2022 and is 
+expected to...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>pv magazine India</t>
+          <t>EIN News</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/382106438_Silicon-Inspired_Analysis_of_Interfacial_Recombination_in_Perovskite_Photovoltaics</t>
+          <t>https://www.cureus.com/articles/273085-augmented-reality-guided-external-ventricular-drain-placement-a-case-report?score_article=true</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(PDF) Silicon‐Inspired Analysis of Interfacial Recombination in Perovskite 
-Photovoltaics</t>
+          <t>Augmented Reality-Guided External Ventricular Drain Placement: A Case Report</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PDF | Perovskite solar cells have reached an impressive certified 
-efficiency of 26.1%, with a considerable fraction of the remaining losses 
-attributed.</t>
+          <t>The placement of an external ventricular drain (EVD) is a critical 
+neurosurgical procedure used to relieve intracranial pressure in patients 
+with conditions...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ResearchGate</t>
+          <t>Cureus</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/money/companies/new-recycling-process-can-recover-up-to-99-97-of-materials-in-perovskite-solar-cells/ar-BB1pibI0</t>
+          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/i-was-shocked-by-the-sexism-on-display-at-my-son-s-sports-day/ar-BB1pBIwl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New recycling process can recover up to 99.97% of materials in perovskite 
-solar cells</t>
+          <t>I was shocked by the sexism on display at my son's sports day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A recent study by the Helmholtz Institute Erlangen-Nuremberg, which is 
-based at Forschungszentrum Jülich, has developed an efficient and 
-environmentally...</t>
+          <t>I was 32 when I attended my first Sports Day. It's not something that 
+happens in Spain where I grew up. So, when my son, then 5, came home from 
+school and...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3337,180 +3289,1578 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine-india.com/2024/07/08/kaust-builds-perovskite-perovskite-silicon-tandem-solar-cell-with-31-5-efficiency/</t>
+          <t>https://m.koreaherald.com/view.php?ud=20240710050248</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KAUST builds perovskite-perovskite-silicon tandem solar cell with 31.5% 
-efficiency</t>
+          <t>New Omdia research highlights near-eye display market poised for growth as 
+leading brands revive sales efforts</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The Saudi research institute said its new four-terminal tandem device has 
-achieved the highest efficiency ever reported for perovskite-based 4-T 
-and...</t>
+          <t>LONDON, July 10, 2024 /PRNewswire/ -- New research from Omdia indicates 
+that although the XR market which includes AR, VR, and MR, is currently 
+experiencing...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>pv magazine India</t>
+          <t>The Korea Herald</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/10/u-s-researchers-build-16-efficient-mini-perovskite-solar-module-resistant-to-uv-light-induced-degradation/</t>
+          <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>U.S. researchers build 16%-efficient mini perovskite solar module resistant 
-to UV light-induced degradation</t>
+          <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
+During 2024-2032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A U.S. research team has built a 15 cm2 perovskite solar module with 
-improved stability and efficiency thanks to a polymer hole transport layer 
-that...</t>
+          <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
+Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
+Type...</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>WICZ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/03/perovskite-solar-cell-based-on-electron-rich-surface-passivation-layer-achieves-23-27-efficiency/</t>
+          <t>https://magazine.cim.org/en/news/2024/underground-surveying-gets-an-ar-upgrade-en/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Perovskite solar cell based on electron-rich surface passivation layer 
-achieves 23.27% efficiency</t>
+          <t>Underground surveying gets an AR upgrade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chinese in China have utilized two sulfone-based organic molecules known as 
-diphenylsulfone (DPS) and 4,4′-dimethyldiphenylsulfone (DMPS) to 
-passivate...</t>
+          <t>NSS Canada, a Sudbury, Ontario-based mining technology company, has 
+incorporated an augmented reality (AR) display into its underground 
+surveying software.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>CIM Magazine</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/08/2d-dion-jacobson-perovskite-solar-cell-based-on-mxene-contacts-achieves-17-47-efficiency/</t>
+          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2D Dion-Jacobson perovskite solar cell based on MXene contacts achieves 
-17.47% efficiency</t>
+          <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Scientists in India have combined 2D perovskite solar cell technology with 
-MXenes materials to build a PV device with remarkable efficiency and 
-open-circuit...</t>
+          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
+growth potential of the near-eye display market.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>TelecomLead</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/04/imminent-introduction-of-perovskite-silicon-tandems-is-unlikely-says-prof-martin-green/</t>
+          <t>https://www.openpr.com/news/3574492/windshield-ar-heads-up-displays-hud-market-size-demands-growth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Imminent introduction of perovskite-silicon tandems is unlikely, says Prof. 
-Martin Green</t>
+          <t>Windshield AR Heads Up Displays HUD Market Size, Demands, Growth</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>At SNEC 2024 in Shanghai, pv magazine spoke with Martin Green, Scientia 
-Professor at the University of New South Wales and solar cell technology 
-expert.</t>
+          <t>Press release - WiseGuy Reports - Windshield AR Heads Up Displays HUD 
+Market Size, Demands, Growth Dynamics, Top Players and Global Forecast 
+2032...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>openPR.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.pv-magazine.com/2024/07/09/inverted-perovskite-solar-cell-based-on-synergistic-bimolecular-interlayer-achieves-25-53-efficiency/</t>
+          <t>https://hackaday.com/2024/07/08/keyboard-contains-entire-mini-pc-just-byod/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inverted perovskite solar cell based on synergistic bimolecular interlayer 
-achieves 25.53% efficiency</t>
+          <t>Keyboard Contains Entire Mini PC, Just BYOD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Developed by researchers in China, the inverted perovskite device 
-purportedly achieves the smallest nonradiative recombination-induced 
-open-circuit voltage...</t>
+          <t>When we talk about keyboards that do it all, we usually mean either big 
+ones with lots of keys and doodads like rotary encoders and displays, or 
+small ones...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hackaday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.tomsguide.com/best-picks/best-car-heads-up-display</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The best car heads-up display for 2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The best car heads-up displays can enhance your driving experience, and 
+these are the ones you should buy.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tom's Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>http://www.msn.com/en-us/news/technology/ntt-uses-scattered-monitors-to-trick-your-brain-into-seeing-3d-images/ar-BB1opvXC?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NTT uses scattered monitors to trick your brain into seeing 3D images</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Because not everyone's walking around wearing augmented reality goggles yet 
+Japan's IT services and telecoms giant NTT Corporation says it has devised 
+a way...</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>1 day ago</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-m3-macbook-pro-model-will-display-to-dual-monitors-just-like-m3-macbook-air/ar-BB1jnCvl?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>This M3 MacBook Pro model will display to dual monitors just like M3 
+MacBook Air</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A pending software update will enable Apple's 14-inch M3 MacBook Pro to 
+extend its screen to two external monitors when the lid is closed.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/world/d-day-tribute-display-planned-for-seaside-airshow/ar-BB1pv7i7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D-Day tribute display planned for seaside airshow</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Historical aircraft will soar above a seaside town in a special tribute to 
+mark this year's 80th anniversary of D-Day.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
+built-in trackpad and battery; all you need is a display</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
+foldable keyboard. The company shared its live presentation, where the 
+presenter...</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/us/star-wars-costumes-and-props-go-on-display-in-greenville/ar-BB1obuvi?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>'Star Wars' costumes and props go on display in Greenville</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Starting Saturday, June 15, fans can see a collection of costumes and props 
+from the "Star Wars" movies in Greenville.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/here-s-how-apple-will-make-its-iphone-16-pro-display-even-brighter/ar-BB1pgB4t?item=flightsprg-tipsubsc-v1a?season=2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Here's how Apple will make its iPhone 16 Pro display even brighter</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>As we fast approach the iPhone 16 announcement in September, we continue to 
+learn more about it thanks to the latest leaks and rumors.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/rip-the-display-off-a-laptop-snap-its-keyboard-in-the-middle-and-you-ve-got-this-portable-pc-you-can-stick-in-a-pocket/ar-BB1pC5pF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rip the display off a laptop, snap its keyboard in the middle, and you've 
+got this portable PC you can stick in a pocket</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Excuse me while I whip this out. Now any of y'all kind folks got a monitor 
+and mouse handy?</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-5k-monitor-is-a-studio-display-with-one-feature-apple-can-t-touch-literally/ar-BB1o6ZO3?item=flightsprg-tipsubsc-v1a?loadin=defaultbrowser/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>This 5K monitor is a Studio Display with one feature Apple can't touch... 
+literally</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Alogic's new Clarity monitor is a 27-inch, 5K display that rivals the 
+Studio Display with a feature Apple can't touch... literally.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/this-youtube-video-causes-a-bizarre-display-glitch-on-the-pixel-7-pro/ar-BB1pjTMp?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>This YouTube video causes a bizarre display glitch on the Pixel 7 Pro</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Users are reporting a Google Pixel 7 Pro display glitch caused by a video 
+of an 18,000Hz audio tone. The issue resolves when the video is stopped or 
+muted.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/music/news/grammy-museum-to-display-bts-seventeen-and-more-hybe-artists-memorabilia/ar-BB1pHeBT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Grammy Museum to Display BTS, Seventeen and More HYBE Artists' Memorabilia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hybe — the Korean firm behind BTS, Seventeen, Tomorrow x Together and more 
+— is getting a big look at the Grammy Museum in Downtown Los Angeles.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/new-homepod-with-a-display-could-hijack-the-iphone-16-launch-this-fall/ar-BB1ptCeH?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New HomePod with a display could hijack the iPhone 16 launch this fall</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Macworld The long-rumored HomePod with a display could finally be coming to 
+market. According to MacRumors, “code discovered on Apple's backend” 
+reveals a...</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/travel/news/exclusive-private-bay-area-collection-highlighting-women-artists-to-be-on-display-in-berkeley/ar-BB1kvS4Y?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Exclusive: Private Bay Area collection highlighting women artists to be on 
+display in Berkeley</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A celebrated Bay Area collection with an emphasis on women artists will be 
+getting a big homecoming this fall. The Berkeley Art Museum and Pacific 
+Film...</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-might-be-the-new-display-for-apples-rumored-oled-macbook-pro/ar-BB1oTbc3?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>This might be the new display for Apple's rumored OLED MacBook Pro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The M4 iPad Pro is about to have some slim company in Apple's lineup. 
+Various reports in recent months claimed that Apple is developing an …</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/pixel-watch-3-leak-reveals-a-huge-display-upgrade/ar-BB1pK7pm?item=flightsprg-tipsubsc-v1a?season=2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pixel Watch 3 leak reveals a huge display upgrade</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>We've had several Pixel Watch 3 leaks recently: the image above leaked the 
+overall design last month, and just days ago more details emerged via the...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/tv/news/whoopi-goldberg-asks-if-schools-will-display-the-quran-after-foolishness-of-louisiana-s-10-commandments-law/ar-BB1oAUFb?ocid=emmx</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Whoopi Goldberg asks if schools will display the Quran after 'foolishness' 
+of Louisiana’s 10 Commandments law</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"If you want your child to have a religious education, send them to a 
+religious school," Goldberg said.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/google-to-bring-brighter-display-to-the-pixel-watch-3/ar-BB1pHjRu</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Google to bring brighter display to the Pixel Watch 3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The Pixel Watch series has been a fan-favorite with Pixel lovers and that's 
+likely to continue with the Pixel Watch 3, especially if a new rumor about 
+the...</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>snippet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.tomsguide.com/computing/smart-glasses/apple-vision-pro-review</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro review: A revolution in progress</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The Apple Vision Pro is pricey and far from perfect but it's amazingly 
+immersive and revolutionizes both mobile computing and entertainment.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tom's Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.davyjoneslockerroom.com/ready-for-your-close-up-mr-grubauer-philipp-grubauers-acting-acumen/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>“Ready For Your Close-Up, Mr. Grubauer”: Philipp Grubauer’s Acting Acumen 
+on full display</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The Kraken's German Gentleman isn't just a goaltending star for Seattle. 
+He's shown a history for being a star of the screen!</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Davy Jones' Locker room</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.washingtontimes.com/news/2024/jul/11/joe-bidens-mental-miscues-still-display-high-stake/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>‘But anyway…’: Biden’s mental miscues still on display at high-stakes 
+presser</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In one of the most consequential press conferences of his political career, 
+President Biden defended his foreign and domestic leadership, stumbling 
+several...</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Washington Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2024/07/12/world/asia/india-ambani-wedding-billionaire.html</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A Wedding Puts India’s Gilded Age on Lavish Display</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Many Indians cheer the rise of moguls like Mukesh Ambani, whose son's 
+wedding has become a global spectacle. To them, India's poverty is 
+predictable,...</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.newswire.com/news/american-weigh-scales-teams-up-with-mr-checkout-to-revolutionize-22376797</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>American Weigh Scales Teams Up With Mr. Checkout to Revolutionize Retail 
+With Pocket and Travel Scales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CUMMING, Ga., July 11, 2024 (Newswire.com) - Transform your convenience 
+store, smoke shop, or small retail outlet. American Weigh Scales (AWS) has 
+joined...</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Newswire.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://thatoregonlife.com/2024/07/mr-bills-village-smokehouse/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Few People Know The Best Jerky Ever Is Hiding In This Oregon Coastal Town</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>If you're like me and love beef jerky, smoked salmon and other delicious 
+smoked meats, there's a spot you can't miss when you head out to the Oregon 
+coast.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>That Oregon Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://m.koreaherald.com/view.php?ud=20240710050248</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New Omdia research highlights near-eye display market poised for growth as 
+leading brands revive sales efforts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LONDON, July 10, 2024 /PRNewswire/ -- New research from Omdia indicates 
+that although the XR market which includes AR, VR, and MR, is currently 
+experiencing...</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The Korea Herald</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/articles/ce9310gevn3o</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>'Nostalgic' artwork of King's Lynn to go on display in exhibition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Alan Castleton says the work is based on black and white photographed which 
+has been transformed.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://screenrant.com/cobra-kai-season-6-part-1-ralph-macchio-william-zabka-yuji-okumoto-interview/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cobra Kai Season 6 Part 1's Macchio, Zabka &amp; Okumoto On Villain-To-Hero 
+Journeys And Mr. Miyagi Mystery</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cobra Kai season 6 part 1 stars Ralph Macchio, William Zabka, and Yuji 
+Okumoto tease their villain-to-hero journeys and Mr. Miyagi's secret.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Screen Rant</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/world/macron-and-jill-biden-hold-hands-in-affectionate-display-ahead-of-nato-summit/ar-BB1pNUpn?ocid=xmmo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Macron and Jill Biden hold hands in affectionate display ahead of Nato 
+summit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Emmanuel Macron and Jill Biden held hands as world leaders arrived for the 
+75th Nato summit. Mr Macron and Mrs Biden smiled as they joined hands and 
+posed...</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.washingtontimes.com/news/2024/jul/10/hiding-in-plain-sight-joe-bidens-mental-physical-d/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hiding in plain sight: Joe Biden's mental, physical decline on display from 
+the start</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>President Biden raised eyebrows at the Group of Seven summit in June 2021, 
+just months into his term, with an embarrassing memory lapse that sparked...</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Washington Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://screenrant.com/outh-park-season-27-election-story-risk-after-end-of-obesity/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>South Park’s 2024 Special Makes A Risky Season 27 Story A Lot More Likely</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The late arrival of South Park season 27 implies that the long running 
+satirical cartoon could be setting up a very risk approach to its next 
+outing.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Screen Rant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/articles/cjm9vy3x7neo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RHS Tatton Park: Giant floral Pudsey bear makes show return after 21 years</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Derek Smith says his late father would be "made up" to see his creation 
+brought back to the flower show.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23 hours ago</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>pv magazine International</t>
+          <t>BBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>XR industry developments and near-eye display market outlook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
+growth potential of the near-eye display market.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TelecomLead</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://uk.news.yahoo.com/desantis-bans-rainbow-colors-florida-183350724.html</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DeSantis bans rainbow colors on Florida bridges ahead of Pride Month</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunshine Skyway Bridge will instead be lit up in red, white and blue to 
+mark governor's latest policy – 'Freedom Summer'</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yahoo News UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.legit.ng/entertainment/celebrities/1601311-victor-osimhen-shares-adorable-photos-daughter-jollofs-call-family/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>"Expensive ghetto boy": Osimhen steps out with daughter amid Mr Jollof's 
+drama</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Super Eagles player and Napoli football star Victor Osimhen has put his 
+fatherhood side on display for fans on social media.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Legit.ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.expressandstar.com/entertainment/birmingham-entertainment/2024/07/08/art-exhibition-about-srebrenica-massacre-to-be-launched-in-birmingham/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Art exhibition about Srebrenica massacre to be launched in Birmingham</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>An exhibition of paintings depicting an eleven-day massacre in the Bosnian 
+town of Srebrenica will be displayed in Birmingham this week.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Express &amp; Star</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://guernseypress.com/news/2024/07/07/rodley-park-display-a-real-community-effort/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rodley Park display a real community effort</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TEAMWORK and months of planning has paid off for Rodley Park residents, 
+after judges for the Floral Guernsey Community Awards said that the gardens 
+on the...</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Guernsey Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://narrabricourier.com.au/2024/07/11/pride-of-the-lions-on-display-as-club-supports-local-youth/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pride of the Lions on display as club supports local youth</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A highlight of the Lions Club changeover night was a $500 cheque 
+presentation by Lions president Rob Downey to Christian 'Chippy' Petersen, 
+who is the...</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Narrabri Courier</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/articles/c3gvpdkzyn1o</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Floral butterfly centrepiece for Melksham's Britain in Bloom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Residents in a West town have been busily cultivating their entry for this 
+year's South West in Bloom, ready for the judges' visit. The displays in 
+Melksham...</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://nowboarding.changiairport.com/discover-changi/mr-bucket-first-pop-up-store-opens-in-changi-airport-terminal-3.html</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mr Bucket’s first pop-up opens in Changi Airport Terminal 3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>One of Singapore's most popular homegrown chocolate makers, Mr Bucket 
+Chocolaterie, has unveiled its first-ever pop-up boutique in Changi Airport 
+Terminal...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Changi Airport</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.deccanchronicle.com/nation/wagh-nakh-used-by-shivaji-to-be-on-display-in-satara-from-19-july-1809739</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>’Wagh Nakh” Used by Shivaji to Be on Display in Satara From 19 July</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mumbai: Amidst the growing controversy over wagh nakh (tiger claw-shaped 
+weapon) used by Chhatrapati Shivaji Maharaj to kill Mughal general Afzal 
+Khan,...</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Deccan Chronicle</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.sunshinecoastnews.com.au/2024/07/12/green-light-for-palmer-to-build-biggest-car-museum/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Green light for Palmer to build biggest car museum</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>There's been Titanic II, even an A-League club. And who can forget Jeff, 
+the ill-fated animatronic Tyrannosaurus rex? Now colourful billionaire 
+Clive Palmer...</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sunshine Coast News</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://pragativadi.com/lava-blaze-x-with-curved-amoled-display-launched-in-india-%CE%B9-check-specifications-price/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LAVA Blaze X With Curved AMOLED Display Launched In India Ι Check 
+Specifications, Price</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Lava International Ltd., announced the expansion of its Blaze series with 
+the launch of its latest offering, the all-new Lava Blaze X.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pragativadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.harrogateadvertiser.co.uk/news/crime/harrogate-jewel-shop-raider-who-posed-as-customer-to-steal-ps29k-of-rolex-watches-is-jailed-for-17-months-4696676</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Harrogate jewel shop raider who posed as customer to steal £29k of Rolex 
+watches is jailed for 17 months</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A 'Walter Mitty' character who tried to steal Rolex watches worth more than 
+£29000 from a Harrogate jeweller's shop by pretending to be a customer has 
+been...</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Harrogate Advertiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.iwradio.co.uk/news/local-community-news/one-of-a-kind-classic-volvo-on-exclusive-display-at-van-mossel-esplanade-dealership/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>One-Of-A-Kind Classic Volvo On Exclusive Display At Van Mossel Esplanade 
+Dealership</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cowes based Van Mossel Esplanade has welcomed a new and pristine example of 
+a classic Volvo to its fleet of vehicles on the Island.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23 hours ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Isle of Wight Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.edp24.co.uk/news/24438111.gala-day-steamed-ahead-thursford-collection-despite-rain/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thursford's Gala Day steams ahead despite rain interruptions</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Delighted organisers for Thursford Steam Gala Day were chuffed with the 
+event's success, despite the intermittent rain.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Edp24</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.odt.co.nz/rural-life/rural-events/fencing-duo-have-winning-ways-competitions</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fencing duo have winning ways in competitions</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fencers William Pei (left) and Craig Sinclair, both of South Otago, display 
+the trophy for winning the New Zealand Fencing Competitions doubles title 
+at...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Otago Daily Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.thisdaylive.com/index.php/2024/07/07/thousands-of-lagosians-smile-as-international-businessmen-bring-food-hope-to-their-doorstep/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Thousands of Lagosians Smile as International Businessmen Bring Food, Hope 
+to Their Doorstep</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mary Nnah. In a display of kindness and compassion, two international 
+businessmen, Mr. Sudeep Ramnani and Mr. Jai Mahtani, brought joy and relief 
+to...</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>THISDAYLIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.geeky-gadgets.com/tiny-shutter-image-sensor/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>World’s smallest lowest-power global shutter image sensor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>World's smallest and lowest-power global shutter image sensor for AR/VR/MR 
+tracking cameras. First global shutter image sensor with on-chip 
+single-exposure...</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Geeky Gadgets</t>
         </is>
       </c>
     </row>

--- a/news.xlsx
+++ b/news.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -674,46 +674,46 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/money/markets/super-micro-is-joining-the-nasdaq-100-it-will-replace-this-stock/ar-BB1pUTal</t>
+          <t>https://www.sammobile.com/samsung/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Super Micro Is Joining the Nasdaq 100. It Will Replace This Stock.</t>
+          <t>Samsung over the years</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Super Micro Computer will replace Walgreens Boots Alliance in the Nasdaq 
-100 index before the start of trading on Monday, July 22.</t>
+          <t>What started as a humble trading company in 1938 is now one of the biggest 
+conglomerates on the planet. Samsung is best known for its smartphones,...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>SamMobile</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.sammobile.com/samsung/</t>
+          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samsung over the years</t>
+          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>What started as a humble trading company in 1938 is now one of the biggest 
-conglomerates on the planet. Samsung is best known for its smartphones,...</t>
+          <t>Apple sent shock waves across the industry in March by canceling its 
+microLED project and ending collaboration with Ams OSRAM.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -723,151 +723,95 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SamMobile</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.ryt9.com/en/prg/277286</t>
+          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG partners with mo-sys, empowering thai talents in production industry and 
-corporate customers to</t>
+          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>LG Electronics (Thailand) Co., Ltd., in collaboration with Mo-Sys and the 
-world-class partner, offers a complete virtual production solution 
-featuring LED...</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>RYT9</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Apple sent shock waves across the industry in March by canceling its 
-microLED project and ending collaboration with Ams OSRAM.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>Waterloo, Ontario–(Newsfile Corp. – July 16, 2024) – VueReal, a pioneer in 
 MicroSolid Printing technology, today unveiled plans for a significant 
 expansion...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17 hours ago</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Northern News</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.digitimes.com/news/a20240710PD213.html?chid=10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Chinese AI models show strength and resilience amid US sanctions</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Chinese AI companies showcased resilience and innovation at the 2024 World 
-AI Conference (WAIC 2024) amid the US's tightening AI chip export sanctions.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.retail4growth.com/news/immersive-led-feel-at-unilumins-new-experience-centre-6820</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Immersive LED feel at Unilumin's new experience centre</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Unilumin has just opened its first state-of-the-art experience centre in 
 Noida, which showcases the latest LED COB and MIP technologies and products 
 with an...</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Retail4growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.newstrail.com/tft-lcd-vehicle-mounted-display-market-will-generate-massive-revenue-in-future/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TFT-LCD Vehicle Mounted Display Market Will Generate Massive Revenue In 
+Future</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The latest study released on the Global TFT-LCD Vehicle Mounted Display 
+Market by HTF MI Research evaluates market size, trend, and forecast to 
+2030. The.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Retail4growth</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Newstrail</t>
         </is>
       </c>
     </row>
@@ -920,223 +864,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://abcnews.go.com/US/wireStory/samsung-brings-techs-latest-fashion-wearable-technology-ai-111807944</t>
+          <t>https://www.nature.com/articles/s41591-024-03094-4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Samsung brings tech's latest fashion to wearable technology with AI twists 
-in new watch and ring</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Samsung is dressing up its wearable devices in technology's latest fashion 
-— artificial intelligence. ByMICHAEL LIEDTKE AP technology writer.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ABC News - Breaking News, Latest News and Videos</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41591-024-03094-4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>Consumer wearable devices for evaluation of heart rate control using 
 digoxin versus beta-blockers: the RATE-AF randomized trial</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Consumer-grade wearable technology has the potential to support clinical 
 research and patient management. Here, we report results from the RATE-AF 
 trial...</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.texasstandard.org/stories/competition-wearable-tech-watches-earbuds-rings-samsung-apple-meta/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Competition heats up in wearable tech</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>From smartwatches offering health data to a wristband that tracks your hand 
+movements, Samsung, Meta and others have big plans.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Texas Standard</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.texasstandard.org/stories/competition-wearable-tech-watches-earbuds-rings-samsung-apple-meta/</t>
+          <t>https://www.pharmacytimes.com/view/consumer-wearable-devices-for-patients-with-heart-failure-atrial-fibrillation-have-clinical-implications</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Competition heats up in wearable tech</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>From smartwatches offering health data to a wristband that tracks your hand 
-movements, Samsung, Meta and others have big plans.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Texas Standard</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.pharmacytimes.com/view/consumer-wearable-devices-for-patients-with-heart-failure-atrial-fibrillation-have-clinical-implications</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Consumer-Wearable Devices for Patients With Heart Failure, Atrial 
 Fibrillation Have Clinical Implications</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Consumer-wearable devices can monitor treatment response and provide 
 continuous health data for patients with heart disease and atrial 
 fibrillation.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pharmacy Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.pymnts.com/news/wearables/2024/samsung-enters-smart-ring-market-expanding-wearable-tech-portfolio/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Samsung Enters Smart Ring Market, Expanding Wearable Tech Portfolio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Samsung debuted its Galaxy Ring, marking its entry into the smart ring 
+category and bolstering its presence in health monitoring.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pharmacy Times</t>
+          <t>PYMNTS.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.pymnts.com/news/wearables/2024/samsung-enters-smart-ring-market-expanding-wearable-tech-portfolio/</t>
+          <t>https://finance.yahoo.com/news/wearable-devices-unveils-revolutionary-mudra-124500929.html</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>Samsung Enters Smart Ring Market, Expanding Wearable Tech Portfolio</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Samsung debuted its Galaxy Ring, marking its entry into the smart ring 
-category and bolstering its presence in health monitoring.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PYMNTS.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/news/wearable-devices-unveils-revolutionary-mudra-124500929.html</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
 Interface Wristband for Android and Beyond</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>YOKNEAM ILLIT, ISRAEL, July 16, 2024 (GLOBE NEWSWIRE) -- Wearable Devices 
 Ltd. (the “Company” or “Wearable Devices”) (Nasdaq: WLDS, WLDSW), a 
 technology...</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.lifewire.com/apple-direct-audio-device-8671669</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Apple Wearable Device With Direct Audio: News and Expected Price, Release 
 Date, Specs; and More Rumors</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Apple may be working on a small wearable device that projects audio beams 
 at the user's ears to let them hear audio without headphones. News of this 
 device...</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lifewire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.zdnet.com/article/best-smart-ring/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The best smart rings of 2024: Expert tested and reviewed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Samsung just released its brand new Galaxy Ring, but should you buy it? 
+Look at our tested picks for the best smart rings before making a decision.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lifewire</t>
+          <t>ZDNet</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.zdnet.com/article/best-smart-ring/</t>
+          <t>https://fortune.com/2024/07/10/samsung-galaxy-fold-phones-watch-ultra-ring-apple-ai/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The best smart rings of 2024: Expert tested and reviewed</t>
+          <t>Samsung's new phones, premium watch, and ring signal the company is going 
+all-in on AI, giving Apple a run for its money</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Samsung just released its brand new Galaxy Ring, but should you buy it? 
-Look at our tested picks for the best smart rings before making a decision.</t>
+          <t>SAN FRANCISCO (AP) — Samsung is dressing up its wearable devices in 
+technology's latest fashion — artificial intelligence. The South Korean 
+electronics...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1146,7 +1091,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ZDNET</t>
+          <t>Fortune</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1114,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1385,406 +1330,406 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>https://www.sportsbusinessjournal.com/Articles/2024/07/16/gorout-liberty-league</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NCAA approves Liberty League to use in-game play calling technology from 
+GoRout</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The Liberty League's seven teams institute GoRout's game system across 
+in-conference football games (and out-of-conference matchups if their 
+opponent...</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sports Business Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>https://www.hospimedica.com/critical-care/articles/294801839/ai-integrated-wearable-sensor-accurately-measures-step-length-for-evaluation-of-neurological-diseases.html</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>AI-Integrated Wearable Sensor Accurately Measures Step Length for 
 Evaluation of Neurological Diseases</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Step length is recognized as a sensitive and non-invasive metric for 
 assessing a variety of conditions and diseases such as aging,...</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17 hours ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>HospiMedica International</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>https://nocamels.com/2024/07/colorado-medicaid-provider-to-cover-israeli-wearable-for-migraines/</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Colorado Medicaid Provider To Cover Israeli Wearable For Migraines</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Health First Colorado, the state's Medicaid provider, will provide coverage 
 for an Israeli-made wearable device for migraine relief.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>NoCamels</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>https://marketscale.com/industries/education-technology/why-hardwired-buttons-outperform-wearable-devices-in-school-safety/</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Why Hardwired Buttons Outperform Wearable Devices in School Safety</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A recent "Secured" episode highlighted the need to upgrade school safety 
 systems from outdated analog intercoms to IP-based solutions.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>MarketScale</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>https://medicalxpress.com/news/2024-07-shelf-wearable-trackers-clinically-patients.html</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Off-the-shelf wearable trackers provide clinically-useful information for 
 patients with heart disease</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>A study published in Nature Medicine examined if a commercially-available 
 fitness tracker and smartphone could continuously monitor the response to...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Medical Xpress</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.forbes.com/sites/forbes-personal-shopper/article/best-fitness-trackers/</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>The 7 Best Fitness Trackers, Tested By A Personal Trainer</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>The best fitness trackers can guide you to reach your health goals. I've 
 spent four months testing 14 different wearables to find the best fitness 
 trackers...</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.globenewswire.com/news-release/2024/07/11/2911971/32656/en/Wearable-AI-Market-is-expected-to-Grow-at-an-8-3-CAGR-and-Reach-USD-146-2-billion-by-2034-Report-by-Transparency-Market-Research-Inc.html</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wearable AI Market is expected to Grow at an 8.3% CAGR and</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>AI-powered wearables offer customized fitness plans and real-time coaching, 
 adapting to individual goals and progress....</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://www.globenewswire.com/news-release/2024/07/15/2913085/0/en/Wearable-Devices-Unveils-Innovative-ChatGPT-Gestures-Interaction-for-Apple-Watch-Using-Mudra-Band-Enhancing-AI-Integration.html</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils Innovative ChatGPT Gestures</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>The new user experience enables interaction with AI agents through 
 touchless gestures, offering a seamless and innovative way to engage with 
 AI technology -.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.stocktitan.net/news/WLDS/wearable-devices-unveils-the-revolutionary-mudra-link-the-first-ai-2nqborjfhrn0.html</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
 Interface Wristband for Android and Beyond</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Wearable Devices (Nasdaq: WLDS) has unveiled the Mudra LINK, an AI-powered 
 neural wristband for Bluetooth-enabled devices.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Stock Titan</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://news.samsung.com/global/samsungs-expanded-wearables-portfolio-unlocks-intelligent-health-experiences-for-all</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Samsung’s Expanded Wearables Portfolio Unlocks Intelligent Health 
 Experiences for All</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Samsung Galaxy Ring, Galaxy Watch7 and Galaxy Watch Ultra enable new, 
 intelligent health experiences across the portfolio, making everyday 
 wellness more...</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Samsung Global Newsroom</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/best-fitness-ring/</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>The best fitness rings of 2024: Expert tested and reviewed</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>We tested the top smart rings on the market from Oura, Ultrahuman, and 
 more, to help you choose the best ring for you, no matter how you exercise.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>ZDNET</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Sports Analytics Market Size Worth US$ 20.48 Billion By 2032 With a CAGR of 
 22.51%, Boosted by Surged Usage of Wearable Technology | Research by SNS 
 Insider</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>The Sports Analytics Market is Experiencing Robust Growth by Raising 
 Emphasis on Real-Time Data for Organizing Training Sessions, Says SNS 
 Insider,...</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/samsungs-galaxy-ring-smart-device-093000311.html</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Can Samsung's new Galaxy Ring smart device help its China comeback?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Samsung Electronics, once the dominant smartphone player in China, is 
+drawing fresh interest from consumers on the mainland after the South 
+Korean tech...</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://abcnews.go.com/GMA/Wellness/samsung-unveils-1st-smart-ring-biometric-health-monitoring/story?id=111849999</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Samsung unveils 1st smart ring with biometric health monitoring, how it 
 stacks up to the Oura Ring</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>What to know about the new Samsung Galaxy Ring, Samsung's new wearable 
 technology device with 24/7 health monitoring capabilities.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>ABC News - Breaking News, Latest News and Videos</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-xl/news/other/wearable-technology-the-wearable-smart-devices-that-are-changing-our-daily-lives/ss-BB1pTff8?ocid=finance-verthp-feeds</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wearable technology: the wearable smart devices that are changing our daily 
-lives</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The link between fashion and the technology sector has a long history, 
-culminating in wearable technology products that have changed or will 
-significantly...</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/self-assembling-highly-conductive-sensors-could-improve-wearable-devices/ar-BB1oZSyV?item=flightsprg-tipsubsc-v1a?season=2024/</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Self-assembling, highly conductive sensors could improve wearable devices</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Penn State researchers developed a new soft and stretchable material that 
-can be 3D-printed. The material can be used to fabricate wearable 
-devices,...</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>MSN</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1829,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1912,7 +1857,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2027,7 +1972,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2086,7 +2031,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2144,80 +2089,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.engadget.com/best-vr-headsets-140012529.html</t>
+          <t>https://www.livescience.com/prime-day-vr-headset-deal-meta-quest-3-now-discounted</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The best VR headsets for 2024</t>
+          <t>Slip into VR for less with this Meta Quest 3 Prime Day deal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>If you've been intrigued by virtual reality for a while, there are a number 
-of solid headsets to consider. These are the best VR headsets we've tested 
-and...</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Engadget</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.livescience.com/prime-day-vr-headset-deal-meta-quest-3-now-discounted</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Slip into VR for less with this Meta Quest 3 Prime Day deal</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>Virtual Reality may not quite have hit the mainstream in the same way 
 traditional video games have, but if it does, it'll have a lot to thank the 
 Meta Quest...</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14 hours ago</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15 hours ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Live Science</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>https://www.digitimes.com/news/a20240710VL203/3d-ar_vr-display-lcd-technology.html</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Rain Technology to revolutionize AR/VR displays with brightness and FOV 
 breakthroughs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>US-based Rain Technology has accumulated more than two decades of 
 experience in consumer display technologies, with ventures into LCD, OLED, 
 e-privacy,...</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>digitimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://omdia.tech.informa.com/pr/2024/jul/new-omdia-research-highlights-near-eye-display-market-poised-for-growth-as-leading-brands-revive-sales-efforts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>New Omdia research highlights near-eye display market poised for growth as 
+leading brands revive sales efforts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stay informed on the XR market trends with new research from Omdia. Despite 
+a slowdown, top brands are focused on driving growth in AR, VR,...</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>6 days ago</t>
@@ -2225,786 +2170,786 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>digitimes</t>
+          <t>Omdia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://omdia.tech.informa.com/pr/2024/jul/new-omdia-research-highlights-near-eye-display-market-poised-for-growth-as-leading-brands-revive-sales-efforts</t>
+          <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Omdia research highlights near-eye display market poised for growth as 
-leading brands revive sales efforts</t>
+          <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>Stay informed on the XR market trends with new research from Omdia. Despite 
-a slowdown, top brands are focused on driving growth in AR, VR,...</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Omdia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>(Mirra Image) Virtual reality entertainment startup Mirra plans to open its 
 first location in Bellevue, Wash. in August. Mirra is a “social 
 entertainment.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15 hours ago</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16 hours ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>GeekWire</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>https://www.roadtovr.com/somnium-vr1-hands-on/</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Somnium VR1 Hands-on: Enthusiast Level PC VR at a Difficult Price Point</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Somnium VR1 is a new PC VR headset that delivers an impressive 
 field-of-view (FOV) and high-resolution displays, ideally appealing to 
 enthusiasts already in...</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Road to VR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.ign.com/articles/best-vr-headset</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Best VR Headset in 2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>We dive into the deep end of virtual reality to bring you the best VR 
+headsets, which we've all rigorously tested.</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Road to VR</t>
+          <t>IGN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.ign.com/articles/best-vr-headset</t>
+          <t>https://www.prnewswire.com/news-releases/arvrmr-market-revolutionizing-industries-pathway-to-surpassing-usd-521-28-billion-by-2031--skyquest-302198168.html</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>Best VR Headset in 2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>We dive into the deep end of virtual reality to bring you the best VR 
-headsets, which we've all rigorously tested.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>IGN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Apple Vision Pro guide: Everything you need to know</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
-to buy in the U.K., Canada and elsewhere. Here's what you should know 
-about...</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Macworld</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.prnewswire.com/news-releases/arvrmr-market-revolutionizing-industries-pathway-to-surpassing-usd-521-28-billion-by-2031--skyquest-302198168.html</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>PRNewswire/ -- According to SkyQuest, the global, AR/VR/MR Market size was 
 valued at USD 30.6 Billion in 2022 and is poised to grow from USD 42.46 
 Billion...</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>PR Newswire</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://tvnewscheck.com/tech/article/local-tv-widens-embrace-of-virtual-sets-ar-vr/</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Local TV Stations Widen Their Embrace Of Virtual Sets, AR &amp; VR</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CBS-owned KPIX, Hearst's WCVB and a growing number of TelevisaUnivision 
-stations are among those leaning into virtual sets and expanding use of AR 
-and VR...</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TV News Check</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://www.trendhunter.com/trends/goovis-art</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ultra-Wide Head-Mounted Displays</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>GOOVIS ART - The GOOVIS ART ultra-wide head-mounted display is the brand's 
 latest wearable engineered with a next-generation experience in mind. The 
 heads.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Trend Hunter</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>https://www.analyticsinsight.net/gaming/top-vr-headsets-for-gaming-in-2024</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Top VR Headsets for Gaming in 2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>As the gaming industry continues to explode, virtual reality gaming has 
 made a major advancement over the years. VR headsets offers engaging 
 gaming...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Analytics Insight</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/i-returned-my-apple-vision-pro-and-meta-quest-3-for-these-xr-glasses-and-theyre-30-off-for-prime-day/</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>I returned my Apple Vision Pro and Meta Quest 3 for these XR glasses - and 
 they're 30% off for Prime Day</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The Viture One XR glasses expand your viewing experience and are now just 
 $299 for Amazon Prime Day.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>19 hours ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>ZDNET</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://uk.pcmag.com/laptops/95117/the-best-laptops-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>The Best Laptops for VR in 2024</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Today's tethered virtual reality headsets demand a powerful PC. Don't want 
 to rely on a bulky desktop? These are the top notebooks we've tested that 
 have...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>PCMag UK</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://ca.movies.yahoo.com/movies/2017-09-27-eve-valkyrie-warzone-no-vr-required.html</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>'Eve: Valkyrie' drops the VR requirement</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>If what's been holding you back from playing Eve: Valkyrie has been the 
 lack of a VR headset, that (very valid) reason has disappeared.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Yahoo Movies Canada</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://www.laptopmag.com/reviews/viture-pro-xr-smart-glasses</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>VITURE Pro XR Glasses review: These AR smart glasses add a new dimension to 
 Windows and Mac computers</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Smart glasses like the VITURE Pro XR give you instant access to a 135-inch 
 virtual display for laptops, phones, and tablets. But are they worth their 
 bold...</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Laptop Mag</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
 During 2024-2032</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
 Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
 Type...</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Globe and Mail</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
+remarkable growth, with its market size projected to reach USD 5.3 billion 
+by 2027,...</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The Globe and Mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>The Best VR Headsets for 2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Work or play in another dimension by donning one of the top-rated 
 standalone or tethered virtual reality headsets we've tested.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>PCMag UK</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>The Best Graphics Cards for VR in 2024</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Building or upgrading a PC that you want to use with the latest virtual 
 reality headsets, but not sure which video card to buy? Here's what you 
 need to know...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>PCMag Australia</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>https://www.livemint.com/technology/gadgets/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle-11720608242303.html</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
 wire-free lifestyle | Mint</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Check out the top wearables like smartwatches, headphones, neckband 
 earphones and more in our curated list. Choose from top brands and get the 
 one you have...</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>mint</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.phonearena.com/ar-vr/reviews/xreal-air-2-pro-review_id6255</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xreal Air 2 Pro review: extra futuristic, thanks to this one (very useful) 
+gimmick</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Are the Xreal Air 2 Pro worth the $449 (€515 in Europe), or should you 
+stick to the more affordable $399 Xreal Air instead? Let's find out…</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24 hours ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PhoneArena</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://surgeradio.cl/ciencia-y-tecnologia/the-best-vr-headsets-for-2024/22045/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The best VR headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>If you've been tempted to buy a VR headset after seeing the Apple Vision 
+Pro in action, you're not alone. And the best news is, you don't have to 
+spend...</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>surgeradio.cl</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.phonearena.com/ar-vr/reviews/xreal-air-2-pro-review_id6255</t>
+          <t>https://www.researchgate.net/publication/382224123_Deceptive_Modulation_of_Actual_and_Perceived_Effort_While_Walking_Using_Immersive_Virtual_Reality_A_Teleoanticipatory_Approach</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Xreal Air 2 Pro review: extra futuristic, thanks to this one (very useful) 
-gimmick</t>
+          <t>Deceptive Modulation of Actual and Perceived Effort While</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Are the Xreal Air 2 Pro worth the $449 (€515 in Europe), or should you 
-stick to the more affordable $399 Xreal Air instead? Let's find out…</t>
+          <t>PDF | Virtual reality and technology-driven 'exergaming' have grown in 
+tandem to expand the possibilities of exercise. However, few studies have.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PhoneArena</t>
+          <t>ResearchGate</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/382224123_Deceptive_Modulation_of_Actual_and_Perceived_Effort_While_Walking_Using_Immersive_Virtual_Reality_A_Teleoanticipatory_Approach</t>
+          <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deceptive Modulation of Actual and Perceived Effort While</t>
+          <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
+built-in trackpad and battery; all you need is a display</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PDF | Virtual reality and technology-driven 'exergaming' have grown in 
-tandem to expand the possibilities of exercise. However, few studies have.</t>
+          <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
+foldable keyboard. The company shared its live presentation, where the 
+presenter...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ResearchGate</t>
+          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=themed_featuredapps_enabled?loadin=defaultbrowser</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>This giant Samsung monitor is $720 off before Prime Day</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The Samsung Odyssey OLED G9 is just a hair over $1000 today, and it looks 
+like the price is right.The Latest Tech News, Delivered to Your Inbox.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5 hours ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://it.chosun.com/news/articleView.html?idxno=2023092119303</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fascinating and Useful Hovering Hologram [Inho's Startup Pick]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>To view something using electronic devices, an output device like a monitor 
+is needed. Even smartphones display content through an LCD screen.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IT조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://tech.hindustantimes.com/gaming/news/gta-6-trailer-sparks-fan-analysis-san-andreas-vr-rumours-resurface-71720811864890.html</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GTA 6 trailer sparks fan analysis; San Andreas VR rumours resurface-</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Grand Theft Auto 6 first trailer has fans analysing every detail, while 
+recent comments from Video Games Deluxe reignite speculation about a VR 
+port for...</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HT Tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>https://www.newelectronics.co.uk/content/news/omnivision-unveils-shutter-image-sensor-for-arvrmr-tracking-cameras/</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>OMNIVISION unveils shutter image sensor for AR/VR/MR tracking cameras</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>OMNIVISION, a developer of advanced digital imaging, analogue, and touch &amp; 
 display technology, has launched the OG0TC BSI global shutter (GS) image 
 sensor.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>New Electronics</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>This giant Samsung monitor is $720 off before Prime Day</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>The Samsung Odyssey OLED G9 is just a hair over $1000 today, and it looks 
-like the price is right.The Latest Tech News, Delivered to Your Inbox.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-ph/news/technology/antarctica-mcfly-star-vr-must-sees-at-riat-2024/ar-BB1q3e0K</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Antarctica, McFly star &amp; VR: Must-sees at RIAT 2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>As well as its aerial displays, the huge air show hosts talks and 
-interactive exhibits.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>23 hours ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://tech.hindustantimes.com/gaming/news/gta-6-trailer-sparks-fan-analysis-san-andreas-vr-rumours-resurface-71720811864890.html</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>GTA 6 trailer sparks fan analysis; San Andreas VR rumours resurface-</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Grand Theft Auto 6 first trailer has fans analysing every detail, while 
-recent comments from Video Games Deluxe reignite speculation about a VR 
-port for...</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>HT Tech</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/news/technology/meta-holographic-glasses-are-almost-ready-to-demo/ar-BB1p5o3o?item=themed_featuredapps_enabled?loadin</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Meta holographic glasses are almost ready to demo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Meta's holographic AR glasses prototype is "almost ready" and could change 
+the tech landscape. The glasses will use transparent lenses to display...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>https://www.msn.com/en-in/health/other/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle/ar-BB1pMw8p</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
 wire-free lifestyle</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Tired of tangled wires and cumbersome devices? Step into a world of 
 seamless connectivity and untethered freedom with the latest wearables.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.bbc.co.uk/news/articles/cjqe75q4g5eo.amp</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>An astronaut, McFly star &amp; VR: Must-sees at RIAT 2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>As well as its aerial displays, the huge air show hosts talks and 
-interactive exhibits.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>BBC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://concreteplayground.com/sydney/arts-entertainment/horizon-of-khufu-virtual-reality</t>
+          <t>https://www.openpr.com/news/3585153/volumetric-display-market-size-research-report-2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coming Soon: Australian-Premiere VR Experience 'Horizon of Khufu' Will Get 
-You Wandering Around Ancient Egypt</t>
+          <t>Volumetric Display Market Size Research Report 2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Who needs an overseas plane ticket, or a time machine, when you can journey 
-4500 years back into Egypt's history at this immersive virtual-reality...</t>
+          <t>USA, New Jersey: Volumetric Display Market was valued at USD 211.43 Million 
+in 2020 and is projected to reach USD 1549.19 Million by 2028,...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>3 minutes ago</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Concrete Playground</t>
+          <t>openPR.com</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3046,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3189,7 +3134,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3421,7 +3366,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3433,134 +3378,137 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/news/us/new-greenway-section-opening-in-huntersville-with-unique-light-art-display/ar-BB1pSYck</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>New greenway section opening in Huntersville with unique light art display</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The newest section of greenway in Mecklenburg County is opening next week, 
+and it's got a colorful surprise in it.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.einnews.com/pr_news/726742643/display-market-is-expected-to-grow-from-157-8-billion-2023-to-reach-207-79-billion-in-2031-skyquest-technology</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Display Market is Expected to Grow from 157.8 Billion 2023 to reach 207.79 
+Billion in 2031 | SkyQuest</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WESTFORD, MASSACHUSETTS, UNITED STATES, July 11, 2024 /EINPresswire.com/ -- 
+Display Market size was valued at USD 152.46 billion in 2022 and is 
+expected to...</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EIN News</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>I have no problem with a cheaper Vision Pro having a worse display</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
 display, but that's fine by me.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/weekend-poll-do-you-use-your-phone-s-always-on-display/ar-BB1iuSLE?ocid=EMMX</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Weekend poll: Do you use your phone's always-on display?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>It's easy to take always-on displays for granted. Long gone are the days of 
-flashing notification lights, customized down to individual apps.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/music/news/grammy-museum-to-display-bts-seventeen-and-more-hybe-artists-memorabilia/ar-BB1pHeBT</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Grammy Museum to Display BTS, Seventeen and More HYBE Artists' Memorabilia</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Hybe — the Korean firm behind BTS, Seventeen, Tomorrow x Together and more 
 — is getting a big look at the Grammy Museum in Downtown Los Angeles.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>How to Change Display Orientation in Windows</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10 hours ago</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3572,170 +3520,168 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>How to Change Display Orientation in Windows</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>https://www.msn.com/en-us/news/world/sycamore-gap-trunk-rings-art-goes-on-display/ar-BB1pZf8j?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Sycamore Gap trunk-rings art goes on display</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A collection of five prints created from the trunk of the Sycamore Gap tree 
 have gone on public display. The 200-year-old tree, which towered 50ft 
 above...</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/jbl-s-new-earbuds-have-a-display-built-into-the-charging-case-but-that-s-not-their-best-feature/ar-BB1pBXPR</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>JBL's new earbuds have a display built into the charging case, but that's 
+not their best feature</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>retail for $200 and deliver fantastic audio playback, reliable noise 
+cancellation, and great battery life. The earbuds should satisfy most users 
+with their...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4 hours ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.lelezard.com/en/news-21453722.html</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>According to SkyQuest, the global, AR/VR/MR Market size was valued at USD 
 30.6 Billion in 2022 and is poised to grow from USD 42.46 Billion in 2023 
 to USD...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Lelezard</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/other/check-out-huawei-s-new-cover-display-designs-for-future-foldables/ar-BB1pOKTG?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Check out Huawei's new cover display designs for future foldables</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A few days ago, a reliable industry insider claimed that Huawei is readying 
-a tri-fold foldable smartphone. The Chinese firm is allegedly on track to 
-launch...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/prince-harry-is-in-a-good-place-after-putting-on-united-display-with-meghan-markle/ar-BB1pU5Ge</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Prince Harry is ‘in a good place’ after putting on united display with 
-Meghan Markle</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Prince Harry is said to be "in a good place" after he displayed a "sense of 
-honour" and "felt every word" when he accepted an award at the ESPYs this 
-week.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flightsprg-tipsubsc-v1a?loadIn=defaultBrowser</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Microsoft patents a technique to display encrypted documents so only you 
+can see them</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>It seems to be a better system than AMD's Privacy View feature but like all 
+of them, it can't solve one key issue.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>https://www.msn.com/en-us/news/us/star-wars-costumes-and-props-go-on-display-in-greenville/ar-BB1obuvi?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>'Star Wars' costumes and props go on display in Greenville</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Starting Saturday, June 15, fans can see a collection of costumes and props 
 from the "Star Wars" movies in Greenville.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/travel/world-s-only-green-boned-dinosaur-headed-to-museum-display/ar-BB1q2eSj</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>World's Only Green-Boned Dinosaur Headed to Museum Display</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Museums over the years have featured some major pieces of history by 
-displaying the skeletons of various species of dinosaurs. Only one, 
-however, has ever...</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3747,24 +3693,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flights%3Cimg%20src=&amp;item=flights%3Cimg%20src=&amp;item=flights%3Cimg%20src=&amp;item=flights%3Cimg%20src=</t>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/google-pixel-watch-3-tipped-for-massive-display-upgrade-what-you-need-to-know/ar-BB1pLFSn?ocid=BingNewsVerp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Microsoft patents a technique to display encrypted documents so only you 
-can see them</t>
+          <t>Google Pixel Watch 3 tipped for massive display upgrade — what you need to 
+know</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>It seems to be a better system than AMD's Privacy View feature but like all 
-of them, it can't solve one key issue.</t>
+          <t>Google's Pixel Watch 3 is rumored to get several significant display 
+upgrades, making it a massive leap over the Pixel Watch 2.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3776,84 +3722,84 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/travel/tripideas/disneyland-paris-sets-guinness-world-record-with-drone-display-for-bastille-day/ar-BB1q0Z1d?ocid=BingNewsVerp</t>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/sony-launches-a-new-98-inch-bravia-display-with-non-glare-coating-and-hdr-support-price-features-and-more/ar-BB1pEy3W?ocid=BingNewsVerp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>Disneyland Paris Sets Guinness World Record with Drone Display for Bastille 
-Day</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Disneyland Paris set a new Guinness World Records title for the “Largest 
-aerial display of a fictional character formed by multirotors/drones” 
-during their...</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/google-pixel-watch-3-tipped-for-massive-display-upgrade-what-you-need-to-know/ar-BB1pLFSn?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Google Pixel Watch 3 tipped for massive display upgrade — what you need to 
-know</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Google's Pixel Watch 3 is rumored to get several significant display 
-upgrades, making it a massive leap over the Pixel Watch 2.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/sony-launches-a-new-98-inch-bravia-display-with-non-glare-coating-and-hdr-support-price-features-and-more/ar-BB1pEy3W?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
         <is>
           <t>Sony launches a new 98-inch Bravia display with non-glare coating and HDR 
 support: Price, features and more</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Sony India unveils the 98-inch BZ53L BRAVIA display featuring Deep Black 
 Non-Glare Coating, 4K HDR, 120 Hz, XR TRILUMINOS™ Pro, and Full Array Local 
 Dimming...</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/travel/news/planes-and-stories-wwii-era-planes-on-display-at-lunken-airport-to-honor-americas-past/ar-BB1pr5no?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Planes and stories: WWII-era planes on display at Lunken Airport to honor 
+America's past</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>People are celebrating the ingenuity, courage, and determination of those 
+Americans who came before us this Independence Day weekend.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
+built-in trackpad and battery; all you need is a display</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
+foldable keyboard. The company shared its live presentation, where the 
+presenter...</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3865,19 +3811,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/travel/news/planes-and-stories-wwii-era-planes-on-display-at-lunken-airport-to-honor-americas-past/ar-BB1pr5no?ocid=BingNewsVerp</t>
+          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/meaning-behind-meghan-markle-s-constant-harry-hand-holding-amid-smitten-display-at-espys/ar-BB1pRqmH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planes and stories: WWII-era planes on display at Lunken Airport to honor 
-America's past</t>
+          <t>Meaning behind Meghan Markle's constant Harry hand holding amid smitten 
+display at ESPYs</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>People are celebrating the ingenuity, courage, and determination of those 
-Americans who came before us this Independence Day weekend.</t>
+          <t>The real meaning of Meghan Markle's constant hand holding with Prince Harry 
+has been revealed after their very loved-up display at the ESPY awards,...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3984,7 +3930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>9 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4277,7 +4223,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4305,7 +4251,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/news.xlsx
+++ b/news.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -730,42 +730,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
+          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Globe and Mail</t>
+          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
-remarkable growth, with its market size projected to reach USD 5.3 billion 
-by 2027,...</t>
+          <t>Apple sent shock waves across the industry in March by canceling its 
+microLED project and ending collaboration with Ams OSRAM.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Globe and Mail</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.ryt9.com/en/prg/277286</t>
+          <t>https://www.newswit.com/en/ifb2vntjeewr5ezf74wqsbqzv2ov3t19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>LG partners with mo-sys, empowering thai talents in production industry and 
-corporate customers to</t>
+corporate customers to create world-class content with cutting-edge tech at 
+mo-sys academy bangkok</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -782,119 +782,91 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RYT9</t>
+          <t>newswit</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
+          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
+          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>Apple sent shock waves across the industry in March by canceling its 
-microLED project and ending collaboration with Ams OSRAM.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>Waterloo, Ontario–(Newsfile Corp. – July 16, 2024) – VueReal, a pioneer in 
 MicroSolid Printing technology, today unveiled plans for a significant 
 expansion...</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21 hours ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Northern News</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.digitimes.com/news/a20240710PD213.html?chid=10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chinese AI models show strength and resilience amid US sanctions</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chinese AI companies showcased resilience and innovation at the 2024 World 
+AI Conference (WAIC 2024) amid the US's tightening AI chip export sanctions.</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Northern News</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.digitimes.com/news/a20240710PD213.html?chid=10</t>
+          <t>https://www.retail4growth.com/news/immersive-led-feel-at-unilumins-new-experience-centre-6820</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chinese AI models show strength and resilience amid US sanctions</t>
+          <t>Immersive LED feel at Unilumin's new experience centre</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>Chinese AI companies showcased resilience and innovation at the 2024 World 
-AI Conference (WAIC 2024) amid the US's tightening AI chip export sanctions.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.retail4growth.com/news/immersive-led-feel-at-unilumins-new-experience-centre-6820</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Immersive LED feel at Unilumin's new experience centre</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>Unilumin has just opened its first state-of-the-art experience centre in 
 Noida, which showcases the latest LED COB and MIP technologies and products 
 with an...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Retail4growth</t>
         </is>
@@ -967,7 +939,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1083,7 +1055,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1269,58 +1241,58 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>https://www.techtimes.com/articles/306659/20240714/wearable-tech-helps-scientists-track-study-the-impact-of-stress-during-sleep.htm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wearable Tech Helps Scientists Track &amp; Study the Impact of Stress During 
+Sleep</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wearable technology—from smartwatches to virtual reality devices the last 
+ten years has seen an explosion in innovation across the sector.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tech Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>https://www.businessinsider.com/guides/tech/how-to-preorder-the-samsung-galaxy-ring-2024-7</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>How to Preorder the Samsung Galaxy Ring, a New Wearable Health-Tracker</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Samsung's new Galaxy Ring is finally available for preorder. Designed as a 
 competitor to the Oura Ring, the new device is a health-tracking wearable 
 that...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Business Insider</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.techtimes.com/articles/306659/20240714/wearable-tech-helps-scientists-track-study-the-impact-of-stress-during-sleep.htm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Wearable Tech Helps Scientists Track &amp; Study the Impact of Stress During 
-Sleep</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Wearable technology—from smartwatches to virtual reality devices the last 
-ten years has seen an explosion in innovation across the sector.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Tech Times</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1345,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1385,436 +1357,437 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.citizentribune.com/news/business/samsung-brings-techs-latest-fashion-to-wearable-technology-with-ai-twists-in-new-watch-and/article_e9e63447-eb75-57f9-8ce8-032c532e5d45.html</t>
+          <t>https://www.hospimedica.com/critical-care/articles/294801839/ai-integrated-wearable-sensor-accurately-measures-step-length-for-evaluation-of-neurological-diseases.html</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Samsung brings tech's latest fashion to wearable technology with AI twists 
-in new watch and ring</t>
+          <t>AI-Integrated Wearable Sensor Accurately Measures Step Length for 
+Evaluation of Neurological Diseases</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Samsung is dressing up its wearable devices in technology's latest fashion 
-— artificial intelligence. The South Korean electronics giant on 
-Wednesday...</t>
+          <t>Step length is recognized as a sensitive and non-invasive metric for 
+assessing a variety of conditions and diseases such as aging,...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Citizen Tribune</t>
+          <t>HospiMedica International</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.sportsbusinessjournal.com/Articles/2024/07/16/gorout-liberty-league</t>
+          <t>https://nocamels.com/2024/07/colorado-medicaid-provider-to-cover-israeli-wearable-for-migraines/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCAA approves Liberty League to use in-game play calling technology from 
-GoRout</t>
+          <t>Colorado Medicaid Provider To Cover Israeli Wearable For Migraines</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The Liberty League's seven teams institute GoRout's game system across 
-in-conference football games (and out-of-conference matchups if their 
-opponent...</t>
+          <t>Health First Colorado, the state's Medicaid provider, will provide coverage 
+for an Israeli-made wearable device for migraine relief.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sports Business Journal</t>
+          <t>NoCamels</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.hospimedica.com/critical-care/articles/294801839/ai-integrated-wearable-sensor-accurately-measures-step-length-for-evaluation-of-neurological-diseases.html</t>
+          <t>https://medicalxpress.com/news/2024-07-shelf-wearable-trackers-clinically-patients.html</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AI-Integrated Wearable Sensor Accurately Measures Step Length for 
-Evaluation of Neurological Diseases</t>
+          <t>Off-the-shelf wearable trackers provide clinically-useful information for 
+patients with heart disease</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Step length is recognized as a sensitive and non-invasive metric for 
-assessing a variety of conditions and diseases such as aging,...</t>
+          <t>A study published in Nature Medicine examined if a commercially-available 
+fitness tracker and smartphone could continuously monitor the response to...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HospiMedica International</t>
+          <t>Medical Xpress</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://nocamels.com/2024/07/colorado-medicaid-provider-to-cover-israeli-wearable-for-migraines/</t>
+          <t>https://www.forbes.com/sites/forbes-personal-shopper/article/best-fitness-trackers/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Colorado Medicaid Provider To Cover Israeli Wearable For Migraines</t>
+          <t>The 7 Best Fitness Trackers, Tested By A Personal Trainer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>Health First Colorado, the state's Medicaid provider, will provide coverage 
-for an Israeli-made wearable device for migraine relief.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NoCamels</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://marketscale.com/industries/education-technology/why-hardwired-buttons-outperform-wearable-devices-in-school-safety/</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Why Hardwired Buttons Outperform Wearable Devices in School Safety</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A recent "Secured" episode highlighted the need to upgrade school safety 
-systems from outdated analog intercoms to IP-based solutions.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MarketScale</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://medicalxpress.com/news/2024-07-shelf-wearable-trackers-clinically-patients.html</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Off-the-shelf wearable trackers provide clinically-useful information for 
-patients with heart disease</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A study published in Nature Medicine examined if a commercially-available 
-fitness tracker and smartphone could continuously monitor the response to...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Medical Xpress</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.forbes.com/sites/forbes-personal-shopper/article/best-fitness-trackers/</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>The 7 Best Fitness Trackers, Tested By A Personal Trainer</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>The best fitness trackers can guide you to reach your health goals. I've 
 spent four months testing 14 different wearables to find the best fitness 
 trackers...</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>https://www.globenewswire.com/news-release/2024/07/11/2911971/32656/en/Wearable-AI-Market-is-expected-to-Grow-at-an-8-3-CAGR-and-Reach-USD-146-2-billion-by-2034-Report-by-Transparency-Market-Research-Inc.html</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Wearable AI Market is expected to Grow at an 8.3% CAGR and</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>AI-powered wearables offer customized fitness plans and real-time coaching, 
 adapting to individual goals and progress....</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.digitimes.com/news/a20240717PD218/samsung-wearable-demand-sales-galaxy.html</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>With wearable device demand declining, Samsung lays out plans to boost sales</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Despite a decline in demand for devices like smartwatches in the first half 
+of the year, Samsung remains hopeful that new products and marketing 
+strategies...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3 hours ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>digitimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.globenewswire.com/news-release/2024/07/15/2913085/0/en/Wearable-Devices-Unveils-Innovative-ChatGPT-Gestures-Interaction-for-Apple-Watch-Using-Mudra-Band-Enhancing-AI-Integration.html</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils Innovative ChatGPT Gestures</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>The new user experience enables interaction with AI agents through 
 touchless gestures, offering a seamless and innovative way to engage with 
 AI technology -.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.digitimes.com/news/a20240717PD218/samsung-wearable-demand-sales-galaxy.html</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>With wearable device demand declining, Samsung lays out plans to boost sales</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Despite a decline in demand for devices like smartwatches in the first half 
-of the year, Samsung remains hopeful that new products and marketing 
-strategies...</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>54 minutes ago</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.stocktitan.net/news/WLDS/wearable-devices-unveils-the-revolutionary-mudra-link-the-first-ai-2nqborjfhrn0.html</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
 Interface Wristband for Android and Beyond</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Wearable Devices (Nasdaq: WLDS) has unveiled the Mudra LINK, an AI-powered 
 neural wristband for Bluetooth-enabled devices.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20 hours ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Stock Titan</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://news.samsung.com/global/samsungs-expanded-wearables-portfolio-unlocks-intelligent-health-experiences-for-all</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Samsung’s Expanded Wearables Portfolio Unlocks Intelligent Health 
 Experiences for All</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Samsung Galaxy Ring, Galaxy Watch7 and Galaxy Watch Ultra enable new, 
 intelligent health experiences across the portfolio, making everyday 
 wellness more...</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Samsung Global Newsroom</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/best-fitness-ring/</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>The best fitness rings of 2024: Expert tested and reviewed</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>We tested the top smart rings on the market from Oura, Ultrahuman, and 
 more, to help you choose the best ring for you, no matter how you exercise.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ZDNET</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ZDNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Sports Analytics Market Size Worth US$ 20.48 Billion By 2032 With a CAGR of 
 22.51%, Boosted by Surged Usage of Wearable Technology | Research by SNS 
 Insider</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>The Sports Analytics Market is Experiencing Robust Growth by Raising 
 Emphasis on Real-Time Data for Organizing Training Sessions, Says SNS 
 Insider,...</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://abcnews.go.com/GMA/Wellness/samsung-unveils-1st-smart-ring-biometric-health-monitoring/story?id=111849999</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Samsung unveils 1st smart ring with biometric health monitoring, how it 
+stacks up to the Oura Ring</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>What to know about the new Samsung Galaxy Ring, Samsung's new wearable 
+technology device with 24/7 health monitoring capabilities.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ABC News - Breaking News, Latest News and Videos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-xl/news/other/wearable-technology-the-wearable-smart-devices-that-are-changing-our-daily-lives/ss-BB1pTff8?ocid=finance-verthp-feeds</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wearable technology: the wearable smart devices that are changing our daily 
+lives</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The link between fashion and the technology sector has a long history, 
+culminating in wearable technology products that have changed or will 
+significantly...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/self-assembling-highly-conductive-sensors-could-improve-wearable-devices/ar-BB1oZSyV?item=flightsprg-tipsubsc-v1a?season=2024/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Self-assembling, highly conductive sensors could improve wearable devices</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Penn State researchers developed a new soft and stretchable material that 
+can be 3D-printed. The material can be used to fabricate wearable 
+devices,...</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/samsungs-galaxy-ring-smart-device-093000311.html</t>
+          <t>https://www.insideprecisionmedicine.com/topics/translational-research/popular-wearables-can-help-doctors-manage-medication-in-patients-with-heart-disease/</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Can Samsung's new Galaxy Ring smart device help its China comeback?</t>
+          <t>Popular Wearables Can Help Doctors Manage Medication in Patients with Heart 
+Disease</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Samsung Electronics, once the dominant smartphone player in China, is 
-drawing fresh interest from consumers on the mainland after the South 
-Korean tech...</t>
+          <t>A new study suggests doctors can use information from their patients' 
+wearable devices to monitor the effectiveness of medications they prescribe 
+to treat...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>Inside Precision Medicine</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2030,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2174,867 +2147,868 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://www.engadget.com/best-vr-headsets-140012529.html</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The best VR headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>If you've been intrigued by virtual reality for a while, there are a number 
+of solid headsets to consider. These are the best VR headsets we've tested 
+and...</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Engadget</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>https://www.livescience.com/prime-day-vr-headset-deal-meta-quest-3-now-discounted</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Slip into VR for less with this Meta Quest 3 Prime Day deal</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Virtual Reality may not quite have hit the mainstream in the same way 
 traditional video games have, but if it does, it'll have a lot to thank the 
 Meta Quest...</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Live Science</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://www.digitimes.com/news/a20240710VL203/3d-ar_vr-display-lcd-technology.html</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Rain Technology to revolutionize AR/VR displays with brightness and FOV 
 breakthroughs</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>US-based Rain Technology has accumulated more than two decades of 
 experience in consumer display technologies, with ventures into LCD, OLED, 
 e-privacy,...</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>digitimes</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>https://omdia.tech.informa.com/pr/2024/jul/new-omdia-research-highlights-near-eye-display-market-poised-for-growth-as-leading-brands-revive-sales-efforts</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>New Omdia research highlights near-eye display market poised for growth as 
 leading brands revive sales efforts</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Stay informed on the XR market trends with new research from Omdia. Despite 
 a slowdown, top brands are focused on driving growth in AR, VR,...</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Omdia</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro guide: Everything you need to know</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
+to buy in the U.K., Canada and elsewhere. Here's what you should know 
+about...</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Macworld</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>(Mirra Image) Virtual reality entertainment startup Mirra plans to open its 
 first location in Bellevue, Wash. in August. Mirra is a “social 
 entertainment.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17 hours ago</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>GeekWire</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.roadtovr.com/somnium-vr1-hands-on/</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Somnium VR1 Hands-on: Enthusiast Level PC VR at a Difficult Price Point</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Somnium VR1 is a new PC VR headset that delivers an impressive 
 field-of-view (FOV) and high-resolution displays, ideally appealing to 
 enthusiasts already in...</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Road to VR</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://www.ign.com/articles/best-vr-headset</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Best VR Headset in 2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>We dive into the deep end of virtual reality to bring you the best VR 
 headsets, which we've all rigorously tested.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>IGN</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>https://www.prnewswire.com/news-releases/arvrmr-market-revolutionizing-industries-pathway-to-surpassing-usd-521-28-billion-by-2031--skyquest-302198168.html</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>PRNewswire/ -- According to SkyQuest, the global, AR/VR/MR Market size was 
 valued at USD 30.6 Billion in 2022 and is poised to grow from USD 42.46 
 Billion...</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>PR Newswire</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://tvnewscheck.com/tech/article/local-tv-widens-embrace-of-virtual-sets-ar-vr/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Local TV Stations Widen Their Embrace Of Virtual Sets, AR &amp; VR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CBS-owned KPIX, Hearst's WCVB and a growing number of TelevisaUnivision 
+stations are among those leaning into virtual sets and expanding use of AR 
+and VR...</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TV News Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.trendhunter.com/trends/goovis-art</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Ultra-Wide Head-Mounted Displays</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>GOOVIS ART - The GOOVIS ART ultra-wide head-mounted display is the brand's 
 latest wearable engineered with a next-generation experience in mind. The 
 heads.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Trend Hunter</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://www.analyticsinsight.net/gaming/top-vr-headsets-for-gaming-in-2024</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Top VR Headsets for Gaming in 2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>As the gaming industry continues to explode, virtual reality gaming has 
 made a major advancement over the years. VR headsets offers engaging 
 gaming...</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Analytics Insight</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/i-returned-my-apple-vision-pro-and-meta-quest-3-for-these-xr-glasses-and-theyre-30-off-for-prime-day/</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>I returned my Apple Vision Pro and Meta Quest 3 for these XR glasses - and 
 they're 30% off for Prime Day</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>The Viture One XR glasses expand your viewing experience and are now just 
 $299 for Amazon Prime Day.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21 hours ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ZDNET</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23 hours ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ZDNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://uk.pcmag.com/laptops/95117/the-best-laptops-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>The Best Laptops for VR in 2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Today's tethered virtual reality headsets demand a powerful PC. Don't want 
 to rely on a bulky desktop? These are the top notebooks we've tested that 
 have...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>PCMag UK</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://ca.movies.yahoo.com/movies/2017-09-27-eve-valkyrie-warzone-no-vr-required.html</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>'Eve: Valkyrie' drops the VR requirement</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>If what's been holding you back from playing Eve: Valkyrie has been the 
 lack of a VR headset, that (very valid) reason has disappeared.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Yahoo Movies Canada</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://www.laptopmag.com/reviews/viture-pro-xr-smart-glasses</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>VITURE Pro XR Glasses review: These AR smart glasses add a new dimension to 
 Windows and Mac computers</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Smart glasses like the VITURE Pro XR give you instant access to a 135-inch 
 virtual display for laptops, phones, and tablets. But are they worth their 
 bold...</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Laptop Mag</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
 During 2024-2032</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
 Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
 Type...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The Best VR Headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Work or play in another dimension by donning one of the top-rated 
+standalone or tethered virtual reality headsets we've tested.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PCMag UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The Best Graphics Cards for VR in 2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Building or upgrading a PC that you want to use with the latest virtual 
+reality headsets, but not sure which video card to buy? Here's what you 
+need to know...</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PCMag Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
 remarkable growth, with its market size projected to reach USD 5.3 billion 
 by 2027,...</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11 hours ago</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13 hours ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>The Best VR Headsets for 2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Work or play in another dimension by donning one of the top-rated 
-standalone or tethered virtual reality headsets we've tested.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PCMag UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>The Best Graphics Cards for VR in 2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Building or upgrading a PC that you want to use with the latest virtual 
-reality headsets, but not sure which video card to buy? Here's what you 
-need to know...</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PCMag Australia</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.livemint.com/technology/gadgets/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle-11720608242303.html</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
 wire-free lifestyle | Mint</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Check out the top wearables like smartwatches, headphones, neckband 
 earphones and more in our curated list. Choose from top brands and get the 
 one you have...</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>mint</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.phonearena.com/ar-vr/reviews/xreal-air-2-pro-review_id6255</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Xreal Air 2 Pro review: extra futuristic, thanks to this one (very useful) 
 gimmick</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Are the Xreal Air 2 Pro worth the $449 (€515 in Europe), or should you 
 stick to the more affordable $399 Xreal Air instead? Let's find out…</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>PhoneArena</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://surgeradio.cl/ciencia-y-tecnologia/the-best-vr-headsets-for-2024/22045/</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>The best VR headsets for 2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>If you've been tempted to buy a VR headset after seeing the Apple Vision 
-Pro in action, you're not alone. And the best news is, you don't have to 
-spend...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>surgeradio.cl</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/the-meta-quest-s-airplane-mode-is-nice-but-i-find-it-pointless/ar-BB1pPnwT?item=flightsprg-tipsubsc-v1aseason=2024/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The Meta Quest's airplane mode is nice, but I find it pointless</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Airplane mode recently launched on the Meta Quest, but the feature has one 
+big problem: VR headsets are just too big for travel.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5 hours ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.researchgate.net/publication/382224123_Deceptive_Modulation_of_Actual_and_Perceived_Effort_While_Walking_Using_Immersive_Virtual_Reality_A_Teleoanticipatory_Approach</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Deceptive Modulation of Actual and Perceived Effort While</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>PDF | Virtual reality and technology-driven 'exergaming' have grown in 
 tandem to expand the possibilities of exercise. However, few studies have.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>ResearchGate</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
 built-in trackpad and battery; all you need is a display</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
 foldable keyboard. The company shared its live presentation, where the 
 presenter...</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=themed_featuredapps_enabled?loadin=defaultbrowser</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=flightsprg-tipsubsc-v1a?season=2024/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>This giant Samsung monitor is $720 off before Prime Day</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>The Samsung Odyssey OLED G9 is just a hair over $1000 today, and it looks 
 like the price is right.The Latest Tech News, Delivered to Your Inbox.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>6 hours ago</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://it.chosun.com/news/articleView.html?idxno=2023092119303</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Fascinating and Useful Hovering Hologram [Inho's Startup Pick]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>To view something using electronic devices, an output device like a monitor 
 is needed. Even smartphones display content through an LCD screen.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>IT조선</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://tech.hindustantimes.com/gaming/news/gta-6-trailer-sparks-fan-analysis-san-andreas-vr-rumours-resurface-71720811864890.html</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>GTA 6 trailer sparks fan analysis; San Andreas VR rumours resurface-</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Grand Theft Auto 6 first trailer has fans analysing every detail, while 
 recent comments from Video Games Deluxe reignite speculation about a VR 
 port for...</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>HT Tech</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.newelectronics.co.uk/content/news/omnivision-unveils-shutter-image-sensor-for-arvrmr-tracking-cameras/</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>OMNIVISION unveils shutter image sensor for AR/VR/MR tracking cameras</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>OMNIVISION, a developer of advanced digital imaging, analogue, and touch &amp; 
 display technology, has launched the OG0TC BSI global shutter (GS) image 
 sensor.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>New Electronics</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/meta-holographic-glasses-are-almost-ready-to-demo/ar-BB1p5o3o?item=themed_featuredapps_enabled?loadin</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Meta holographic glasses are almost ready to demo</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Meta's holographic AR glasses prototype is "almost ready" and could change 
-the tech landscape. The glasses will use transparent lenses to display...</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-in/health/other/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle/ar-BB1pMw8p</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
-wire-free lifestyle</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Tired of tangled wires and cumbersome devices? Step into a world of 
-seamless connectivity and untethered freedom with the latest wearables.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.openpr.com/news/3585153/volumetric-display-market-size-research-report-2024</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Volumetric Display Market Size Research Report 2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>USA, New Jersey: Volumetric Display Market was valued at USD 211.43 Million 
-in 2020 and is projected to reach USD 1549.19 Million by 2028,...</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>47 minutes ago</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>openPR.com</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3105,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3289,338 +3263,341 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://www.einnews.com/pr_news/728271630/holographic-ar-display-market-overview-2022-size-share-growth-trends-demand-forecast-report-2031</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holographic AR Display Market Overview 2022 : Size, Share, Growth, Trends, 
+Demand, Forecast Report 2031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Holographic AR Display Market," The holographic ar display market was 
+valued at $170.30 million in 2021, and is estimated to reach $2.6 billion 
+by 2031,...</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1 hour ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EIN News</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>https://nocamels.com/2024/07/new-specs-augment-reality-and-make-you-look-good-doing-it/</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>New Specs Augment Reality And Make You Look Good Doing It</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Lumus Optics is using mirrors with a modern high-tech twist to help create 
 the cutting edge of stylish augmented reality (AR) glasses.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>NoCamels</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>https://www.japantimes.co.jp/news/2024/07/16/world/society/ar15-america-popular-guns/</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>The AR-15: One of America's most popular and deadliest guns</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The attempted assassination of former U.S. President Donald Trump with a 
 semiautomatic rifle illustrates once again how easy it is for shooters in 
 the U.S....</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>The Japan Times</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Apple Vision Pro guide: Everything you need to know</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
 to buy in the U.K., Canada and elsewhere. Here's what you should know 
 about...</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Macworld</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://magazine.cim.org/en/news/2024/underground-surveying-gets-an-ar-upgrade-en/</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Underground surveying gets an AR upgrade</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>NSS Canada, a Sudbury, Ontario-based mining technology company, has 
 incorporated an augmented reality (AR) display into its underground 
 surveying software.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>CIM Magazine</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://www.openpr.com/news/3574492/windshield-ar-heads-up-displays-hud-market-size-demands-growth</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Windshield AR Heads Up Displays HUD Market Size, Demands, Growth</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Press release - WiseGuy Reports - Windshield AR Heads Up Displays HUD 
 Market Size, Demands, Growth Dynamics, Top Players and Global Forecast 
 2032...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>openPR.com</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
 During 2024-2032</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
 Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
 Type...</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/us/new-greenway-section-opening-in-huntersville-with-unique-light-art-display/ar-BB1pSYck</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>New greenway section opening in Huntersville with unique light art display</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The newest section of greenway in Mecklenburg County is opening next week, 
 and it's got a colorful surprise in it.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>I have no problem with a cheaper Vision Pro having a worse display</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
+display, but that's fine by me.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://www.einnews.com/pr_news/726742643/display-market-is-expected-to-grow-from-157-8-billion-2023-to-reach-207-79-billion-in-2031-skyquest-technology</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Display Market is Expected to Grow from 157.8 Billion 2023 to reach 207.79 
 Billion in 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>WESTFORD, MASSACHUSETTS, UNITED STATES, July 11, 2024 /EINPresswire.com/ -- 
 Display Market size was valued at USD 152.46 billion in 2022 and is 
 expected to...</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>EIN News</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>I have no problem with a cheaper Vision Pro having a worse display</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
-display, but that's fine by me.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/music/news/grammy-museum-to-display-bts-seventeen-and-more-hybe-artists-memorabilia/ar-BB1pHeBT</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Grammy Museum to Display BTS, Seventeen and More HYBE Artists' Memorabilia</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Hybe — the Korean firm behind BTS, Seventeen, Tomorrow x Together and more 
 — is getting a big look at the Grammy Museum in Downtown Los Angeles.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>How to Change Display Orientation in Windows</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3632,311 +3609,310 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How to Change Display Orientation in Windows</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14 hours ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>https://www.msn.com/en-us/news/world/sycamore-gap-trunk-rings-art-goes-on-display/ar-BB1pZf8j?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sycamore Gap trunk-rings art goes on display</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>A collection of five prints created from the trunk of the Sycamore Gap tree 
 have gone on public display. The 200-year-old tree, which towered 50ft 
 above...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/jbl-s-new-earbuds-have-a-display-built-into-the-charging-case-but-that-s-not-their-best-feature/ar-BB1pBXPR</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>JBL's new earbuds have a display built into the charging case, but that's 
 not their best feature</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>retail for $200 and deliver fantastic audio playback, reliable noise 
 cancellation, and great battery life. The earbuds should satisfy most users 
 with their...</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5 hours ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7 hours ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.lelezard.com/en/news-21453722.html</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>According to SkyQuest, the global, AR/VR/MR Market size was valued at USD 
 30.6 Billion in 2022 and is poised to grow from USD 42.46 Billion in 2023 
 to USD...</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Lelezard</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flightsprg-tipsubsc-v1a?loadIn=defaultBrowser</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flightsprg-tipsubsc-v1a?season89c26d1ce19649ab8c6b1ea6904de419thu</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Microsoft patents a technique to display encrypted documents so only you 
 can see them</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>It seems to be a better system than AMD's Privacy View feature but like all 
 of them, it can't solve one key issue.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8 hours ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/google-pixel-watch-3-tipped-for-massive-display-upgrade-what-you-need-to-know/ar-BB1pLFSn?ocid=BingNewsVerp</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Google Pixel Watch 3 tipped for massive display upgrade — what you need to 
+know</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Google's Pixel Watch 3 is rumored to get several significant display 
+upgrades, making it a massive leap over the Pixel Watch 2.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/us/star-wars-costumes-and-props-go-on-display-in-greenville/ar-BB1obuvi?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>'Star Wars' costumes and props go on display in Greenville</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Starting Saturday, June 15, fans can see a collection of costumes and props 
 from the "Star Wars" movies in Greenville.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/google-pixel-watch-3-tipped-for-massive-display-upgrade-what-you-need-to-know/ar-BB1pLFSn?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Google Pixel Watch 3 tipped for massive display upgrade — what you need to 
-know</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Google's Pixel Watch 3 is rumored to get several significant display 
-upgrades, making it a massive leap over the Pixel Watch 2.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/sony-launches-a-new-98-inch-bravia-display-with-non-glare-coating-and-hdr-support-price-features-and-more/ar-BB1pEy3W?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sony launches a new 98-inch Bravia display with non-glare coating and HDR 
 support: Price, features and more</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Sony India unveils the 98-inch BZ53L BRAVIA display featuring Deep Black 
 Non-Glare Coating, 4K HDR, 120 Hz, XR TRILUMINOS™ Pro, and Full Array Local 
 Dimming...</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/travel/news/planes-and-stories-wwii-era-planes-on-display-at-lunken-airport-to-honor-americas-past/ar-BB1pr5no?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Planes and stories: WWII-era planes on display at Lunken Airport to honor 
 America's past</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>People are celebrating the ingenuity, courage, and determination of those 
 Americans who came before us this Independence Day weekend.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
 built-in trackpad and battery; all you need is a display</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
 foldable keyboard. The company shared its live presentation, where the 
 presenter...</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/meaning-behind-meghan-markle-s-constant-harry-hand-holding-amid-smitten-display-at-espys/ar-BB1pRqmH</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Meaning behind Meghan Markle's constant Harry hand holding amid smitten 
 display at ESPYs</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>The real meaning of Meghan Markle's constant hand holding with Prince Harry 
 has been revealed after their very loved-up display at the ESPY awards,...</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/get-this-27-gaming-monitor-for-only-159-77-ar/ar-BB1pTU5n?item=themed_featuredapps_enableD</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Get This 27" Gaming Monitor for Only $159.77 AR</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The ASRock 27" QHD 180Hz Gaming Monitor is currently on sale for $159.77 
-after rebate, marking the lowest price in the.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4015,7 +3991,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4043,7 +4019,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4248,7 +4224,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4393,7 +4369,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4599,7 +4575,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4772,7 +4748,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4829,7 +4805,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">

--- a/news.xlsx
+++ b/news.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -674,227 +674,199 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-us/money/markets/super-micro-is-joining-the-nasdaq-100-it-will-replace-this-stock/ar-BB1pUTal</t>
+          <t>https://www.sammobile.com/samsung/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Super Micro Is Joining the Nasdaq 100. It Will Replace This Stock.</t>
+          <t>Samsung over the years</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Super Micro Computer will replace Walgreens Boots Alliance in the Nasdaq 
-100 index before the start of trading on Monday, July 22.</t>
+          <t>What started as a humble trading company in 1938 is now one of the biggest 
+conglomerates on the planet. Samsung is best known for its smartphones,...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>SamMobile</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.sammobile.com/samsung/</t>
+          <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samsung over the years</t>
+          <t>The Globe and Mail</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>What started as a humble trading company in 1938 is now one of the biggest 
-conglomerates on the planet. Samsung is best known for its smartphones,...</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SamMobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The Globe and Mail</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
 remarkable growth, with its market size projected to reach USD 5.3 billion 
 by 2027,...</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11 hours ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>https://www.ryt9.com/en/prg/277286</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>LG partners with mo-sys, empowering thai talents in production industry and 
 corporate customers to</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>LG Electronics (Thailand) Co., Ltd., in collaboration with Mo-Sys and the 
 world-class partner, offers a complete virtual production solution 
 featuring LED...</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RYT9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Apple sent shock waves across the industry in March by canceling its 
+microLED project and ending collaboration with Ams OSRAM.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RYT9</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.digitimes.com/news/a20240710PD218/microled-apple-automotive-lidar-demand.html</t>
+          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ams Osram sees promising automotive microLED and LiDAR demand outlook</t>
+          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>Apple sent shock waves across the industry in March by canceling its 
-microLED project and ending collaboration with Ams OSRAM.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>Waterloo, Ontario–(Newsfile Corp. – July 16, 2024) – VueReal, a pioneer in 
 MicroSolid Printing technology, today unveiled plans for a significant 
 expansion...</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21 hours ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Northern News</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.digitimes.com/news/a20240710PD213.html?chid=10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chinese AI models show strength and resilience amid US sanctions</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chinese AI companies showcased resilience and innovation at the 2024 World 
+AI Conference (WAIC 2024) amid the US's tightening AI chip export sanctions.</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Northern News</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.digitimes.com/news/a20240710PD213.html?chid=10</t>
+          <t>https://www.retail4growth.com/news/immersive-led-feel-at-unilumins-new-experience-centre-6820</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chinese AI models show strength and resilience amid US sanctions</t>
+          <t>Immersive LED feel at Unilumin's new experience centre</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>Chinese AI companies showcased resilience and innovation at the 2024 World 
-AI Conference (WAIC 2024) amid the US's tightening AI chip export sanctions.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>digitimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.retail4growth.com/news/immersive-led-feel-at-unilumins-new-experience-centre-6820</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Immersive LED feel at Unilumin's new experience centre</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>Unilumin has just opened its first state-of-the-art experience centre in 
 Noida, which showcases the latest LED COB and MIP technologies and products 
 with an...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Retail4growth</t>
         </is>
@@ -967,7 +939,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1083,7 +1055,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1269,58 +1241,58 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>https://www.techtimes.com/articles/306659/20240714/wearable-tech-helps-scientists-track-study-the-impact-of-stress-during-sleep.htm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wearable Tech Helps Scientists Track &amp; Study the Impact of Stress During 
+Sleep</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wearable technology—from smartwatches to virtual reality devices the last 
+ten years has seen an explosion in innovation across the sector.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tech Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>https://www.businessinsider.com/guides/tech/how-to-preorder-the-samsung-galaxy-ring-2024-7</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>How to Preorder the Samsung Galaxy Ring, a New Wearable Health-Tracker</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Samsung's new Galaxy Ring is finally available for preorder. Designed as a 
 competitor to the Oura Ring, the new device is a health-tracking wearable 
 that...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Business Insider</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.techtimes.com/articles/306659/20240714/wearable-tech-helps-scientists-track-study-the-impact-of-stress-during-sleep.htm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Wearable Tech Helps Scientists Track &amp; Study the Impact of Stress During 
-Sleep</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Wearable technology—from smartwatches to virtual reality devices the last 
-ten years has seen an explosion in innovation across the sector.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Tech Times</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1345,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1433,7 +1405,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1462,7 +1434,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1502,18 +1474,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://marketscale.com/industries/education-technology/why-hardwired-buttons-outperform-wearable-devices-in-school-safety/</t>
+          <t>https://medicalxpress.com/news/2024-07-shelf-wearable-trackers-clinically-patients.html</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Why Hardwired Buttons Outperform Wearable Devices in School Safety</t>
+          <t>Off-the-shelf wearable trackers provide clinically-useful information for 
+patients with heart disease</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A recent "Secured" episode highlighted the need to upgrade school safety 
-systems from outdated analog intercoms to IP-based solutions.</t>
+          <t>A study published in Nature Medicine examined if a commercially-available 
+fitness tracker and smartphone could continuously monitor the response to...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1523,57 +1496,56 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MarketScale</t>
+          <t>Medical Xpress</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://medicalxpress.com/news/2024-07-shelf-wearable-trackers-clinically-patients.html</t>
+          <t>https://www.forbes.com/sites/forbes-personal-shopper/article/best-fitness-trackers/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Off-the-shelf wearable trackers provide clinically-useful information for 
-patients with heart disease</t>
+          <t>The 7 Best Fitness Trackers, Tested By A Personal Trainer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>A study published in Nature Medicine examined if a commercially-available 
-fitness tracker and smartphone could continuously monitor the response to...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Medical Xpress</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.forbes.com/sites/forbes-personal-shopper/article/best-fitness-trackers/</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>The 7 Best Fitness Trackers, Tested By A Personal Trainer</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>The best fitness trackers can guide you to reach your health goals. I've 
 spent four months testing 14 different wearables to find the best fitness 
 trackers...</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.globenewswire.com/news-release/2024/07/11/2911971/32656/en/Wearable-AI-Market-is-expected-to-Grow-at-an-8-3-CAGR-and-Reach-USD-146-2-billion-by-2034-Report-by-Transparency-Market-Research-Inc.html</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wearable AI Market is expected to Grow at an 8.3% CAGR and</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AI-powered wearables offer customized fitness plans and real-time coaching, 
+adapting to individual goals and progress....</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>5 days ago</t>
@@ -1581,35 +1553,36 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.globenewswire.com/news-release/2024/07/11/2911971/32656/en/Wearable-AI-Market-is-expected-to-Grow-at-an-8-3-CAGR-and-Reach-USD-146-2-billion-by-2034-Report-by-Transparency-Market-Research-Inc.html</t>
+          <t>https://www.digitimes.com/news/a20240717PD218/samsung-wearable-demand-sales-galaxy.html</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wearable AI Market is expected to Grow at an 8.3% CAGR and</t>
+          <t>With wearable device demand declining, Samsung lays out plans to boost sales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AI-powered wearables offer customized fitness plans and real-time coaching, 
-adapting to individual goals and progress....</t>
+          <t>Despite a decline in demand for devices like smartwatches in the first half 
+of the year, Samsung remains hopeful that new products and marketing 
+strategies...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GlobeNewswire</t>
+          <t>digitimes</t>
         </is>
       </c>
     </row>
@@ -1645,80 +1618,79 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.digitimes.com/news/a20240717PD218/samsung-wearable-demand-sales-galaxy.html</t>
+          <t>https://www.stocktitan.net/news/WLDS/wearable-devices-unveils-the-revolutionary-mudra-link-the-first-ai-2nqborjfhrn0.html</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>With wearable device demand declining, Samsung lays out plans to boost sales</t>
+          <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
+Interface Wristband for Android and Beyond</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Despite a decline in demand for devices like smartwatches in the first half 
-of the year, Samsung remains hopeful that new products and marketing 
-strategies...</t>
+          <t>Wearable Devices (Nasdaq: WLDS) has unveiled the Mudra LINK, an AI-powered 
+neural wristband for Bluetooth-enabled devices.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>54 minutes ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>digitimes</t>
+          <t>Stock Titan</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.stocktitan.net/news/WLDS/wearable-devices-unveils-the-revolutionary-mudra-link-the-first-ai-2nqborjfhrn0.html</t>
+          <t>https://news.samsung.com/global/samsungs-expanded-wearables-portfolio-unlocks-intelligent-health-experiences-for-all</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
-Interface Wristband for Android and Beyond</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Wearable Devices (Nasdaq: WLDS) has unveiled the Mudra LINK, an AI-powered 
-neural wristband for Bluetooth-enabled devices.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20 hours ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Stock Titan</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://news.samsung.com/global/samsungs-expanded-wearables-portfolio-unlocks-intelligent-health-experiences-for-all</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
         <is>
           <t>Samsung’s Expanded Wearables Portfolio Unlocks Intelligent Health 
 Experiences for All</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Samsung Galaxy Ring, Galaxy Watch7 and Galaxy Watch Ultra enable new, 
 intelligent health experiences across the portfolio, making everyday 
 wellness more...</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Samsung Global Newsroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.zdnet.com/article/best-fitness-ring/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The best fitness rings of 2024: Expert tested and reviewed</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>We tested the top smart rings on the market from Oura, Ultrahuman, and 
+more, to help you choose the best ring for you, no matter how you exercise.</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>6 days ago</t>
@@ -1726,87 +1698,88 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Samsung Global Newsroom</t>
+          <t>ZDNET</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.zdnet.com/article/best-fitness-ring/</t>
+          <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>The best fitness rings of 2024: Expert tested and reviewed</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>We tested the top smart rings on the market from Oura, Ultrahuman, and 
-more, to help you choose the best ring for you, no matter how you exercise.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ZDNET</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
         <is>
           <t>Sports Analytics Market Size Worth US$ 20.48 Billion By 2032 With a CAGR of 
 22.51%, Boosted by Surged Usage of Wearable Technology | Research by SNS 
 Insider</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>The Sports Analytics Market is Experiencing Robust Growth by Raising 
 Emphasis on Real-Time Data for Organizing Training Sessions, Says SNS 
 Insider,...</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/samsungs-galaxy-ring-smart-device-093000311.html</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Can Samsung's new Galaxy Ring smart device help its China comeback?</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Samsung Electronics, once the dominant smartphone player in China, is 
 drawing fresh interest from consumers on the mainland after the South 
 Korean tech...</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://abcnews.go.com/GMA/Wellness/samsung-unveils-1st-smart-ring-biometric-health-monitoring/story?id=111849999</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Samsung unveils 1st smart ring with biometric health monitoring, how it 
+stacks up to the Oura Ring</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>What to know about the new Samsung Galaxy Ring, Samsung's new wearable 
+technology device with 24/7 health monitoring capabilities.</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>5 days ago</t>
@@ -1814,7 +1787,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>ABC News - Breaking News, Latest News and Videos</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2030,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2174,867 +2147,868 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://www.engadget.com/best-vr-headsets-140012529.html</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The best VR headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>If you've been intrigued by virtual reality for a while, there are a number 
+of solid headsets to consider. These are the best VR headsets we've tested 
+and...</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Engadget</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>https://www.livescience.com/prime-day-vr-headset-deal-meta-quest-3-now-discounted</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Slip into VR for less with this Meta Quest 3 Prime Day deal</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Virtual Reality may not quite have hit the mainstream in the same way 
 traditional video games have, but if it does, it'll have a lot to thank the 
 Meta Quest...</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Live Science</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://www.digitimes.com/news/a20240710VL203/3d-ar_vr-display-lcd-technology.html</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Rain Technology to revolutionize AR/VR displays with brightness and FOV 
 breakthroughs</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>US-based Rain Technology has accumulated more than two decades of 
 experience in consumer display technologies, with ventures into LCD, OLED, 
 e-privacy,...</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>digitimes</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>https://omdia.tech.informa.com/pr/2024/jul/new-omdia-research-highlights-near-eye-display-market-poised-for-growth-as-leading-brands-revive-sales-efforts</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>New Omdia research highlights near-eye display market poised for growth as 
 leading brands revive sales efforts</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Stay informed on the XR market trends with new research from Omdia. Despite 
 a slowdown, top brands are focused on driving growth in AR, VR,...</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Omdia</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro guide: Everything you need to know</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
+to buy in the U.K., Canada and elsewhere. Here's what you should know 
+about...</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Macworld</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>(Mirra Image) Virtual reality entertainment startup Mirra plans to open its 
 first location in Bellevue, Wash. in August. Mirra is a “social 
 entertainment.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17 hours ago</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>GeekWire</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.roadtovr.com/somnium-vr1-hands-on/</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Somnium VR1 Hands-on: Enthusiast Level PC VR at a Difficult Price Point</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Somnium VR1 is a new PC VR headset that delivers an impressive 
 field-of-view (FOV) and high-resolution displays, ideally appealing to 
 enthusiasts already in...</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Road to VR</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://www.ign.com/articles/best-vr-headset</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Best VR Headset in 2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>We dive into the deep end of virtual reality to bring you the best VR 
 headsets, which we've all rigorously tested.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>IGN</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>https://www.prnewswire.com/news-releases/arvrmr-market-revolutionizing-industries-pathway-to-surpassing-usd-521-28-billion-by-2031--skyquest-302198168.html</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>PRNewswire/ -- According to SkyQuest, the global, AR/VR/MR Market size was 
 valued at USD 30.6 Billion in 2022 and is poised to grow from USD 42.46 
 Billion...</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>PR Newswire</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://tvnewscheck.com/tech/article/local-tv-widens-embrace-of-virtual-sets-ar-vr/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Local TV Stations Widen Their Embrace Of Virtual Sets, AR &amp; VR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CBS-owned KPIX, Hearst's WCVB and a growing number of TelevisaUnivision 
+stations are among those leaning into virtual sets and expanding use of AR 
+and VR...</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TV News Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.trendhunter.com/trends/goovis-art</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Ultra-Wide Head-Mounted Displays</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>GOOVIS ART - The GOOVIS ART ultra-wide head-mounted display is the brand's 
 latest wearable engineered with a next-generation experience in mind. The 
 heads.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Trend Hunter</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://www.analyticsinsight.net/gaming/top-vr-headsets-for-gaming-in-2024</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Top VR Headsets for Gaming in 2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>As the gaming industry continues to explode, virtual reality gaming has 
 made a major advancement over the years. VR headsets offers engaging 
 gaming...</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Analytics Insight</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/i-returned-my-apple-vision-pro-and-meta-quest-3-for-these-xr-glasses-and-theyre-30-off-for-prime-day/</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>I returned my Apple Vision Pro and Meta Quest 3 for these XR glasses - and 
 they're 30% off for Prime Day</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>The Viture One XR glasses expand your viewing experience and are now just 
 $299 for Amazon Prime Day.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21 hours ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ZDNET</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23 hours ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ZDNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://uk.pcmag.com/laptops/95117/the-best-laptops-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>The Best Laptops for VR in 2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Today's tethered virtual reality headsets demand a powerful PC. Don't want 
 to rely on a bulky desktop? These are the top notebooks we've tested that 
 have...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>PCMag UK</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://ca.movies.yahoo.com/movies/2017-09-27-eve-valkyrie-warzone-no-vr-required.html</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>'Eve: Valkyrie' drops the VR requirement</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>If what's been holding you back from playing Eve: Valkyrie has been the 
 lack of a VR headset, that (very valid) reason has disappeared.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Yahoo Movies Canada</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://www.laptopmag.com/reviews/viture-pro-xr-smart-glasses</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>VITURE Pro XR Glasses review: These AR smart glasses add a new dimension to 
 Windows and Mac computers</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Smart glasses like the VITURE Pro XR give you instant access to a 135-inch 
 virtual display for laptops, phones, and tablets. But are they worth their 
 bold...</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Laptop Mag</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
 During 2024-2032</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
 Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
 Type...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The Best VR Headsets for 2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Work or play in another dimension by donning one of the top-rated 
+standalone or tethered virtual reality headsets we've tested.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PCMag UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The Best Graphics Cards for VR in 2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Building or upgrading a PC that you want to use with the latest virtual 
+reality headsets, but not sure which video card to buy? Here's what you 
+need to know...</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PCMag Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
 remarkable growth, with its market size projected to reach USD 5.3 billion 
 by 2027,...</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11 hours ago</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13 hours ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://uk.pcmag.com/virtual-reality/75926/the-best-vr-headsets</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>The Best VR Headsets for 2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Work or play in another dimension by donning one of the top-rated 
-standalone or tethered virtual reality headsets we've tested.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PCMag UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>The Best Graphics Cards for VR in 2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Building or upgrading a PC that you want to use with the latest virtual 
-reality headsets, but not sure which video card to buy? Here's what you 
-need to know...</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PCMag Australia</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.livemint.com/technology/gadgets/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle-11720608242303.html</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
 wire-free lifestyle | Mint</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Check out the top wearables like smartwatches, headphones, neckband 
 earphones and more in our curated list. Choose from top brands and get the 
 one you have...</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>mint</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.phonearena.com/ar-vr/reviews/xreal-air-2-pro-review_id6255</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Xreal Air 2 Pro review: extra futuristic, thanks to this one (very useful) 
 gimmick</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Are the Xreal Air 2 Pro worth the $449 (€515 in Europe), or should you 
 stick to the more affordable $399 Xreal Air instead? Let's find out…</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>PhoneArena</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://surgeradio.cl/ciencia-y-tecnologia/the-best-vr-headsets-for-2024/22045/</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>The best VR headsets for 2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>If you've been tempted to buy a VR headset after seeing the Apple Vision 
-Pro in action, you're not alone. And the best news is, you don't have to 
-spend...</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>surgeradio.cl</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/the-meta-quest-s-airplane-mode-is-nice-but-i-find-it-pointless/ar-BB1pPnwT?item=flightsprg-tipsubsc-v1aseason=2024/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The Meta Quest's airplane mode is nice, but I find it pointless</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Airplane mode recently launched on the Meta Quest, but the feature has one 
+big problem: VR headsets are just too big for travel.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5 hours ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.researchgate.net/publication/382224123_Deceptive_Modulation_of_Actual_and_Perceived_Effort_While_Walking_Using_Immersive_Virtual_Reality_A_Teleoanticipatory_Approach</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Deceptive Modulation of Actual and Perceived Effort While</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>PDF | Virtual reality and technology-driven 'exergaming' have grown in 
 tandem to expand the possibilities of exercise. However, few studies have.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>ResearchGate</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
 built-in trackpad and battery; all you need is a display</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
 foldable keyboard. The company shared its live presentation, where the 
 presenter...</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=themed_featuredapps_enabled?loadin=defaultbrowser</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=flightsprg-tipsubsc-v1a?season=2024/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>This giant Samsung monitor is $720 off before Prime Day</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>The Samsung Odyssey OLED G9 is just a hair over $1000 today, and it looks 
 like the price is right.The Latest Tech News, Delivered to Your Inbox.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>6 hours ago</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://it.chosun.com/news/articleView.html?idxno=2023092119303</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Fascinating and Useful Hovering Hologram [Inho's Startup Pick]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>To view something using electronic devices, an output device like a monitor 
 is needed. Even smartphones display content through an LCD screen.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>IT조선</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://tech.hindustantimes.com/gaming/news/gta-6-trailer-sparks-fan-analysis-san-andreas-vr-rumours-resurface-71720811864890.html</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>GTA 6 trailer sparks fan analysis; San Andreas VR rumours resurface-</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Grand Theft Auto 6 first trailer has fans analysing every detail, while 
 recent comments from Video Games Deluxe reignite speculation about a VR 
 port for...</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>HT Tech</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.newelectronics.co.uk/content/news/omnivision-unveils-shutter-image-sensor-for-arvrmr-tracking-cameras/</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>OMNIVISION unveils shutter image sensor for AR/VR/MR tracking cameras</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>OMNIVISION, a developer of advanced digital imaging, analogue, and touch &amp; 
 display technology, has launched the OG0TC BSI global shutter (GS) image 
 sensor.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1 week ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>New Electronics</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/meta-holographic-glasses-are-almost-ready-to-demo/ar-BB1p5o3o?item=themed_featuredapps_enabled?loadin</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Meta holographic glasses are almost ready to demo</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Meta's holographic AR glasses prototype is "almost ready" and could change 
-the tech landscape. The glasses will use transparent lenses to display...</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-in/health/other/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle/ar-BB1pMw8p</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
-wire-free lifestyle</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Tired of tangled wires and cumbersome devices? Step into a world of 
-seamless connectivity and untethered freedom with the latest wearables.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.openpr.com/news/3585153/volumetric-display-market-size-research-report-2024</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Volumetric Display Market Size Research Report 2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>USA, New Jersey: Volumetric Display Market was valued at USD 211.43 Million 
-in 2020 and is projected to reach USD 1549.19 Million by 2028,...</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>47 minutes ago</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>openPR.com</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3105,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3289,654 +3263,656 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://www.einnews.com/pr_news/728271630/holographic-ar-display-market-overview-2022-size-share-growth-trends-demand-forecast-report-2031</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holographic AR Display Market Overview 2022 : Size, Share, Growth, Trends, 
+Demand, Forecast Report 2031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Holographic AR Display Market," The holographic ar display market was 
+valued at $170.30 million in 2021, and is estimated to reach $2.6 billion 
+by 2031,...</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56 minutes ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EIN News</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>https://nocamels.com/2024/07/new-specs-augment-reality-and-make-you-look-good-doing-it/</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>New Specs Augment Reality And Make You Look Good Doing It</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Lumus Optics is using mirrors with a modern high-tech twist to help create 
 the cutting edge of stylish augmented reality (AR) glasses.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>NoCamels</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>https://www.japantimes.co.jp/news/2024/07/16/world/society/ar15-america-popular-guns/</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>The AR-15: One of America's most popular and deadliest guns</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The attempted assassination of former U.S. President Donald Trump with a 
 semiautomatic rifle illustrates once again how easy it is for shooters in 
 the U.S....</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>The Japan Times</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Apple Vision Pro guide: Everything you need to know</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
 to buy in the U.K., Canada and elsewhere. Here's what you should know 
 about...</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Macworld</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://magazine.cim.org/en/news/2024/underground-surveying-gets-an-ar-upgrade-en/</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Underground surveying gets an AR upgrade</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>NSS Canada, a Sudbury, Ontario-based mining technology company, has 
 incorporated an augmented reality (AR) display into its underground 
 surveying software.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>CIM Magazine</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://www.openpr.com/news/3574492/windshield-ar-heads-up-displays-hud-market-size-demands-growth</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Windshield AR Heads Up Displays HUD Market Size, Demands, Growth</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Press release - WiseGuy Reports - Windshield AR Heads Up Displays HUD 
 Market Size, Demands, Growth Dynamics, Top Players and Global Forecast 
 2032...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>openPR.com</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51022484/Laser-Display-Technology-Market-Is-Likely-to-Experience-a-Strong-Growth-During-2024-2032/</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Is Likely to Experience a Strong Growth 
 During 2024-2032</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Laser Display Technology Market Size 2024 To 2032 Laser Display Technology 
 Market Analysis [Latest 105 Report Pages with 20.12% CAGR]| by Product 
 Type...</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/us/new-greenway-section-opening-in-huntersville-with-unique-light-art-display/ar-BB1pSYck</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>New greenway section opening in Huntersville with unique light art display</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The newest section of greenway in Mecklenburg County is opening next week, 
 and it's got a colorful surprise in it.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>XR industry developments and near-eye display market outlook</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
 growth potential of the near-eye display market.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>TelecomLead</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>I have no problem with a cheaper Vision Pro having a worse display</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
+display, but that's fine by me.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/music/news/grammy-museum-to-display-bts-seventeen-and-more-hybe-artists-memorabilia/ar-BB1pHeBT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Grammy Museum to Display BTS, Seventeen and More HYBE Artists' Memorabilia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hybe — the Korean firm behind BTS, Seventeen, Tomorrow x Together and more 
+— is getting a big look at the Grammy Museum in Downtown Los Angeles.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>How to Change Display Orientation in Windows</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>https://www.einnews.com/pr_news/726742643/display-market-is-expected-to-grow-from-157-8-billion-2023-to-reach-207-79-billion-in-2031-skyquest-technology</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Display Market is Expected to Grow from 157.8 Billion 2023 to reach 207.79 
 Billion in 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>WESTFORD, MASSACHUSETTS, UNITED STATES, July 11, 2024 /EINPresswire.com/ -- 
 Display Market size was valued at USD 152.46 billion in 2022 and is 
 expected to...</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>EIN News</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>I have no problem with a cheaper Vision Pro having a worse display</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
-display, but that's fine by me.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/music/news/grammy-museum-to-display-bts-seventeen-and-more-hybe-artists-memorabilia/ar-BB1pHeBT</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Grammy Museum to Display BTS, Seventeen and More HYBE Artists' Memorabilia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Hybe — the Korean firm behind BTS, Seventeen, Tomorrow x Together and more 
-— is getting a big look at the Grammy Museum in Downtown Los Angeles.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>How to Change Display Orientation in Windows</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12 hours ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/world/sycamore-gap-trunk-rings-art-goes-on-display/ar-BB1pZf8j?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sycamore Gap trunk-rings art goes on display</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>A collection of five prints created from the trunk of the Sycamore Gap tree 
 have gone on public display. The 200-year-old tree, which towered 50ft 
 above...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/jbl-s-new-earbuds-have-a-display-built-into-the-charging-case-but-that-s-not-their-best-feature/ar-BB1pBXPR</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>JBL's new earbuds have a display built into the charging case, but that's 
 not their best feature</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>retail for $200 and deliver fantastic audio playback, reliable noise 
 cancellation, and great battery life. The earbuds should satisfy most users 
 with their...</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5 hours ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7 hours ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.lelezard.com/en/news-21453722.html</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>According to SkyQuest, the global, AR/VR/MR Market size was valued at USD 
 30.6 Billion in 2022 and is poised to grow from USD 42.46 Billion in 2023 
 to USD...</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>18 hours ago</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Lelezard</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flightsprg-tipsubsc-v1a?loadIn=defaultBrowser</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Microsoft patents a technique to display encrypted documents so only you 
 can see them</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>It seems to be a better system than AMD's Privacy View feature but like all 
 of them, it can't solve one key issue.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/us/star-wars-costumes-and-props-go-on-display-in-greenville/ar-BB1obuvi?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>'Star Wars' costumes and props go on display in Greenville</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Starting Saturday, June 15, fans can see a collection of costumes and props 
 from the "Star Wars" movies in Greenville.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/google-pixel-watch-3-tipped-for-massive-display-upgrade-what-you-need-to-know/ar-BB1pLFSn?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Google Pixel Watch 3 tipped for massive display upgrade — what you need to 
 know</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Google's Pixel Watch 3 is rumored to get several significant display 
 upgrades, making it a massive leap over the Pixel Watch 2.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/sony-launches-a-new-98-inch-bravia-display-with-non-glare-coating-and-hdr-support-price-features-and-more/ar-BB1pEy3W?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sony launches a new 98-inch Bravia display with non-glare coating and HDR 
 support: Price, features and more</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Sony India unveils the 98-inch BZ53L BRAVIA display featuring Deep Black 
 Non-Glare Coating, 4K HDR, 120 Hz, XR TRILUMINOS™ Pro, and Full Array Local 
 Dimming...</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/travel/news/planes-and-stories-wwii-era-planes-on-display-at-lunken-airport-to-honor-americas-past/ar-BB1pr5no?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Planes and stories: WWII-era planes on display at Lunken Airport to honor 
 America's past</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>People are celebrating the ingenuity, courage, and determination of those 
 Americans who came before us this Independence Day weekend.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/full-amd-ryzen-pc-crammed-into-a-folding-mini-keyboard-includes-a-built-in-trackpad-and-battery-all-you-need-is-a-display/ar-BB1pyUEm?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20src</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Full AMD Ryzen PC crammed into a folding mini keyboard — includes a 
 built-in trackpad and battery; all you need is a display</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Chinese PC maker Linglong has just introduced a tiny PC that fits into a 
 foldable keyboard. The company shared its live presentation, where the 
 presenter...</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/meaning-behind-meghan-markle-s-constant-harry-hand-holding-amid-smitten-display-at-espys/ar-BB1pRqmH</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Meaning behind Meghan Markle's constant Harry hand holding amid smitten 
 display at ESPYs</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>The real meaning of Meghan Markle's constant hand holding with Prince Harry 
 has been revealed after their very loved-up display at the ESPY awards,...</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/get-this-27-gaming-monitor-for-only-159-77-ar/ar-BB1pTU5n?item=themed_featuredapps_enableD</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Get This 27" Gaming Monitor for Only $159.77 AR</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The ASRock 27" QHD 180Hz Gaming Monitor is currently on sale for $159.77 
-after rebate, marking the lowest price in the.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4015,7 +3991,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4043,7 +4019,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4248,7 +4224,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4393,7 +4369,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4599,7 +4575,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4772,7 +4748,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4829,7 +4805,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">

--- a/news.xlsx
+++ b/news.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,204 +468,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://omdia.tech.informa.com/blogs/2024/jul/exploring-the-unique-features-of-silicon-displays-driving-oledos-and-ledos</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Exploring the unique features of silicon displays driving, OLEDoS and LEDoS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Discover OLEDoS: The Evolution of Display Technology from TFT to MOSFET. 
+Explore the advancements in flat-panel display (FPD) technology and the 
+transition...</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Omdia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>https://www.ledinside.com/news/2024/07/schott_to_showcase_minimml_and_coldvision_lls_20130709</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>SCHOTT to Showcase MiniMML and ColdVision LLS 3 LED Light Source on Semicon 
 West</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>SCHOTT, the international technology group and experts in the fields of 
 specialty glass and glass-ceramics, will showcase a range of lighting and 
 imaging...</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>LEDinside</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://www.wicz.com/story/51040339/Global-MicroLED-Display-Market</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Global MicroLED Display Market Innovation [2023-2032] | 104 Pages Modern 
 Report</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Global MicroLED Display Market Outlook 2024-2032 – The Global MicroLED 
 Display Market research report 2024-2032 Adaptive Research Reports provides 
 a...</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>WICZ</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>https://www.digitaltrends.com/home-theater/best-tvs/</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>The 13 best TVs for 2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Whether you're a Samsung, Sony, or LG devotee, the best TVs of 2024 are 
 available from all three companies, along with a few other brands.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Digital Trends</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://readwrite.com/apple-watch-ultra-3-everything-we-know-so-far/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apple Watch Ultra 3: Everything we know so far</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The Apple Watch Ultra 3 is rumoured to be in the works, so this is 
+everything we know about Apple's potential new smartwatch release.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ReadWrite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.ravepubs.com/absen-is-global-leading-led-company-outside-china-according-to-omdia/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Absen is Global Leading LED Company Outside China, According to OMDIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Absen Inc announced that OMDIA, a renowned market research firm, has 
+recognized Absen as the leading provider of LED display solutions outside 
+of China.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>rAVe [PUBS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.ept.ca/2024/07/vuereal-scales-microsolid-printing-production-capabilities/</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>VueReal scales MicroSolid Printing production capabilities</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>By EP&amp;T Magazine July 16, 2024. Semiconductors Electronics Engineering 
 Contract Manufacturing Manufacturing MicroLED production scalability 
 semiconductor.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Electronic Products &amp; Technology</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://stylecaster.com/beauty/skin-care/1738819/qure-micro-infusion-kit-review/</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>This Micro Infusion Kit Is Just as Good as an In-Office Treatment—&amp; It's 
 55% Off for Prime Week</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>If you've been curious about micro-infusion, we're breaking down exactly 
 what it is and how to try it yourself.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>StyleCaster</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>https://www.theglobeandmail.com/investing/markets/markets-news/GetNews/27431899/neareye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>The global Near-Eye Display (NED) Market is anticipated to achieve 
 remarkable growth, with its market size projected to reach USD 5.3 billion 
 by 2027,...</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>The Globe and Mail</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.ledinside.com/news/2024/7/2024_07_12_02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Audio Tec Designs Creates a Striking 130-Inch Video Wall Installation Set 
+in Marble</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The first outdoor project for Audio Tec Designs results in a stunning 
+'resort-like' atmosphere complete with a dreamlike entertainment space.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LEDinside</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.northernnews.ca/newsfile/216626-vuereal-scales-microsolid-printing-doubles-production-facility-strengthens-leadership-for-automotive-and-consumer-innovation-2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>VueReal Scales MicroSolid Printing: Doubles Production Facility</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Waterloo, Ontario–(Newsfile Corp. – July 16, 2024) – VueReal, a pioneer in 
 MicroSolid Printing technology, today unveiled plans for a significant 
 expansion...</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Northern News</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.fmiblog.com/2024/07/18/global-micro-display-market-is-expected-to-generate-usd-8-2-billion-by-2033-future-market-insights-inc/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Global Micro Display Market is Expected to Generate USD 8.2 Billion by 
+2033: Future Market Insights, Inc.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The global micro display market is anticipated to reach a valuation of USd 
+1.4 billion in 2023, driven by the miniaturization of electronics.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FMIBlog</t>
         </is>
       </c>
     </row>
@@ -765,7 +909,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -972,7 +1116,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1029,7 +1173,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1088,7 +1232,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1147,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1159,147 +1303,146 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>https://marketscale.com/industries/education-technology/why-hardwired-buttons-outperform-wearable-devices-in-school-safety/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Why Hardwired Buttons Outperform Wearable Devices in School Safety</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A recent "Secured" episode highlighted the need to upgrade school safety 
+systems from outdated analog intercoms to IP-based solutions.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MarketScale</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>https://www.sportsbusinessjournal.com/Articles/2024/07/16/gorout-liberty-league</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>NCAA approves Liberty League to use in-game play calling technology from 
 GoRout</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>The Liberty League's seven teams institute GoRout's game system across 
 in-conference football games (and out-of-conference matchups if their 
 opponent...</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sports Business Journal</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41371-024-00932-3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Wearable cuffless blood pressure tracking: when will they be good enough?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Wearable health monitoring is a multibillion-dollar industry. But the holy 
+grail is probably getting it right for blood pressure monitoring without a 
+cuff,...</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.news-medical.net/news/20240718/The-Future-is-Wearable-Advancing-Human-Health-Through-Portable-Spectroscopy.aspx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The Future is Wearable: Advancing Human Health Through Portable Spectroscopy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>In this interview conducted at Pittcon 2024 in San Diego, we spoke to 
+Richard Crocombe about his journey in the field of spectroscopy, focusing 
+on the...</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>News-Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>https://www.upi.com/Science_News/2024/07/17/jelly-batteries-Cambridge-research/1371721216048/</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Researchers develop 'jelly-like' batteries to power wearable devices, brain 
 implants</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Cambridge University said its researchers have developed an 
 electric-eel-inspired, jelly-like, battery for use in wearable devices and 
 potentially for brain...</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>UPI.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41371-024-00932-3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Wearable cuffless blood pressure tracking: when will they be good enough?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Wearable health monitoring is a multibillion-dollar industry. But the holy 
-grail is probably getting it right for blood pressure monitoring without a 
-cuff,...</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nature</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.news-medical.net/news/20240718/The-Future-is-Wearable-Advancing-Human-Health-Through-Portable-Spectroscopy.aspx</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>The Future is Wearable: Advancing Human Health Through Portable Spectroscopy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>In this interview conducted at Pittcon 2024 in San Diego, we spoke to 
-Richard Crocombe about his journey in the field of spectroscopy, focusing 
-on the...</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14 hours ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>News-Medical</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.hospimedica.com/critical-care/articles/294801839/ai-integrated-wearable-sensor-accurately-measures-step-length-for-evaluation-of-neurological-diseases.html</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AI-Integrated Wearable Sensor Accurately Measures Step Length for 
-Evaluation of Neurological Diseases</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Step length is recognized as a sensitive and non-invasive metric for 
-assessing a variety of conditions and diseases such as aging,...</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HospiMedica International</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1495,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1409,7 +1552,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1437,7 +1580,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,147 +1592,147 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>https://www.hospimedica.com/critical-care/articles/294801839/ai-integrated-wearable-sensor-accurately-measures-step-length-for-evaluation-of-neurological-diseases.html</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AI-Integrated Wearable Sensor Accurately Measures Step Length for 
+Evaluation of Neurological Diseases</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Step length is recognized as a sensitive and non-invasive metric for 
+assessing a variety of conditions and diseases such as aging,...</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HospiMedica International</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>https://www.azom.com/news.aspx?newsID=63374</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Stretchable Batteries Inspired by Marine Life for Wearable Tech</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Researchers from the University of Cambridge created soft, elastic “jelly 
 batteries.” These batteries find application in wearable technology, soft 
 robotics...</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>16 hours ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20 hours ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>AZoM</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sports Analytics Market Size Worth US$ 20.48 Billion By 2032 With a CAGR of 
+22.51%, Boosted by Surged Usage of Wearable Technology | Research by SNS 
+Insider</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The Sports Analytics Market is Experiencing Robust Growth by Raising 
+Emphasis on Real-Time Data for Organizing Training Sessions, Says SNS 
+Insider,...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://www.globenewswire.com/news-release/2024/07/15/2913085/0/en/Wearable-Devices-Unveils-Innovative-ChatGPT-Gestures-Interaction-for-Apple-Watch-Using-Mudra-Band-Enhancing-AI-Integration.html</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils Innovative ChatGPT Gestures</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The new user experience enables interaction with AI agents through 
 touchless gestures, offering a seamless and innovative way to engage with 
 AI technology -.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>GlobeNewswire</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.stocktitan.net/news/WLDS/wearable-devices-unveils-the-revolutionary-mudra-link-the-first-ai-2nqborjfhrn0.html</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Wearable Devices Unveils the Revolutionary Mudra LINK: The First AI Neural 
 Interface Wristband for Android and Beyond</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Wearable Devices (Nasdaq: WLDS) has unveiled the Mudra LINK, an AI-powered 
 neural wristband for Bluetooth-enabled devices.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Stock Titan</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://finance.yahoo.com/news/sports-analytics-market-size-worth-173900140.html</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sports Analytics Market Size Worth US$ 20.48 Billion By 2032 With a CAGR of 
-22.51%, Boosted by Surged Usage of Wearable Technology | Research by SNS 
-Insider</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The Sports Analytics Market is Experiencing Robust Growth by Raising 
-Emphasis on Real-Time Data for Organizing Training Sessions, Says SNS 
-Insider,...</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Yahoo Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.keysnews.com/ap/national/samsung-brings-techs-latest-fashion-to-wearable-technology-with-ai-twists-in-new-watch-and/article_27b32ddb-b501-5b9c-8822-bf86c025f50c.html</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Samsung brings tech's latest fashion to wearable technology with AI twists 
-in new watch and ring</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SAN FRANCISCO — Samsung is dressing up its wearable devices in technology's 
-latest fashion — artificial intelligence.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>keysnews.com</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1802,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1687,7 +1830,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1860,7 +2003,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1889,7 +2032,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1976,425 +2119,425 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://www.macrumors.com/roundup/apple-vision-pro/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro: Should You Buy? Reviews, Features, and Price</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro is Apple's first wearable headset device, offering a mixed 
+reality experience. Vision Pro is priced starting at $3499, with...</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MacRumors</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.roadtovr.com/somnium-vr1-hands-on/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Somnium VR1 Hands-on: Enthusiast Level PC VR at a Difficult Price Point</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Somnium VR1 is a new PC VR headset that delivers an impressive 
+field-of-view (FOV) and high-resolution displays, ideally appealing to 
+enthusiasts already in...</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Road to VR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(Mirra Image) Virtual reality entertainment startup Mirra plans to open its 
+first location in Bellevue, Wash. in August. Mirra is a “social 
+entertainment.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GeekWire</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Apple Vision Pro guide: Everything you need to know</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
 to buy in the U.K., Canada and elsewhere. Here's what you should know 
 about...</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Macworld</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.roadtovr.com/somnium-vr1-hands-on/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Somnium VR1 Hands-on: Enthusiast Level PC VR at a Difficult Price Point</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Somnium VR1 is a new PC VR headset that delivers an impressive 
-field-of-view (FOV) and high-resolution displays, ideally appealing to 
-enthusiasts already in...</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Road to VR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.geekwire.com/2024/new-virtual-reality-gaming-and-entertainment-venue-mirra-opening-in-bellevue/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>New virtual reality gaming and entertainment venue Mirra opening in Bellevue</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(Mirra Image) Virtual reality entertainment startup Mirra plans to open its 
-first location in Bellevue, Wash. in August. Mirra is a “social 
-entertainment.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GeekWire</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/these-xr-glasses-cured-my-apple-vision-pro-fomo-and-theyre-140-off-on-prime-day/</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>These XR glasses cured my Apple Vision Pro FOMO - and they're $140 off on 
 Prime Day</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Viture's One XR glasses are a clever and portable way to work and play, and 
 they support the Vision Pro's killer feature.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>ZDNet</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.prnewswire.com/news-releases/arvrmr-market-revolutionizing-industries-pathway-to-surpassing-usd-521-28-billion-by-2031--skyquest-302198168.html</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>AR/VR/MR Market Revolutionizing Industries: Pathway to Surpassing USD 
 521.28 Billion by 2031 | SkyQuest</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>PRNewswire/ -- According to SkyQuest, the global, AR/VR/MR Market size was 
 valued at USD 30.6 Billion in 2022 and is poised to grow from USD 42.46 
 Billion...</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>PR Newswire</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://www.freethink.com/internet/metaverse-is-new-internet</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>You’re thinking of the metaverse all wrong, says Matthew Ball</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>In 2021, Mark Zuckerberg, the CEO of Facebook, announced that his company 
 was changing its name to Meta Platforms and pursuing the development of 
 the...</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Freethink</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>https://9to5mac.com/2024/07/18/these-two-visionos-2-features-aim-to-make-your-vision-pro-an-actually-useful-computer/</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>These two visionOS 2 features aim to make your Vision Pro an actually 
 useful computer</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>When Apple Vision Pro was first unveiled to the world, Apple repeatedly 
 emphasized it was a 'spatial computer,' not a VR headset.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11 hours ago</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>9to5Mac</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>https://www.trendhunter.com/trends/goovis-art</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ultra-Wide Head-Mounted Displays</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>GOOVIS ART - The GOOVIS ART ultra-wide head-mounted display is the brand's 
 latest wearable engineered with a next-generation experience in mind. The 
 heads.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>5 days ago</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Trend Hunter</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://bmcmededuc.biomedcentral.com/articles/10.1186/s12909-024-05764-w</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Immersive virtual reality for interdisciplinary trauma management – initial 
 evaluation of a training tool prototype</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Emergency care of critically ill patients in the trauma room is an integral 
 part of interdisciplinary work in hospitals. Live threatening injuries 
 require...</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15 hours ago</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>BMC Medical Education</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://omdia.tech.informa.com/blogs/2024/jul/exploring-the-unique-features-of-silicon-displays-driving-oledos-and-ledos</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Exploring the unique features of silicon displays driving, OLEDoS and LEDoS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Discover OLEDoS: The Evolution of Display Technology from TFT to MOSFET. 
 Explore the advancements in flat-panel display (FPD) technology and the 
 transition...</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Omdia</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/the-meta-quest-3-vr-headset-is-on-sale-in-prime-day-deals/ar-BB1q9LZg?item=flightsprg-tipsubsc-v1a?season</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>The Meta Quest 3 VR headset is on sale in Prime Day deals</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>The Meta Quest 3 is a standalone VR headset that will give you access to 
 hundreds of apps. Amazon is selling it for only $430 for Prime Day, for 
 savings of...</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904402</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Europe Virtual Reality (VR) Market Know Faster Growing Segments Now</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Market Overview: The Europe virtual reality (VR) market, valued at $6.92 
+billion in 2022, is expected to grow at an annual rate of 27.1%,...</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://www.pocket-lint.com/which-quest-2-games-support-120hz-refresh-rate/</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Which Quest 2 games support 120Hz refresh rate?</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The Meta Quest 2 has had a 120Hz refresh rate as an experimental feature 
 for quite some time. Now it's set to default to this, but not all games 
 support it.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Pocket-lint</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.techradar.com/computing/virtual-reality-augmented-reality/the-meta-quest-3s-netflix-app-has-been-shut-for-good-but-the-alternative-is-better-than-it-ever-was</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>The Meta Quest 3’s Netflix app has been shut for good – but the alternative 
-is better than it ever was</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>The Netflix VR app lives on in the browser.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TechRadar</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>XR industry developments and near-eye display market outlook</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
-growth potential of the near-eye display market.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TelecomLead</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.wicz.com/story/51050392/near-eye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
+          <t>https://www.zdnet.com/article/i-returned-my-apple-vision-pro-and-meta-quest-3-for-these-xr-glasses-and-theyre-30-off-for-prime-day/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Near-Eye Display Market Size Projected to Reach USD 5.3 Billion by 2027, at 
-a CAGR of 24.7%</t>
+          <t>I returned my Apple Vision Pro and Meta Quest 3 for these XR glasses - and 
+they're 30% off for Prime Day</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OLED: Expected to dominate due to its superior display quality and energy 
-efficiency. LCD: Continues to hold a significant share owing to its...</t>
+          <t>The Viture One XR glasses expand your viewing experience and are now just 
+$299 for Amazon Prime Day.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2404,401 +2547,403 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WICZ</t>
+          <t>ZDNET</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.zdnet.com/article/i-returned-my-apple-vision-pro-and-meta-quest-3-for-these-xr-glasses-and-theyre-30-off-for-prime-day/</t>
+          <t>https://www.prnewswire.com/news-releases/industrial-metaverse-market-worth-228-6-billion-by-2029---exclusive-report-by-marketsandmarkets-302200441.html</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>I returned my Apple Vision Pro and Meta Quest 3 for these XR glasses - and 
-they're 30% off for Prime Day</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>The Viture One XR glasses expand your viewing experience and are now just 
-$299 for Amazon Prime Day.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ZDNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.prnewswire.com/news-releases/industrial-metaverse-market-worth-228-6-billion-by-2029---exclusive-report-by-marketsandmarkets-302200441.html</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
         <is>
           <t>Industrial Metaverse Market worth $228.6 billion by 2029 - Exclusive Report 
 by MarketsandMarkets™</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>PRNewswire/ -- The global industrial metaverse market is projected to reach 
 USD 228.6 billion by 2029 from USD 28.7 billion in 2024; it is expected to 
 grow...</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PR Newswire</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.analyticsinsight.net/gaming/top-vr-headsets-for-gaming-in-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Top VR Headsets for Gaming in 2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>As the gaming industry continues to explode, virtual reality gaming has 
+made a major advancement over the years. VR headsets offers engaging 
+gaming...</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PR Newswire</t>
+          <t>Analytics Insight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>XR industry developments and near-eye display market outlook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
+growth potential of the near-eye display market.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TelecomLead</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.wicz.com/story/51050392/near-eye-display-market-size-projected-to-reach-usd-53-billion-by-2027-at-a-cagr-of-247</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Near-Eye Display Market Size Projected to Reach USD 5.3 Billion by 2027, at 
+a CAGR of 24.7%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>OLED: Expected to dominate due to its superior display quality and energy 
+efficiency. LCD: Continues to hold a significant share owing to its...</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WICZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>https://www.bbc.com/news/articles/cjqe75q4g5eo</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>An astronaut, McFly star &amp; VR: Must-sees at RIAT 2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>As well as its aerial displays, the huge air show hosts talks and 
 interactive exhibits.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>BBC</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://uk.pcmag.com/laptops/95117/the-best-laptops-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>The Best Laptops for VR in 2024</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Today's tethered virtual reality headsets demand a powerful PC. Don't want 
 to rely on a bulky desktop? These are the top notebooks we've tested that 
 have...</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>PCMag UK</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.operationsports.com/ea-sports-wrc-patch-1-9-0-addresses-issues-in-various-modes-vr-beta-and-more-patch-notes/</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>EA Sports WRC Patch 1.9.0 Addresses Issues in Various Modes, VR Beta and 
 More - Patch Notes</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>EA Sports WRC patch 1.9.0 is available today on all platforms addressing 
 issues in various modes, including Career, Clubs, Moments, VR Beta and more.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6 hours ago</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Operation Sports</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://au.pcmag.com/graphic-cards/52950/the-best-graphics-cards-for-vr-in-2020</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>The Best Graphics Cards for VR in 2024</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Building or upgrading a PC that you want to use with the latest virtual 
 reality headsets, but not sure which video card to buy? Here's what you 
 need to know...</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>PCMag Australia</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/news/5904333</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Healthcare Augmented Reality and Virtual Reality Market Gaining Momentum 
+with Positive External Factors</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Market Overview: The global healthcare AR and VR market is expected to 
+reach $64.87 billion by 2032, growing at an annual rate of 33.7% from 2022 
+to 2032.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.uploadvr.com/meta-hud-glasses-wont-be-ray-bans/</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Meta's HUD Glasses Reportedly Won't Be Ray-Ban Branded As Luxottica 
 “Balked” At The Thickness</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Meta's HUD glasses, coming next year, reportedly won't be Ray-Ban branded 
 or styled after EssilorLuxottica "balked" at the thickness of the frame.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>13 hours ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16 hours ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>UploadVR</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.phonearena.com/ar-vr/reviews/xreal-air-2-pro-review_id6255</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Xreal Air 2 Pro review: extra futuristic, thanks to this one (very useful) 
-gimmick</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Are the Xreal Air 2 Pro worth the $449 (€515 in Europe), or should you 
-stick to the more affordable $399 Xreal Air instead? Let's find out…</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PhoneArena</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904391</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Augmented Reality and Virtual Reality Market is set to Fly High Growth in 
+Years to Come</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Market Overview: The global augmented reality (AR) and virtual reality (VR) 
+market is projected to reach $1.18 trillion ($1,185.93 billion) by 2032,...</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://www.luxurylifestylemag.co.uk/gadgets/4-ways-vr-is-changing-the-uks-entertainment-industry-and-why-you-should-try-a-thrilling-new-vr-experience-this-summer/</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>4 ways VR is changing the UK’s entertainment industry – and why you should 
 try a thrilling new VR experience this summer</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>The rising demand for experiences that engage the senses all at once has 
 seen virtual reality (VR) come into its own, taking entertainment to 
 heights that...</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Luxury Lifestyle Magazine</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/meta-holographic-glasses-are-almost-ready-to-demo/ar-BB1p5o3o?item=themed_featuredapps_enabled?loadin</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Meta holographic glasses are almost ready to demo</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Meta's holographic AR glasses prototype is "almost ready" and could change 
-the tech landscape. The glasses will use transparent lenses to display...</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://tech.hindustantimes.com/gaming/news/gta-6-trailer-sparks-fan-analysis-san-andreas-vr-rumours-resurface-71720811864890.html</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>GTA 6 trailer sparks fan analysis; San Andreas VR rumours resurface-</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Grand Theft Auto 6 first trailer has fans analysing every detail, while 
-recent comments from Video Games Deluxe reignite speculation about a VR 
-port for...</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>HT Tech</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/this-giant-samsung-monitor-is-720-off-before-prime-day/ar-BB1q2Mfk?item=flightsprg-tipsubsc-v1a?season=2024/</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>This giant Samsung monitor is $720 off before Prime Day</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>The Samsung Odyssey OLED G9 is just a hair over $1000 today, and it looks 
-like the price is right.The Latest Tech News, Delivered to Your Inbox.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/382224123_Deceptive_Modulation_of_Actual_and_Perceived_Effort_While_Walking_Using_Immersive_Virtual_Reality_A_Teleoanticipatory_Approach</t>
+          <t>https://www.taiwannews.com.tw/en/news/5904346</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Deceptive Modulation of Actual and Perceived Effort While</t>
+          <t>Southeast Asia Augmented Reality and Virtual Reality Market Update Know 
+Whose Market Share Is Getting Bigger and Bigger</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PDF | Virtual reality and technology-driven 'exergaming' have grown in 
-tandem to expand the possibilities of exercise. However, few studies have.</t>
+          <t>Market Overview: The Southeast Asia AR and VR market is projected to grow 
+at an annual rate of 34.0%, reaching approximately $94.14 billion by 2032.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ResearchGate</t>
+          <t>Taiwan News</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.msn.com/en-in/health/other/best-wearables-to-buy-for-yourself-top-10-picks-for-you-to-adopt-a-wire-free-lifestyle/ar-BB1pMw8p</t>
+          <t>https://www.msn.com/en-us/news/technology/the-meta-quest-s-airplane-mode-is-nice-but-i-find-it-pointless/ar-BB1pPnwT?item=flightsprg-tipsubsc-v1a?loadi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Best wearables to buy for yourself: Top 10 picks for you to adopt a 
-wire-free lifestyle</t>
+          <t>The Meta Quest's airplane mode is nice, but I find it pointless</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tired of tangled wires and cumbersome devices? Step into a world of 
-seamless connectivity and untethered freedom with the latest wearables.</t>
+          <t>Airplane mode recently launched on the Meta Quest, but the feature has one 
+big problem: VR headsets are just too big for travel.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2963,7 +3108,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3051,7 +3196,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3079,7 +3224,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3091,86 +3236,86 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://nocamels.com/2024/07/new-specs-augment-reality-and-make-you-look-good-doing-it/</t>
+          <t>https://www.japantimes.co.jp/news/2024/07/16/world/society/ar15-america-popular-guns/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New Specs Augment Reality And Make You Look Good Doing It</t>
+          <t>The AR-15: One of America's most popular and deadliest guns</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>Lumus Optics is using mirrors with a modern high-tech twist to help create 
-the cutting edge of stylish augmented reality (AR) glasses.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NoCamels</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.japantimes.co.jp/news/2024/07/16/world/society/ar15-america-popular-guns/</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The AR-15: One of America's most popular and deadliest guns</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>The attempted assassination of former U.S. President Donald Trump with a 
 semiautomatic rifle illustrates once again how easy it is for shooters in 
 the U.S....</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The Japan Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://nocamels.com/2024/07/new-specs-augment-reality-and-make-you-look-good-doing-it/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>New Specs Augment Reality And Make You Look Good Doing It</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lumus Optics is using mirrors with a modern high-tech twist to help create 
+the cutting edge of stylish augmented reality (AR) glasses.</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Japan Times</t>
+          <t>NoCamels</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
+          <t>https://www.cureus.com/articles/273085-augmented-reality-guided-external-ventricular-drain-placement-a-case-report</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple Vision Pro guide: Everything you need to know</t>
+          <t>Augmented Reality-Guided External Ventricular Drain Placement: A Case Report</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
-to buy in the U.K., Canada and elsewhere. Here's what you should know 
-about...</t>
+          <t>The placement of an external ventricular drain (EVD) is a critical 
+neurosurgical procedure used to relieve intracranial pressure in patients 
+with conditions...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Macworld</t>
+          <t>Cureus</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3396,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3263,456 +3408,460 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904334</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>North America Healthcare Augmented Reality and Virtual Reality Market May 
+See Potential Upside in Years to Come</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Market Overview: The North America healthcare AR and VR market is projected 
+to grow at an annual rate of 32.4% and reach $24.18 billion by 2032.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>https://www.msn.com/en-us/news/us/new-greenway-section-opening-in-huntersville-with-unique-light-art-display/ar-BB1pSYck</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>New greenway section opening in Huntersville with unique light art display</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>The newest section of greenway in Mecklenburg County is opening next week, 
 and it's got a colorful surprise in it.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904376</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>North America Augmented Reality and Virtual Reality Market Beating 
+Historical Challenges, What’s Next</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Market Overview: The North American AR and VR market, valued at $17.85 
+billion in 2022, is projected to grow at an annual rate of 31.3% and reach 
+$359.10...</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/i-have-no-problem-with-a-cheaper-vision-pro-having-a-worse-display/ar-BB1pfjDB?item=flightsprg-tipsubsc-v1a?loadin</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>I have no problem with a cheaper Vision Pro having a worse display</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Rumors point to Apple's cheaper Vision Pro headset coming with a worse 
 display, but that's fine by me.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904406</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Augmented Reality (AR) Market Emerging Players May Yields New Opportunities</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Market Overview: The global augmented reality (AR) market is set to reach 
+$843.69 billion by 2032, growing at an annual rate of 36.2% from 2022 to 
+2032.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/news/technology/weekend-poll-do-you-use-your-phone-s-always-on-display/ar-BB1iuSLE?ocid=EMMX</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Weekend poll: Do you use your phone's always-on display?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>It's easy to take always-on displays for granted. Long gone are the days of 
+flashing notification lights, customized down to individual apps.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904357</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Asia Pacific Augmented Reality and Virtual Reality Market Update Companies 
+Showing Sign of Enormous Growth</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Market Overview: The Asia Pacific AR and VR market is anticipated to grow 
+at a robust annual rate of 34.6%, reaching a total addressable market...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/technology/how-to-change-display-orientation-in-windows/ar-AA1eS0pE?item=flights%3Cimg%20src&amp;item=flights%3Cimg%20&amp;item=flights%3Cimg%20src&amp;item=flights%3Cimg%20</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>How to Change Display Orientation in Windows</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Need to flip or rotate your computer screen? Here's how to do so on Windows.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/en/news/5904324</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Europe Healthcare Augmented Reality and Virtual Reality Market Is Likely to 
+Experience a Tremendous Growth in near Future</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Market Overview: The Europe healthcare AR and VR market was valued at $0.99 
+billion in 2022 and is projected to grow at an annual rate of 33.4% from 
+2022 to...</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/jbl-s-new-earbuds-have-a-display-built-into-the-charging-case-but-that-s-not-their-best-feature/ar-BB1pBXPR</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>JBL's new earbuds have a display built into the charging case, but that's 
 not their best feature</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>retail for $200 and deliver fantastic audio playback, reliable noise 
 cancellation, and great battery life. The earbuds should satisfy most users 
 with their...</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/autos/classic-cars/george-washington-artifact-found-in-goodwill-auction-on-display-at-museum/ar-BB1pGVCz?ocid=BingNewsVerp</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>George Washington artifact found in Goodwill auction on display at museum</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>An unusual historical find was made at a Goodwill auction: A piece of 
 fabric once a part of former President George Washington's tent.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/us/board-of-education-members-weigh-in-on-controversial-classroom-display-policy/ar-BB1nBTm5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Board of Education members weigh in on controversial classroom display 
-policy</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>On Tuesday, the New Hanover County Board of Education will vote on a 
-classroom display policy limiting what teachers and staff can display in 
-classrooms and...</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/lifestyle/shopping/lg-s-new-13-tandem-oled-display-for-laptops-delivers-2x-the-lifespan-3x-the-brightness-of-conventional-single-layer-oled-displays/ar-BB1oRCOv?item=flightsprg-tipsubsc-v1a?loadi</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>LG's New 13" Tandem OLED Display for Laptops Delivers 2x the Lifespan, 3x 
 the Brightness of Conventional Single-Layer OLED Displays</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>LG Display has announced that it has started mass production of the 
 industry's first 13-inch panel for laptops based on Tandem OLED, a 
 technology that...</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1 day ago</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/microsoft-patents-a-technique-to-display-encrypted-documents-so-only-you-can-see-them/ar-BB1pteOP?item=flightsprg-tipsubsc-v1a?season89c26d1ce19649ab8c6b1ea6904de419thu</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Microsoft patents a technique to display encrypted documents so only you 
-can see them</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>It seems to be a better system than AMD's Privacy View feature but like all 
-of them, it can't solve one key issue.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/travel/world-s-only-green-boned-dinosaur-headed-to-museum-display/ar-BB1q2eSj</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>World's Only Green-Boned Dinosaur Headed to Museum Display</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Museums over the years have featured some major pieces of history by 
+displaying the skeletons of various species of dinosaurs. Only one, 
+however, has ever...</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/other/galaxy-z-flip-6-s-cover-display-will-get-support-for-gmail-soon/ar-BB1pP6KI?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Galaxy Z Flip 6’s cover display will get support for Gmail soon</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Yesterday, Samsung introduced its latest foldable smartphones, the Galaxy Z 
-Flip 6 and Galaxy Z Fold 6, at its Unpacked 2024 event.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/prince-harry-is-in-a-good-place-after-putting-on-united-display-with-meghan-markle/ar-BB1pU5Ge</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Prince Harry is ‘in a good place’ after putting on united display with 
+Meghan Markle</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Prince Harry is said to be "in a good place" after he displayed a "sense of 
+honour" and "felt every word" when he accepted an award at the ESPYs this 
+week.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>MSN</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.taiwannews.com.tw/news/5904333</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Healthcare Augmented Reality and Virtual Reality Market Gaining Momentum 
+with Positive External Factors</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Market Overview: The global healthcare AR and VR market is expected to 
+reach $64.87 billion by 2032, growing at an annual rate of 33.7% from 2022 
+to 2032.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Taiwan News</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.msn.com/en-us/news/world/trumpets-tiaras-and-tradition-on-display-as-king-charles-iii-presides-over-opening-of-parliament/ar-BB1q7b2u?ocid=BingNewsBrowse</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Trumpets, tiaras and tradition on display as King Charles III presides over 
 opening of Parliament</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>LONDON (AP) — King Charles III will officially open the new session of 
 Parliament on Wednesday, donning his ceremonial robes and the crown of 
 state to...</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>http://www.msn.com/en-us/news/technology/what-color-mode-do-you-keep-your-phone-s-display-in/ar-BB1pZfAn?item=flightsprg-tipsubsc-v1a%3Floadin&amp;apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>What color mode do you keep your phone's display in?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>I'm not sure if there's a more important component on your smartphone than 
-its display. Sure, everything under the hood matters quite a bit — you 
-don't want...</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/travel/news/planes-and-stories-wwii-era-planes-on-display-at-lunken-airport-to-honor-americas-past/ar-BB1pr5no?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Planes and stories: WWII-era planes on display at Lunken Airport to honor 
-America's past</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>People are celebrating the ingenuity, courage, and determination of those 
-Americans who came before us this Independence Day weekend.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/shopping/sony-launches-a-new-98-inch-bravia-display-with-non-glare-coating-and-hdr-support-price-features-and-more/ar-BB1pEy3W?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sony launches a new 98-inch Bravia display with non-glare coating and HDR 
-support: Price, features and more</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sony India unveils the 98-inch BZ53L BRAVIA display featuring Deep Black 
-Non-Glare Coating, 4K HDR, 120 Hz, XR TRILUMINOS™ Pro, and Full Array Local 
-Dimming...</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/meaning-behind-meghan-markle-s-constant-harry-hand-holding-amid-smitten-display-at-espys/ar-BB1pRqmH</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Meaning behind Meghan Markle's constant Harry hand holding amid smitten 
-display at ESPYs</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>The real meaning of Meghan Markle's constant hand holding with Prince Harry 
-has been revealed after their very loved-up display at the ESPY awards,...</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.independent.co.uk/voices/donald-trump-shot-assassination-latest-news-b2580018.html</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>The US won’t put down its weapons – gun violence is as American as apple pie</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The attempted assassination of Donald Trump has stunned the world – but if 
-you think it will lead to meaningful gun control changes, keep dreaming,...</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>The Independent</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/news/technology/pixel-watch-3-leak-reveals-a-huge-display-upgrade/ar-BB1pK7pm?item=flightsprg-tipsubsc-v1a?season=2024/</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Pixel Watch 3 leak reveals a huge display upgrade</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>We've had several Pixel Watch 3 leaks recently: the image above leaked the 
-overall design last month, and just days ago more details emerged via the...</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3732,7 +3881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3787,7 +3936,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>24 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3815,7 +3964,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3827,465 +3976,664 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>https://www.americasbestracing.net/lifestyle/2024-thoroughbred-makeover-diary-expect-the-unexpected-journey</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thoroughbred Makeover Diary: Expect the Unexpected on This Journey</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Horses have a funny way of keeping us on our toes, don't they? Just when 
+you think things are going one way, we constantly have to pivot another way.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>America's Best Racing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>https://www.nytimes.com/2024/07/12/world/asia/india-ambani-wedding-billionaire.html</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>A Wedding Puts India’s Gilded Age on Lavish Display</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Many Indians cheer the rise of moguls like Mukesh Ambani, whose son's 
 wedding has become a global spectacle. To them, India's poverty is 
 predictable,...</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>The New York Times</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>https://mronline.org/2024/07/15/a-failure-for-divisive-concepts-legislation-is-a-victory-for-education/</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>A failure for ‘Divisive Concepts’ legislation is a victory for education</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Laws like this have a chilling effect on teachers' free speech. It remains 
 to be seen whether New Hampshire's win in federal court will become a 
 bellwether...</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>3 days ago</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>MR Online</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.macworld.com/article/557878/apple-vision-pro-features-specs-price-faq.html</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Apple Vision Pro guide: Everything you need to know</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Having launched in the U.S. in February, Apple Vision Pro is now available 
 to buy in the U.K., Canada and elsewhere. Here's what you should know 
 about...</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Macworld</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.economist.com/united-states/2024/07/16/is-the-move-to-oust-joe-biden-over</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Is the move to oust Joe Biden over?</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>The attempt on Donald Trump's life has muted the movement to replace Mr 
 Biden as the Democratic nominee | United States.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2 days ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>The Economist</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/travel/news/outstanding-poppy-season-at-tourist-attraction/ar-BB1nEgtW?ocid=BingNewsVerp</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Outstanding poppy season at tourist attraction</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Botanist Tom Hart Dyke, who is co-owner and head gardener, said he had 
-"never seen such a stunning display" in the 48 years he has lived there. Mr 
-Hart Dyke...</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MSN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/prince-harry-is-in-a-good-place-after-putting-on-united-display-with-meghan-markle/ar-BB1pU5Ge</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prince Harry is ‘in a good place’ after putting on united display with 
+Meghan Markle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Prince Harry is 'in a good place' after putting on united display with 
+Meghan Markle at the ESPY awards during the week, with the Duke of Sussex 
+winning an...</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>https://www.businesskorea.co.kr/news/articleView.html?idxno=221504</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Former Samsung Researcher Sentenced to Six Years for Leaking OLED Tech to 
 China</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>A former Samsung Display researcher has been sentenced to six years in 
 prison for leaking OLED manufacturing technology to China, a case that 
 underscores...</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5 hours ago</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Businesskorea</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/en-us/lifestyle/lifestyle-buzz/prince-harry-is-in-a-good-place-after-putting-on-united-display-with-meghan-markle/ar-BB1pU5Ge</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://ca.news.yahoo.com/apple-launches-most-advanced-smartphone-220931313.html?src=rss</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Apple launches ‘most advanced’ smartphone display with iPhone 14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Apple has launched its “most advanced” smartphone yet with the iPhone 14, 
+which features battery life and camera upgrades over its predecessor.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yahoo News Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://athlonsports.com/nfl/tennessee-titans/all-titans/breakdown/remembering-a-titan-keith-bullock-and-the-legacy-of-mr-monday-night-football</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Remembering A Titan: Keith Bullock And The Legacy Of "Mr. Monday Night 
+Football"</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bullock's knack for being in the right place at the right time, combined 
+with his physicality and football IQ, made him a player that opponents had 
+to...</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Athlon Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2024/07/18/arts/television/jd-vance-trump-apprentice.html</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>J.D. Vance Becomes Trump’s New Apprentice</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>In his prime-time debut, the senator and “Hillbilly Elegy” author showed 
+what he has to offer his running mate.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>XR industry developments and near-eye display market outlook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
+growth potential of the near-eye display market.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TelecomLead</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.dexerto.com/tech/mrbeast-gifts-retro-gaming-handhelds-airpods-to-youtubers-in-latest-video-2823019/</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MrBeast gifts retro gaming handhelds &amp; AirPods to YouTubers in latest video</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Each content creator part of Mr Beast's latest YouTube video received a 
+package of goodies as thank you, including their very own retro gaming 
+handheld.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dexerto</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://au.news.yahoo.com/victorian-mans-high-voltage-christmas-display-programmed-to-ac-dc-goes-viral-33539630.html</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Victorian man's high voltage Christmas display programmed to AC/DC goes 
+viral</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A Victorian electronics and computer whiz has become an online sensation, 
+with a video of his Christmas lights display, programmed in tune with 
+Aussie...</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yahoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.mirror.co.uk/3am/us-celebrity-news/prince-harry-in-good-place-33234136</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Prince Harry is ‘in a good place’ after putting on united display with 
 Meghan Markle</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Prince Harry is 'in a good place' after putting on united display with 
 Meghan Markle at the ESPY awards during the week, with the Duke of Sussex 
 winning an...</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.telecomlead.com/smart-phone/xr-industry-developments-and-near-eye-display-market-outlook-117090</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>XR industry developments and near-eye display market outlook</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kimi Lin and a team of analysts at Omdia have published a report on the 
-growth potential of the near-eye display market.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TelecomLead</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.dexerto.com/tech/mrbeast-gifts-retro-gaming-handhelds-airpods-to-youtubers-in-latest-video-2823019/</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MrBeast gifts retro gaming handhelds &amp; AirPods to YouTubers in latest video</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Each content creator part of Mr Beast's latest YouTube video received a 
-package of goodies as thank you, including their very own retro gaming 
-handheld.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Dexerto</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://au.news.yahoo.com/victorian-mans-high-voltage-christmas-display-programmed-to-ac-dc-goes-viral-33539630.html</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Victorian man's high voltage Christmas display programmed to AC/DC goes 
-viral</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A Victorian electronics and computer whiz has become an online sensation, 
-with a video of his Christmas lights display, programmed in tune with 
-Aussie...</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Yahoo</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.mirror.co.uk/3am/us-celebrity-news/prince-harry-in-good-place-33234136</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Prince Harry is ‘in a good place’ after putting on united display with 
-Meghan Markle</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Prince Harry is 'in a good place' after putting on united display with 
-Meghan Markle at the ESPY awards during the week, with the Duke of Sussex 
-winning an...</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>The Mirror</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://jerseyeveningpost.com/news/2024/07/18/air-display-organisers-appeal-to-the-public-to-save-the-event/</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Air Display organisers appeal to the public to save the event</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ORGANISERS of the Jersey International Air Display are appealing to the 
 public to help save this year's event.Mike Higgins – who has run the event 
 for […]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21 hours ago</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Jersey Evening Post</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.thehindu.com/news/national/telangana/hyderabad-mp-slams-up-police-fiat-to-display-names-of-owners-staff-of-eateries/article68417913.ece</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AIMIM chief Asaduddin Owaisi slams UP police fiat to display names of 
+owners, staff of eateries</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AIMIM president Asaduddin Owaisi criticises the UP government for 
+discriminatory order against Muslim eatery staff during Kanwar Yatra.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>The Hindu</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>https://www.thehindu.com/news/cities/puducherry/administration-launches-dedicated-number-to-complain-display-of-illegal-hoardings-in-puducherry/article68418021.ece</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Administration launches dedicated number to complain display of illegal 
 hoardings in Puducherry</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Puducherry launches helpline for reporting illegal hoardings, banners, and 
 cut-outs, urging residents to cooperate in maintaining cleanliness.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12 hours ago</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>The Hindu</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>https://www.monitor.co.ug/uganda/news/national/house-of-deals-parliament-faces-withering-accusations-of-rampant-corruption-4688900</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>House of deals: Parliament faces withering accusations of rampant corruption</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Chatter about a march to Parliament on July 23 in protest against 
 fraudulent conduct by those in power keeps gaining in amplitude.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Daily Monitor</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>https://www.iwradio.co.uk/news/local-community-news/one-of-a-kind-classic-volvo-on-exclusive-display-at-van-mossel-esplanade-dealership/</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>One-Of-A-Kind Classic Volvo On Exclusive Display At Van Mossel Esplanade 
 Dealership</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Cowes based Van Mossel Esplanade has welcomed a new and pristine example of 
 a classic Volvo to its fleet of vehicles on the Island.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Isle of Wight Radio</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.racenet.com.au/news/leap-to-fame-thrashes-swayzee-in-mr-feelgood-open-ahead-of-rematch-in-black-a-fake-20240714</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Leap To Fame makes big statement ahead of Blacks A Fake rematch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Leap To Fame now holds a 2-1 advantage over older sibling Swayzee after a 
+blistering win in the Mr Feelgood, and will be out to exact revenge in the 
+Black A...</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>racenet.com.au</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>https://www.bridgwatermercury.co.uk/news/24451512.photos-winners-sedgemoor-vintage-show-2024/</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>The best photos and all award winners from Sedgemoor Vintage Show 2024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Huge crowds were drawn to West Huntspill for the show which was organised 
 by Sedgemoor Vintage Club, and this year took place over the weekend from 
 Saturday...</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bridgwater Mercury</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>http://www.uniindia.com/asian-granito-india-ltd-opens-agl-universe-showroom-at-garhwa-jharkhand/pnn/news/3242374.html</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Asian Granito India Ltd opens AGL Universe showroom at Garhwa, Jharkhand</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Garhwa (Jharkhand) [India], July 17: Asian Granito India Limited (AGL), a 
+leading brand in luxury surface products such as Tiles, Marbles, Quartz,...</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UNITED NEWS OF INDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://wonderfulengineering.com/10-best-screen-protectors-for-honor-90-smart/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10 Best Screen Protectors For Honor 90 Smart</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>As the smartphone market continues to evolve, the Honor 90 Smart has 
+emerged as a popular choice due to its impressive features and sleek design.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wonderful Engineering</t>
         </is>
       </c>
     </row>
